--- a/CBS/Analysis/Data.xlsx
+++ b/CBS/Analysis/Data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\CBS\Analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13665" yWindow="1200" windowWidth="23220" windowHeight="16320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +14,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$40</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -226,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +246,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -265,7 +266,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -273,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -287,6 +288,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,7 +738,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -742,34 +746,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S38" sqref="S38"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="3" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" customWidth="1"/>
+    <col min="2" max="3" width="6.1640625" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="6.5" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="6.5" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" customWidth="1"/>
+    <col min="14" max="14" width="6.5" customWidth="1"/>
     <col min="15" max="15" width="6" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" customWidth="1"/>
+    <col min="17" max="17" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="72.75" customHeight="1">
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
@@ -807,7 +811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -863,7 +867,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1</v>
       </c>
@@ -919,7 +923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>2</v>
       </c>
@@ -975,7 +979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1087,7 +1091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1125,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="M7">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="N7">
         <v>81</v>
@@ -1143,7 +1147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1199,7 +1203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1255,7 +1259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1311,7 +1315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1367,7 +1371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1423,7 +1427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1479,7 +1483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1535,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1591,7 +1595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1647,7 +1651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1703,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1759,7 +1763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1815,7 +1819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1871,7 +1875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1927,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1968,7 +1972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2024,7 +2028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2080,7 +2084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2136,7 +2140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2192,7 +2196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2248,7 +2252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2286,7 +2290,7 @@
         <v>3</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="N28">
         <v>32</v>
@@ -2304,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2360,7 +2364,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2416,7 +2420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2472,7 +2476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2528,7 +2532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2584,7 +2588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2640,7 +2644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2690,7 +2694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2746,7 +2750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2802,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2867,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -2913,7 +2917,7 @@
       </c>
       <c r="M40">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="N40">
         <f t="shared" si="1"/>
@@ -2932,7 +2936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2978,7 +2982,7 @@
       </c>
       <c r="M41" s="6">
         <f t="shared" si="2"/>
-        <v>5.9117647058823533</v>
+        <v>4.0294117647058822</v>
       </c>
       <c r="N41" s="6">
         <f t="shared" si="2"/>
@@ -2999,7 +3003,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3012,16 +3016,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="90">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -3099,7 +3103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>6</v>
       </c>
@@ -3191,7 +3195,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3">
         <v>11</v>
       </c>
@@ -3283,7 +3287,7 @@
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>16</v>
       </c>
@@ -3375,7 +3379,7 @@
         <v>1.0868706410559206</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5">
         <v>18</v>
       </c>
@@ -3467,7 +3471,7 @@
         <v>-1.1548000561219161</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>19</v>
       </c>
@@ -3559,7 +3563,7 @@
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="A7">
         <v>21</v>
       </c>
@@ -3651,7 +3655,7 @@
         <v>1.1932716806534354</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="A8">
         <v>32</v>
       </c>
@@ -3743,7 +3747,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29">
       <c r="A9">
         <v>34</v>
       </c>
@@ -3835,7 +3839,7 @@
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>35</v>
       </c>
@@ -3927,7 +3931,7 @@
         <v>1.0868706410559206</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3993,7 +3997,7 @@
       <c r="AB11" s="8"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -4047,7 +4051,7 @@
       </c>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -4140,7 +4144,7 @@
       </c>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -4233,7 +4237,7 @@
       </c>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -4287,7 +4291,7 @@
       <c r="AB15" s="8"/>
       <c r="AC15" s="3"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -4341,7 +4345,7 @@
       <c r="AB16" s="8"/>
       <c r="AC16" s="3"/>
     </row>
-    <row r="17" spans="1:28" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" s="1" customFormat="1" ht="72.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -4360,7 +4364,7 @@
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -4369,7 +4373,7 @@
       <c r="J17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -4418,7 +4422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>2</v>
       </c>
@@ -4510,7 +4514,7 @@
         <v>-1.1548000561219161</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4602,7 +4606,7 @@
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>5</v>
       </c>
@@ -4631,7 +4635,7 @@
         <v>2</v>
       </c>
       <c r="J20">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="K20">
         <v>81</v>
@@ -4675,7 +4679,7 @@
       </c>
       <c r="X20">
         <f t="shared" si="29"/>
-        <v>50.483928186351001</v>
+        <v>-0.97928690127369844</v>
       </c>
       <c r="Y20">
         <f t="shared" si="29"/>
@@ -4694,7 +4698,7 @@
         <v>0.34189244782766975</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>8</v>
       </c>
@@ -4786,7 +4790,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>9</v>
       </c>
@@ -4878,7 +4882,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>10</v>
       </c>
@@ -4970,7 +4974,7 @@
         <v>-4.8909178847516435</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>13</v>
       </c>
@@ -5062,7 +5066,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>14</v>
       </c>
@@ -5154,7 +5158,7 @@
         <v>-1.1548000561219161</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>17</v>
       </c>
@@ -5246,7 +5250,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>22</v>
       </c>
@@ -5338,7 +5342,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>24</v>
       </c>
@@ -5430,7 +5434,7 @@
         <v>-3.3964707532997527</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>25</v>
       </c>
@@ -5522,7 +5526,7 @@
         <v>1.0868706410559206</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>26</v>
       </c>
@@ -5551,7 +5555,7 @@
         <v>3</v>
       </c>
       <c r="J30">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K30">
         <v>32</v>
@@ -5595,7 +5599,7 @@
       </c>
       <c r="X30">
         <f t="shared" si="42"/>
-        <v>16.175118127934535</v>
+        <v>-0.97928690127369844</v>
       </c>
       <c r="Y30">
         <f t="shared" si="42"/>
@@ -5614,7 +5618,7 @@
         <v>-0.50948678499809574</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>27</v>
       </c>
@@ -5706,7 +5710,7 @@
         <v>-1.9020236218478617</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>29</v>
       </c>
@@ -5798,7 +5802,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>30</v>
       </c>
@@ -5890,7 +5894,7 @@
         <v>-1.3608660178238612</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>31</v>
       </c>
@@ -5982,7 +5986,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>33</v>
       </c>
@@ -6074,7 +6078,7 @@
         <v>-1.9020236218478617</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28">
       <c r="C36" s="6">
         <f>4/18</f>
         <v>0.22222222222222221</v>
@@ -6124,7 +6128,7 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28">
       <c r="C37" s="4">
         <f>4/18</f>
         <v>0.22222222222222221</v>
@@ -6204,7 +6208,7 @@
       </c>
       <c r="X37">
         <f t="shared" si="44"/>
-        <v>2.6700311279813769</v>
+        <v>-1.1420588785093395</v>
       </c>
       <c r="Y37">
         <f t="shared" si="44"/>
@@ -6223,7 +6227,7 @@
         <v>-0.96422300363172964</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28">
       <c r="C38" s="5">
         <f>10/18</f>
         <v>0.55555555555555558</v>
@@ -6305,7 +6309,7 @@
       </c>
       <c r="X38">
         <f t="shared" si="45"/>
-        <v>12.676405869502544</v>
+        <v>1.2891833146280969</v>
       </c>
       <c r="Y38">
         <f t="shared" si="45"/>
@@ -6324,7 +6328,7 @@
         <v>1.399841146846172</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" s="1" customFormat="1" ht="72.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
@@ -6401,7 +6405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>1</v>
       </c>
@@ -6493,7 +6497,7 @@
         <v>-3.0636244834753925</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>4</v>
       </c>
@@ -6585,7 +6589,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>7</v>
       </c>
@@ -6677,7 +6681,7 @@
         <v>-3.3964707532997527</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>12</v>
       </c>
@@ -6769,7 +6773,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>15</v>
       </c>
@@ -6861,7 +6865,7 @@
         <v>-3.3964707532997527</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>20</v>
       </c>
@@ -6918,7 +6922,7 @@
         <v>-1.9020236218478617</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>23</v>
       </c>
@@ -7010,7 +7014,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>28</v>
       </c>
@@ -7102,7 +7106,7 @@
         <v>-1.9020236218478617</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -7155,7 +7159,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -7259,7 +7263,7 @@
         <v>-1.8604178381198166</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28">
       <c r="P50" t="s">
         <v>38</v>
       </c>
@@ -7312,17 +7316,17 @@
         <v>1.3364307141113256</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28">
       <c r="C52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28">
       <c r="P53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28">
       <c r="C54" t="s">
         <v>23</v>
       </c>
@@ -7378,7 +7382,7 @@
         <v>1.0717139617099488E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28">
       <c r="C55" t="s">
         <v>35</v>
       </c>
@@ -7418,7 +7422,7 @@
       </c>
       <c r="X55" s="6">
         <f t="shared" si="64"/>
-        <v>0.50076029958434709</v>
+        <v>7.6982026071654219E-2</v>
       </c>
       <c r="Y55" s="9">
         <f t="shared" si="64"/>
@@ -7437,7 +7441,7 @@
         <v>2.2399260374249195E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28">
       <c r="C56" t="s">
         <v>34</v>
       </c>
@@ -7480,7 +7484,7 @@
       </c>
       <c r="X56" s="6">
         <f t="shared" si="65"/>
-        <v>0.42633691472050417</v>
+        <v>0.82886266485204629</v>
       </c>
       <c r="Y56" s="9">
         <f t="shared" si="65"/>
@@ -7499,7 +7503,7 @@
         <v>0.13995484295418473</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28">
       <c r="C57" t="s">
         <v>31</v>
       </c>
@@ -7510,7 +7514,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -7521,7 +7525,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28">
       <c r="C59" t="s">
         <v>26</v>
       </c>
@@ -7529,7 +7533,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28">
       <c r="C60" t="s">
         <v>24</v>
       </c>
@@ -7540,7 +7544,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28">
       <c r="C61" t="s">
         <v>27</v>
       </c>
@@ -7652,7 +7656,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7664,9 +7673,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -7707,7 +7716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7760,7 +7769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7813,7 +7822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7866,7 +7875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7919,7 +7928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>6</v>
       </c>
@@ -7972,7 +7981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>8</v>
       </c>
@@ -8025,7 +8034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>9</v>
       </c>
@@ -8078,7 +8087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>10</v>
       </c>
@@ -8131,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>11</v>
       </c>
@@ -8184,7 +8193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>12</v>
       </c>
@@ -8237,7 +8246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>13</v>
       </c>
@@ -8290,7 +8299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>14</v>
       </c>
@@ -8343,7 +8352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>15</v>
       </c>
@@ -8396,7 +8405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>16</v>
       </c>
@@ -8449,7 +8458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>17</v>
       </c>
@@ -8502,7 +8511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>18</v>
       </c>
@@ -8555,7 +8564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>19</v>
       </c>
@@ -8608,7 +8617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>20</v>
       </c>
@@ -8646,7 +8655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>21</v>
       </c>
@@ -8699,7 +8708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>22</v>
       </c>
@@ -8752,7 +8761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>24</v>
       </c>
@@ -8805,7 +8814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>25</v>
       </c>
@@ -8858,7 +8867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>26</v>
       </c>
@@ -8911,7 +8920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>27</v>
       </c>
@@ -8964,7 +8973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>28</v>
       </c>
@@ -9017,7 +9026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>29</v>
       </c>
@@ -9070,7 +9079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>30</v>
       </c>
@@ -9123,7 +9132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>31</v>
       </c>
@@ -9176,7 +9185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>32</v>
       </c>
@@ -9229,7 +9238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>33</v>
       </c>
@@ -9279,7 +9288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>34</v>
       </c>
@@ -9332,7 +9341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>35</v>
       </c>
@@ -9385,7 +9394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -9438,7 +9447,7 @@
         <v>5.59375</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
@@ -9479,7 +9488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>7</v>
       </c>
@@ -9532,7 +9541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>23</v>
       </c>
@@ -9585,7 +9594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -9638,7 +9647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -9679,7 +9688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>1</v>
       </c>
@@ -9734,5 +9743,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/CBS/Analysis/Data.xlsx
+++ b/CBS/Analysis/Data.xlsx
@@ -1,33 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\CBS\Analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="MoCA" sheetId="2" r:id="rId2"/>
-    <sheet name="MMSE - Severity" sheetId="3" r:id="rId3"/>
+    <sheet name="Percentile" sheetId="4" r:id="rId2"/>
+    <sheet name="MoCA" sheetId="2" r:id="rId3"/>
+    <sheet name="MMSE - Severity" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$40</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="97">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -199,6 +205,126 @@
   <si>
     <t>N/A</t>
   </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>70-94</t>
+  </si>
+  <si>
+    <t>gender_1</t>
+  </si>
+  <si>
+    <t>ageBin</t>
+  </si>
+  <si>
+    <t>GroupCount</t>
+  </si>
+  <si>
+    <t>mean_spatial_span_score</t>
+  </si>
+  <si>
+    <t>std_spatial_span_score</t>
+  </si>
+  <si>
+    <t>mean_grammatical_reasoning_score</t>
+  </si>
+  <si>
+    <t>std_grammatical_reasoning_score</t>
+  </si>
+  <si>
+    <t>mean_double_trouble_score</t>
+  </si>
+  <si>
+    <t>std_double_trouble_score</t>
+  </si>
+  <si>
+    <t>mean_odd_one_out_score</t>
+  </si>
+  <si>
+    <t>std_odd_one_out_score</t>
+  </si>
+  <si>
+    <t>mean_monkey_ladder_score</t>
+  </si>
+  <si>
+    <t>std_monkey_ladder_score</t>
+  </si>
+  <si>
+    <t>mean_rotations_score</t>
+  </si>
+  <si>
+    <t>std_rotations_score</t>
+  </si>
+  <si>
+    <t>mean_feature_match_score</t>
+  </si>
+  <si>
+    <t>std_feature_match_score</t>
+  </si>
+  <si>
+    <t>mean_digit_span_score</t>
+  </si>
+  <si>
+    <t>std_digit_span_score</t>
+  </si>
+  <si>
+    <t>mean_spatial_tree_score</t>
+  </si>
+  <si>
+    <t>std_spatial_tree_score</t>
+  </si>
+  <si>
+    <t>mean_paired_associates_score</t>
+  </si>
+  <si>
+    <t>std_paired_associates_score</t>
+  </si>
+  <si>
+    <t>mean_polygons_score</t>
+  </si>
+  <si>
+    <t>std_polygons_score</t>
+  </si>
+  <si>
+    <t>mean_token_search_score</t>
+  </si>
+  <si>
+    <t>std_token_search_score</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>&lt;10</t>
+  </si>
+  <si>
+    <t>~10-25</t>
+  </si>
+  <si>
+    <t>~25-50</t>
+  </si>
+  <si>
+    <t>~50-75</t>
+  </si>
+  <si>
+    <t>~25</t>
+  </si>
+  <si>
+    <t>~90</t>
+  </si>
+  <si>
+    <t>~75</t>
+  </si>
+  <si>
+    <t>~50</t>
+  </si>
+  <si>
+    <t>~10</t>
+  </si>
+  <si>
+    <t>~75-90</t>
+  </si>
 </sst>
 </file>
 
@@ -274,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -291,6 +417,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,7 +867,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -746,34 +875,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="6.1640625" customWidth="1"/>
-    <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.5" customWidth="1"/>
-    <col min="10" max="10" width="6.5" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
-    <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" customWidth="1"/>
-    <col min="14" max="14" width="6.5" customWidth="1"/>
+    <col min="2" max="3" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" customWidth="1"/>
     <col min="15" max="15" width="6" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" customWidth="1"/>
-    <col min="17" max="17" width="5.5" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="72.75" customHeight="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,7 +955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1">
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -867,7 +1011,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -923,7 +1067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -979,7 +1123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1035,7 +1179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1091,7 +1235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1147,7 +1291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1203,7 +1347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1259,7 +1403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1315,7 +1459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1371,7 +1515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1427,7 +1571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1483,7 +1627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1539,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1595,7 +1739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1651,7 +1795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1707,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1763,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1819,7 +1963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1875,7 +2019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1931,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1972,7 +2116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2028,7 +2172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2084,7 +2228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2140,7 +2284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2196,7 +2340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2252,7 +2396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2308,7 +2452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2364,7 +2508,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2420,7 +2564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2476,7 +2620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2532,7 +2676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2588,7 +2732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2644,7 +2788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2694,7 +2838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2750,7 +2894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2806,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -2871,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -2936,7 +3080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -3014,18 +3158,1424 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>88</v>
+      </c>
+      <c r="D2">
+        <v>4.8977272727272725</v>
+      </c>
+      <c r="E2">
+        <v>0.93513503514748786</v>
+      </c>
+      <c r="F2">
+        <v>13.863636363636363</v>
+      </c>
+      <c r="G2">
+        <v>5.124163667520393</v>
+      </c>
+      <c r="H2">
+        <v>17.386363636363637</v>
+      </c>
+      <c r="I2">
+        <v>11.898451380140152</v>
+      </c>
+      <c r="J2">
+        <v>13.670454545454545</v>
+      </c>
+      <c r="K2">
+        <v>2.5358196702859193</v>
+      </c>
+      <c r="L2">
+        <v>6.5454545454545459</v>
+      </c>
+      <c r="M2">
+        <v>1.3382875565875336</v>
+      </c>
+      <c r="N2">
+        <v>61.329545454545453</v>
+      </c>
+      <c r="O2">
+        <v>29.212153662989213</v>
+      </c>
+      <c r="P2">
+        <v>99.443181818181813</v>
+      </c>
+      <c r="Q2">
+        <v>23.874122938476813</v>
+      </c>
+      <c r="R2">
+        <v>6.75</v>
+      </c>
+      <c r="S2">
+        <v>1.6968530710782199</v>
+      </c>
+      <c r="T2">
+        <v>14.443181818181818</v>
+      </c>
+      <c r="U2">
+        <v>7.6831775552744146</v>
+      </c>
+      <c r="V2">
+        <v>4.3295454545454541</v>
+      </c>
+      <c r="W2">
+        <v>1.0252175649009336</v>
+      </c>
+      <c r="X2">
+        <v>34.295454545454547</v>
+      </c>
+      <c r="Y2">
+        <v>20.69547070827312</v>
+      </c>
+      <c r="Z2">
+        <v>6.3068181818181817</v>
+      </c>
+      <c r="AA2">
+        <v>1.8026669549504204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>254</v>
+      </c>
+      <c r="D3">
+        <v>4.9133858267716537</v>
+      </c>
+      <c r="E3">
+        <v>0.93270503831274443</v>
+      </c>
+      <c r="F3">
+        <v>13.799212598425196</v>
+      </c>
+      <c r="G3">
+        <v>4.0950948400604421</v>
+      </c>
+      <c r="H3">
+        <v>18.228346456692915</v>
+      </c>
+      <c r="I3">
+        <v>10.583146402125475</v>
+      </c>
+      <c r="J3">
+        <v>13.153543307086615</v>
+      </c>
+      <c r="K3">
+        <v>2.2272227082598239</v>
+      </c>
+      <c r="L3">
+        <v>6.5984251968503935</v>
+      </c>
+      <c r="M3">
+        <v>1.1745647079985209</v>
+      </c>
+      <c r="N3">
+        <v>63.562992125984252</v>
+      </c>
+      <c r="O3">
+        <v>27.978852271153031</v>
+      </c>
+      <c r="P3">
+        <v>92.086614173228341</v>
+      </c>
+      <c r="Q3">
+        <v>25.645045479796412</v>
+      </c>
+      <c r="R3">
+        <v>6.7913385826771657</v>
+      </c>
+      <c r="S3">
+        <v>1.4689688040796682</v>
+      </c>
+      <c r="T3">
+        <v>14.464566929133857</v>
+      </c>
+      <c r="U3">
+        <v>7.3509379634263734</v>
+      </c>
+      <c r="V3">
+        <v>4.1929133858267713</v>
+      </c>
+      <c r="W3">
+        <v>1.0050214716493548</v>
+      </c>
+      <c r="X3">
+        <v>30.5748031496063</v>
+      </c>
+      <c r="Y3">
+        <v>19.013005611216862</v>
+      </c>
+      <c r="Z3">
+        <v>6.3346456692913389</v>
+      </c>
+      <c r="AA3">
+        <v>1.9766973674918358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4">
+        <v>64</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4">
+        <v>19</v>
+      </c>
+      <c r="U4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4" t="s">
+        <v>94</v>
+      </c>
+      <c r="X4">
+        <v>16</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z4">
+        <v>6</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>26</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5">
+        <v>-6</v>
+      </c>
+      <c r="O5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T5">
+        <v>7</v>
+      </c>
+      <c r="U5" t="s">
+        <v>88</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5" t="s">
+        <v>95</v>
+      </c>
+      <c r="X5">
+        <v>-5</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z5">
+        <v>5</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6">
+        <v>36</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6">
+        <v>88</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T6">
+        <v>7</v>
+      </c>
+      <c r="U6" t="s">
+        <v>88</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6" t="s">
+        <v>95</v>
+      </c>
+      <c r="X6">
+        <v>58</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z6">
+        <v>6</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" t="s">
+        <v>19</v>
+      </c>
+      <c r="V9" t="s">
+        <v>20</v>
+      </c>
+      <c r="W9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <f>$D$2+($E$2*0)</f>
+        <v>4.8977272727272725</v>
+      </c>
+      <c r="E10">
+        <f>$D$3+($E$3*0)</f>
+        <v>4.9133858267716537</v>
+      </c>
+      <c r="F10">
+        <f>$F$2+($G$2*0)</f>
+        <v>13.863636363636363</v>
+      </c>
+      <c r="G10">
+        <f>$F$3+($G$3*0)</f>
+        <v>13.799212598425196</v>
+      </c>
+      <c r="H10">
+        <f>$H$2+($I$2*0)</f>
+        <v>17.386363636363637</v>
+      </c>
+      <c r="I10">
+        <f>H3+(I3*0)</f>
+        <v>18.228346456692915</v>
+      </c>
+      <c r="J10">
+        <f>J2+(K2*0)</f>
+        <v>13.670454545454545</v>
+      </c>
+      <c r="K10">
+        <f>J3+(K3*0)</f>
+        <v>13.153543307086615</v>
+      </c>
+      <c r="L10">
+        <f>L2+(M2*0)</f>
+        <v>6.5454545454545459</v>
+      </c>
+      <c r="M10">
+        <f>L3+(M3*0)</f>
+        <v>6.5984251968503935</v>
+      </c>
+      <c r="N10">
+        <f>N2+(O2*0)</f>
+        <v>61.329545454545453</v>
+      </c>
+      <c r="O10">
+        <f>N3+(O3*0)</f>
+        <v>63.562992125984252</v>
+      </c>
+      <c r="P10">
+        <f>P2+(Q2*0)</f>
+        <v>99.443181818181813</v>
+      </c>
+      <c r="Q10">
+        <f>P3+(Q3*0)</f>
+        <v>92.086614173228341</v>
+      </c>
+      <c r="R10">
+        <f>R2+(S2*0)</f>
+        <v>6.75</v>
+      </c>
+      <c r="S10">
+        <f>R3+(S3*0)</f>
+        <v>6.7913385826771657</v>
+      </c>
+      <c r="T10">
+        <f>T2+(U2*0)</f>
+        <v>14.443181818181818</v>
+      </c>
+      <c r="U10">
+        <f>T3+(U3*0)</f>
+        <v>14.464566929133857</v>
+      </c>
+      <c r="V10">
+        <f>V2+(W2*0)</f>
+        <v>4.3295454545454541</v>
+      </c>
+      <c r="W10">
+        <f>V3+(W3*0)</f>
+        <v>4.1929133858267713</v>
+      </c>
+      <c r="X10">
+        <f>X2+(Y2*0)</f>
+        <v>34.295454545454547</v>
+      </c>
+      <c r="Y10">
+        <f>X3+(Y3*0)</f>
+        <v>30.5748031496063</v>
+      </c>
+      <c r="Z10">
+        <f>Z2+(AA2*0)</f>
+        <v>6.3068181818181817</v>
+      </c>
+      <c r="AA10">
+        <f>Z3+(AA3*0)</f>
+        <v>6.3346456692913389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <f>D2+(E2*0.675)</f>
+        <v>5.5289434214518272</v>
+      </c>
+      <c r="E11">
+        <f>D3+(E3*0.675)</f>
+        <v>5.5429617276327559</v>
+      </c>
+      <c r="F11">
+        <f>F2+(G2*0.675)</f>
+        <v>17.322446839212628</v>
+      </c>
+      <c r="G11">
+        <f>F3+(G3*0.675)</f>
+        <v>16.563401615465995</v>
+      </c>
+      <c r="H11">
+        <f>H2+(I2*0.675)</f>
+        <v>25.41781831795824</v>
+      </c>
+      <c r="I11">
+        <f>H3+(I3*0.675)</f>
+        <v>25.371970278127613</v>
+      </c>
+      <c r="J11">
+        <f>J2+(K2*0.675)</f>
+        <v>15.382132822897541</v>
+      </c>
+      <c r="K11">
+        <f>J3+(K3*0.675)</f>
+        <v>14.656918635161997</v>
+      </c>
+      <c r="L11">
+        <f>L2+(M2*0.675)</f>
+        <v>7.4487986461511309</v>
+      </c>
+      <c r="M11">
+        <f>L3+(M3*0.675)</f>
+        <v>7.3912563747493953</v>
+      </c>
+      <c r="N11">
+        <f>N2+(O2*0.675)</f>
+        <v>81.047749177063167</v>
+      </c>
+      <c r="O11">
+        <f>N3+(O3*0.675)</f>
+        <v>82.448717409012545</v>
+      </c>
+      <c r="P11">
+        <f>P2+(Q2*0.675)</f>
+        <v>115.55821480165366</v>
+      </c>
+      <c r="Q11">
+        <f>P3+(Q3*0.675)</f>
+        <v>109.39701987209092</v>
+      </c>
+      <c r="R11">
+        <f>R2+(S2*0.675)</f>
+        <v>7.8953758229777984</v>
+      </c>
+      <c r="S11">
+        <f>R3+(S3*0.675)</f>
+        <v>7.7828925254309418</v>
+      </c>
+      <c r="T11">
+        <f>T2+(U2*0.675)</f>
+        <v>19.629326667992046</v>
+      </c>
+      <c r="U11">
+        <f>T3+(U3*0.675)</f>
+        <v>19.426450054446661</v>
+      </c>
+      <c r="V11">
+        <f>V2+(W2*0.675)</f>
+        <v>5.0215673108535848</v>
+      </c>
+      <c r="W11">
+        <f>V3+(W3*0.675)</f>
+        <v>4.8713028791900861</v>
+      </c>
+      <c r="X11">
+        <f>X2+(Y2*0.675)</f>
+        <v>48.264897273538907</v>
+      </c>
+      <c r="Y11">
+        <f>X3+(Y3*0.675)</f>
+        <v>43.408581937177686</v>
+      </c>
+      <c r="Z11">
+        <f>Z2+(AA2*0.675)</f>
+        <v>7.5236183764097158</v>
+      </c>
+      <c r="AA11">
+        <f>Z3+(AA3*0.675)</f>
+        <v>7.6689163923483283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <f>D2+(E2*1.282)</f>
+        <v>6.0965703877863522</v>
+      </c>
+      <c r="E12">
+        <f>D3+(E3*1.282)</f>
+        <v>6.1091136858885919</v>
+      </c>
+      <c r="F12">
+        <f>F2+(G2*1.282)</f>
+        <v>20.432814185397508</v>
+      </c>
+      <c r="G12">
+        <f>F3+(G3*1.282)</f>
+        <v>19.049124183382684</v>
+      </c>
+      <c r="H12">
+        <f>H2+(I2*1.282)</f>
+        <v>32.640178305703316</v>
+      </c>
+      <c r="I12">
+        <f>H3+(I3*1.282)</f>
+        <v>31.795940144217774</v>
+      </c>
+      <c r="J12">
+        <f>J2+(K2*1.282)</f>
+        <v>16.921375362761093</v>
+      </c>
+      <c r="K12">
+        <f>J3+(K3*1.282)</f>
+        <v>16.00884281907571</v>
+      </c>
+      <c r="L12">
+        <f>L2+(M2*1.282)</f>
+        <v>8.2611391929997637</v>
+      </c>
+      <c r="M12">
+        <f>L3+(M3*1.282)</f>
+        <v>8.1042171525044964</v>
+      </c>
+      <c r="N12">
+        <f>N2+(O2*1.282)</f>
+        <v>98.779526450497627</v>
+      </c>
+      <c r="O12">
+        <f>N3+(O3*1.282)</f>
+        <v>99.431880737602441</v>
+      </c>
+      <c r="P12">
+        <f>P2+(Q2*1.282)</f>
+        <v>130.0498074253091</v>
+      </c>
+      <c r="Q12">
+        <f>P3+(Q3*1.282)</f>
+        <v>124.96356247832733</v>
+      </c>
+      <c r="R12">
+        <f>R2+(S2*1.282)</f>
+        <v>8.9253656371222778</v>
+      </c>
+      <c r="S12">
+        <f>R3+(S3*1.282)</f>
+        <v>8.6745565895073007</v>
+      </c>
+      <c r="T12">
+        <f>T2+(U2*1.282)</f>
+        <v>24.293015444043618</v>
+      </c>
+      <c r="U12">
+        <f>T3+(U3*1.282)</f>
+        <v>23.888469398246468</v>
+      </c>
+      <c r="V12">
+        <f>V2+(W2*1.282)</f>
+        <v>5.6438743727484511</v>
+      </c>
+      <c r="W12">
+        <f>V3+(W3*1.282)</f>
+        <v>5.4813509124812443</v>
+      </c>
+      <c r="X12">
+        <f>X2+(Y2*1.282)</f>
+        <v>60.827047993460688</v>
+      </c>
+      <c r="Y12">
+        <f>X3+(Y3*1.282)</f>
+        <v>54.949476343186319</v>
+      </c>
+      <c r="Z12">
+        <f>Z2+(AA2*1.282)</f>
+        <v>8.6178372180646203</v>
+      </c>
+      <c r="AA12">
+        <f>Z3+(AA3*1.282)</f>
+        <v>8.868771694415873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>95</v>
+      </c>
+      <c r="D13">
+        <f>D2+(E2*1.645)</f>
+        <v>6.4360244055448899</v>
+      </c>
+      <c r="E13">
+        <f>D3+(E3*1.645)</f>
+        <v>6.4476856147961179</v>
+      </c>
+      <c r="F13">
+        <f>F2+(G2*1.645)</f>
+        <v>22.292885596707411</v>
+      </c>
+      <c r="G13">
+        <f>F3+(G3*1.645)</f>
+        <v>20.535643610324623</v>
+      </c>
+      <c r="H13">
+        <f>H2+(I2*1.645)</f>
+        <v>36.959316156694186</v>
+      </c>
+      <c r="I13">
+        <f>H3+(I3*1.645)</f>
+        <v>35.63762228818932</v>
+      </c>
+      <c r="J13">
+        <f>J2+(K2*1.645)</f>
+        <v>17.841877903074881</v>
+      </c>
+      <c r="K13">
+        <f>J3+(K3*1.645)</f>
+        <v>16.817324662174023</v>
+      </c>
+      <c r="L13">
+        <f>L2+(M2*1.645)</f>
+        <v>8.7469375760410379</v>
+      </c>
+      <c r="M13">
+        <f>L3+(M3*1.645)</f>
+        <v>8.5305841415079602</v>
+      </c>
+      <c r="N13">
+        <f>N2+(O2*1.645)</f>
+        <v>109.38353823016271</v>
+      </c>
+      <c r="O13">
+        <f>N3+(O3*1.645)</f>
+        <v>109.58820411203098</v>
+      </c>
+      <c r="P13">
+        <f>P2+(Q2*1.645)</f>
+        <v>138.71611405197618</v>
+      </c>
+      <c r="Q13">
+        <f>P3+(Q3*1.645)</f>
+        <v>134.27271398749343</v>
+      </c>
+      <c r="R13">
+        <f>R2+(S2*1.645)</f>
+        <v>9.5413233019236721</v>
+      </c>
+      <c r="S13">
+        <f>R3+(S3*1.645)</f>
+        <v>9.2077922653882194</v>
+      </c>
+      <c r="T13">
+        <f>T2+(U2*1.645)</f>
+        <v>27.08200889660823</v>
+      </c>
+      <c r="U13">
+        <f>T3+(U3*1.645)</f>
+        <v>26.556859878970243</v>
+      </c>
+      <c r="V13">
+        <f>V2+(W2*1.645)</f>
+        <v>6.0160283488074899</v>
+      </c>
+      <c r="W13">
+        <f>V3+(W3*1.645)</f>
+        <v>5.8461737066899602</v>
+      </c>
+      <c r="X13">
+        <f>X2+(Y2*1.645)</f>
+        <v>68.339503860563838</v>
+      </c>
+      <c r="Y13">
+        <f>X3+(Y3*1.645)</f>
+        <v>61.851197380058039</v>
+      </c>
+      <c r="Z13">
+        <f>Z2+(AA2*1.645)</f>
+        <v>9.2722053227116241</v>
+      </c>
+      <c r="AA13">
+        <f>Z3+(AA3*1.645)</f>
+        <v>9.5863128388154095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <f>D2+(E2*-0.675)</f>
+        <v>4.2665111240027178</v>
+      </c>
+      <c r="E14">
+        <f>D3+(E3*-0.675)</f>
+        <v>4.2838099259105515</v>
+      </c>
+      <c r="F14">
+        <f>$F$2+($G$2*-0.675)</f>
+        <v>10.404825888060097</v>
+      </c>
+      <c r="G14">
+        <f>$F$3+($G$3*-0.675)</f>
+        <v>11.035023581384397</v>
+      </c>
+      <c r="H14">
+        <f>H2+(I2*-0.675)</f>
+        <v>9.3549089547690336</v>
+      </c>
+      <c r="I14">
+        <f>H3+(I3*-0.675)</f>
+        <v>11.084722635258219</v>
+      </c>
+      <c r="J14">
+        <f>J2+(K2*-0.675)</f>
+        <v>11.958776268011549</v>
+      </c>
+      <c r="K14">
+        <f>J3+(K3*-0.675)</f>
+        <v>11.650167979011233</v>
+      </c>
+      <c r="L14">
+        <f>L2+(M2*-0.675)</f>
+        <v>5.6421104447579609</v>
+      </c>
+      <c r="M14">
+        <f>L3+(M3*-0.675)</f>
+        <v>5.8055940189513917</v>
+      </c>
+      <c r="N14">
+        <f>N2+(O2*-0.675)</f>
+        <v>41.611341732027732</v>
+      </c>
+      <c r="O14">
+        <f>N3+(O3*-0.675)</f>
+        <v>44.677266842955959</v>
+      </c>
+      <c r="P14">
+        <f>P2+(Q2*-0.675)</f>
+        <v>83.328148834709964</v>
+      </c>
+      <c r="Q14">
+        <f>P3+(Q3*-0.675)</f>
+        <v>74.77620847436576</v>
+      </c>
+      <c r="R14">
+        <f>R2+(S2*-0.675)</f>
+        <v>5.6046241770222016</v>
+      </c>
+      <c r="S14">
+        <f>R3+(S3*-0.675)</f>
+        <v>5.7997846399233897</v>
+      </c>
+      <c r="T14">
+        <f>T2+(U2*-0.675)</f>
+        <v>9.2570369683715885</v>
+      </c>
+      <c r="U14">
+        <f>T3+(U3*-0.675)</f>
+        <v>9.5026838038210553</v>
+      </c>
+      <c r="V14">
+        <f>V2+(W2*-0.675)</f>
+        <v>3.637523598237324</v>
+      </c>
+      <c r="W14">
+        <f>V3+(W3*-0.675)</f>
+        <v>3.5145238924634565</v>
+      </c>
+      <c r="X14">
+        <f>X2+(Y2*-0.675)</f>
+        <v>20.326011817370187</v>
+      </c>
+      <c r="Y14">
+        <f>X3+(Y3*-0.675)</f>
+        <v>17.741024362034917</v>
+      </c>
+      <c r="Z14">
+        <f>Z2+(AA2*-0.675)</f>
+        <v>5.0900179872266476</v>
+      </c>
+      <c r="AA14">
+        <f>Z3+(AA3*-0.675)</f>
+        <v>5.0003749462343494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <f>D2+(E2*-1.282)</f>
+        <v>3.6988841576681928</v>
+      </c>
+      <c r="E15">
+        <f>D3+(E3*-1.282)</f>
+        <v>3.7176579676547155</v>
+      </c>
+      <c r="F15">
+        <f>$F$2+($G$2*-1.282)</f>
+        <v>7.294458541875219</v>
+      </c>
+      <c r="G15">
+        <f>$F$3+($G$3*1.282)</f>
+        <v>19.049124183382684</v>
+      </c>
+      <c r="H15">
+        <f>H2+(I2*-1.282)</f>
+        <v>2.1325489670239612</v>
+      </c>
+      <c r="I15">
+        <f>H3+(I3*1.282)</f>
+        <v>31.795940144217774</v>
+      </c>
+      <c r="J15">
+        <f>J2+(K2*-1.282)</f>
+        <v>10.419533728147996</v>
+      </c>
+      <c r="K15">
+        <f>J3+(K3*-1.282)</f>
+        <v>10.29824379509752</v>
+      </c>
+      <c r="L15">
+        <f>L2+(M2*-1.282)</f>
+        <v>4.829769897909328</v>
+      </c>
+      <c r="M15">
+        <f>L3+(M3*-1.282)</f>
+        <v>5.0926332411962898</v>
+      </c>
+      <c r="N15">
+        <f>N2+(O2*-1.282)</f>
+        <v>23.879564458593279</v>
+      </c>
+      <c r="O15">
+        <f>N3+(O3*-1.282)</f>
+        <v>27.694103514366063</v>
+      </c>
+      <c r="P15">
+        <f>P2+(Q2*-1.282)</f>
+        <v>68.836556211054543</v>
+      </c>
+      <c r="Q15">
+        <f>P3+(Q3*-1.282)</f>
+        <v>59.209665868129342</v>
+      </c>
+      <c r="R15">
+        <f>R2+(S2*-1.282)</f>
+        <v>4.5746343628777222</v>
+      </c>
+      <c r="S15">
+        <f>R3+(S3*-1.282)</f>
+        <v>4.9081205758470308</v>
+      </c>
+      <c r="T15">
+        <f>T2+(U2*-1.282)</f>
+        <v>4.5933481923200183</v>
+      </c>
+      <c r="U15">
+        <f>T3+(U3*-1.282)</f>
+        <v>5.0406644600212474</v>
+      </c>
+      <c r="V15">
+        <f>V2+(W2*-1.282)</f>
+        <v>3.0152165363424572</v>
+      </c>
+      <c r="W15">
+        <f>V3+(W3*-1.282)</f>
+        <v>2.9044758591722983</v>
+      </c>
+      <c r="X15">
+        <f>X2+(Y2*-1.282)</f>
+        <v>7.7638610974484052</v>
+      </c>
+      <c r="Y15">
+        <f>X3+(Y3*-1.282)</f>
+        <v>6.2001299560262844</v>
+      </c>
+      <c r="Z15">
+        <f>Z2+(AA2*-1.282)</f>
+        <v>3.9957991455717425</v>
+      </c>
+      <c r="AA15">
+        <f>Z3+(AA3*-1.282)</f>
+        <v>3.8005196441668052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>79</v>
+      </c>
+      <c r="D19">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>64</v>
+      </c>
+      <c r="O19">
+        <v>16</v>
+      </c>
+      <c r="P19">
+        <v>16</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>79</v>
+      </c>
+      <c r="D20">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>26</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>32</v>
+      </c>
+      <c r="O20">
+        <v>-6</v>
+      </c>
+      <c r="P20">
+        <v>-5</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>86</v>
+      </c>
+      <c r="D21">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>29</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>6</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>88</v>
+      </c>
+      <c r="O21">
+        <v>36</v>
+      </c>
+      <c r="P21">
+        <v>58</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="90">
+    <row r="1" spans="1:29" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -3103,7 +4653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -3195,7 +4745,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11</v>
       </c>
@@ -3287,7 +4837,7 @@
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>16</v>
       </c>
@@ -3379,7 +4929,7 @@
         <v>1.0868706410559206</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18</v>
       </c>
@@ -3471,7 +5021,7 @@
         <v>-1.1548000561219161</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>19</v>
       </c>
@@ -3563,7 +5113,7 @@
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21</v>
       </c>
@@ -3655,7 +5205,7 @@
         <v>1.1932716806534354</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32</v>
       </c>
@@ -3747,7 +5297,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>34</v>
       </c>
@@ -3839,7 +5389,7 @@
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>35</v>
       </c>
@@ -3931,7 +5481,7 @@
         <v>1.0868706410559206</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3997,7 +5547,7 @@
       <c r="AB11" s="8"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -4051,7 +5601,7 @@
       </c>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -4144,7 +5694,7 @@
       </c>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -4237,7 +5787,7 @@
       </c>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -4291,7 +5841,7 @@
       <c r="AB15" s="8"/>
       <c r="AC15" s="3"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -4345,7 +5895,7 @@
       <c r="AB16" s="8"/>
       <c r="AC16" s="3"/>
     </row>
-    <row r="17" spans="1:28" s="1" customFormat="1" ht="72.75" customHeight="1">
+    <row r="17" spans="1:28" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -4422,7 +5972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -4514,7 +6064,7 @@
         <v>-1.1548000561219161</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4606,7 +6156,7 @@
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -4698,7 +6248,7 @@
         <v>0.34189244782766975</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8</v>
       </c>
@@ -4790,7 +6340,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9</v>
       </c>
@@ -4882,7 +6432,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10</v>
       </c>
@@ -4974,7 +6524,7 @@
         <v>-4.8909178847516435</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13</v>
       </c>
@@ -5066,7 +6616,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>14</v>
       </c>
@@ -5158,7 +6708,7 @@
         <v>-1.1548000561219161</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>17</v>
       </c>
@@ -5250,7 +6800,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -5342,7 +6892,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -5434,7 +6984,7 @@
         <v>-3.3964707532997527</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
@@ -5526,7 +7076,7 @@
         <v>1.0868706410559206</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -5618,7 +7168,7 @@
         <v>-0.50948678499809574</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -5710,7 +7260,7 @@
         <v>-1.9020236218478617</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -5802,7 +7352,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -5894,7 +7444,7 @@
         <v>-1.3608660178238612</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -5986,7 +7536,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -6078,7 +7628,7 @@
         <v>-1.9020236218478617</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C36" s="6">
         <f>4/18</f>
         <v>0.22222222222222221</v>
@@ -6128,7 +7678,7 @@
         <v>0.61111111111111116</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C37" s="4">
         <f>4/18</f>
         <v>0.22222222222222221</v>
@@ -6227,7 +7777,7 @@
         <v>-0.96422300363172964</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C38" s="5">
         <f>10/18</f>
         <v>0.55555555555555558</v>
@@ -6328,7 +7878,7 @@
         <v>1.399841146846172</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="1" customFormat="1" ht="72.75" customHeight="1">
+    <row r="39" spans="1:28" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
@@ -6405,7 +7955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -6497,7 +8047,7 @@
         <v>-3.0636244834753925</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -6589,7 +8139,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7</v>
       </c>
@@ -6681,7 +8231,7 @@
         <v>-3.3964707532997527</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12</v>
       </c>
@@ -6773,7 +8323,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>15</v>
       </c>
@@ -6865,7 +8415,7 @@
         <v>-3.3964707532997527</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20</v>
       </c>
@@ -6922,7 +8472,7 @@
         <v>-1.9020236218478617</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>23</v>
       </c>
@@ -7014,7 +8564,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>28</v>
       </c>
@@ -7106,7 +8656,7 @@
         <v>-1.9020236218478617</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -7159,7 +8709,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -7263,7 +8813,7 @@
         <v>-1.8604178381198166</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P50" t="s">
         <v>38</v>
       </c>
@@ -7316,17 +8866,17 @@
         <v>1.3364307141113256</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>23</v>
       </c>
@@ -7382,7 +8932,7 @@
         <v>1.0717139617099488E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>35</v>
       </c>
@@ -7441,7 +8991,7 @@
         <v>2.2399260374249195E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>34</v>
       </c>
@@ -7503,7 +9053,7 @@
         <v>0.13995484295418473</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>31</v>
       </c>
@@ -7514,7 +9064,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>30</v>
       </c>
@@ -7525,7 +9075,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>26</v>
       </c>
@@ -7533,7 +9083,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="60" spans="1:28">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>24</v>
       </c>
@@ -7544,7 +9094,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="61" spans="1:28">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>27</v>
       </c>
@@ -7665,7 +9215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
@@ -7673,9 +9223,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -7716,7 +9266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7769,7 +9319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7822,7 +9372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7875,7 +9425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -7928,7 +9478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -7981,7 +9531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -8034,7 +9584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -8087,7 +9637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -8140,7 +9690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -8193,7 +9743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -8246,7 +9796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>13</v>
       </c>
@@ -8299,7 +9849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14</v>
       </c>
@@ -8352,7 +9902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
@@ -8405,7 +9955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16</v>
       </c>
@@ -8458,7 +10008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>17</v>
       </c>
@@ -8511,7 +10061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18</v>
       </c>
@@ -8564,7 +10114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>19</v>
       </c>
@@ -8617,7 +10167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
@@ -8655,7 +10205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -8708,7 +10258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>22</v>
       </c>
@@ -8761,7 +10311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24</v>
       </c>
@@ -8814,7 +10364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>25</v>
       </c>
@@ -8867,7 +10417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>26</v>
       </c>
@@ -8920,7 +10470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>27</v>
       </c>
@@ -8973,7 +10523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>28</v>
       </c>
@@ -9026,7 +10576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>29</v>
       </c>
@@ -9079,7 +10629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>30</v>
       </c>
@@ -9132,7 +10682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>31</v>
       </c>
@@ -9185,7 +10735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32</v>
       </c>
@@ -9238,7 +10788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>33</v>
       </c>
@@ -9288,7 +10838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>34</v>
       </c>
@@ -9341,7 +10891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>35</v>
       </c>
@@ -9394,7 +10944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -9447,7 +10997,7 @@
         <v>5.59375</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1">
+    <row r="36" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
@@ -9488,7 +11038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7</v>
       </c>
@@ -9541,7 +11091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>23</v>
       </c>
@@ -9594,7 +11144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -9647,7 +11197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1">
+    <row r="42" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -9688,7 +11238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>

--- a/CBS/Analysis/Data.xlsx
+++ b/CBS/Analysis/Data.xlsx
@@ -18,9 +18,9 @@
     <sheet name="MMSE - Severity" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$47</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="109">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -324,6 +324,42 @@
   </si>
   <si>
     <t>~75-90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                </t>
+  </si>
+  <si>
+    <t>SCORES FOR COMPOSITES</t>
+  </si>
+  <si>
+    <t>Digit span</t>
+  </si>
+  <si>
+    <t>Spatial planning</t>
+  </si>
+  <si>
+    <t>mean_memory</t>
+  </si>
+  <si>
+    <t>std_memory</t>
+  </si>
+  <si>
+    <t>mean_reasoning</t>
+  </si>
+  <si>
+    <t>std_reasoning</t>
+  </si>
+  <si>
+    <t>mean_verbal</t>
+  </si>
+  <si>
+    <t>std_verbal</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -878,11 +914,11 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD31"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2779,7 +2815,7 @@
         <v>45</v>
       </c>
       <c r="P34">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -2795,6 +2831,9 @@
       <c r="B35" t="s">
         <v>20</v>
       </c>
+      <c r="C35">
+        <v>89</v>
+      </c>
       <c r="D35">
         <v>25</v>
       </c>
@@ -2836,6 +2875,9 @@
       </c>
       <c r="Q35">
         <v>4</v>
+      </c>
+      <c r="S35">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -2950,199 +2992,284 @@
         <v>1</v>
       </c>
     </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>62</v>
+      </c>
+      <c r="D38">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>30</v>
+      </c>
+      <c r="F38">
+        <v>30</v>
+      </c>
+      <c r="G38">
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <v>17</v>
+      </c>
+      <c r="I38">
+        <v>17</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <v>6</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="N38">
+        <v>110</v>
+      </c>
+      <c r="O38">
+        <v>88</v>
+      </c>
+      <c r="P38">
+        <v>66</v>
+      </c>
+      <c r="Q38">
+        <v>8</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+    </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ref="C39:Q39" si="0">MIN(C3:C37)</f>
-        <v>70</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
+      <c r="A39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <f>MIN(C3:C44)</f>
+        <v>62</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:Q46" si="0">MIN(D3:D44)</f>
         <v>12</v>
       </c>
-      <c r="E39">
+      <c r="E46">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F39">
+      <c r="F46">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="G39">
+      <c r="G46">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H39">
+      <c r="H46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I39">
+      <c r="I46">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="J39">
+      <c r="J46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K39">
+      <c r="K46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L39">
+      <c r="L46">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M39">
+      <c r="M46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N39">
+      <c r="N46">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O39">
+      <c r="O46">
         <f t="shared" si="0"/>
         <v>-11</v>
       </c>
-      <c r="P39">
+      <c r="P46">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="Q39">
+      <c r="Q46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ref="C40:Q40" si="1">MAX(C3:C37)</f>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <f>MAX(C3:C44)</f>
         <v>92</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="E40">
+      <c r="D47">
+        <f t="shared" ref="D47:Q47" si="1">MAX(D3:D44)</f>
+        <v>30</v>
+      </c>
+      <c r="E47">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="F40">
+      <c r="F47">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="G40">
+      <c r="G47">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="H40">
+      <c r="H47">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="I40">
+      <c r="I47">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="J40">
+      <c r="J47">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K40">
+      <c r="K47">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L40">
+      <c r="L47">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M40">
+        <v>6</v>
+      </c>
+      <c r="M47">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="N40">
+      <c r="N47">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="O40">
+      <c r="O47">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="P40">
+      <c r="P47">
         <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="Q40">
+        <v>66</v>
+      </c>
+      <c r="Q47">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>43</v>
       </c>
-      <c r="C41">
-        <f t="shared" ref="C41:Q41" si="2">AVERAGE(C3:C37)</f>
-        <v>82.588235294117652</v>
-      </c>
-      <c r="D41" s="6">
+      <c r="C48">
+        <f>AVERAGE(C3:C44)</f>
+        <v>82.194444444444443</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48:Q48" si="2">AVERAGE(D3:D44)</f>
+        <v>24.222222222222221</v>
+      </c>
+      <c r="E48">
         <f t="shared" si="2"/>
-        <v>24.057142857142857</v>
-      </c>
-      <c r="E41" s="6">
+        <v>27.611111111111111</v>
+      </c>
+      <c r="F48">
         <f t="shared" si="2"/>
-        <v>27.542857142857144</v>
-      </c>
-      <c r="F41" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>97</v>
+      </c>
+      <c r="H48">
         <f t="shared" si="2"/>
-        <v>7.8857142857142861</v>
-      </c>
-      <c r="G41" s="6">
+        <v>11.2</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="2"/>
-        <v>8.5714285714285712</v>
-      </c>
-      <c r="H41" s="6">
+        <v>10.194444444444445</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="2"/>
-        <v>11.029411764705882</v>
-      </c>
-      <c r="I41" s="6">
+        <v>4.6944444444444446</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="J41" s="6">
+        <v>5.628571428571429</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="2"/>
-        <v>4.6571428571428575</v>
-      </c>
-      <c r="K41" s="6">
+        <v>3.4722222222222223</v>
+      </c>
+      <c r="M48">
         <f t="shared" si="2"/>
-        <v>5.5588235294117645</v>
-      </c>
-      <c r="L41" s="6">
+        <v>4.0571428571428569</v>
+      </c>
+      <c r="N48">
         <f t="shared" si="2"/>
-        <v>3.4</v>
-      </c>
-      <c r="M41" s="6">
+        <v>67.257142857142853</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="2"/>
-        <v>4.0294117647058822</v>
-      </c>
-      <c r="N41" s="6">
+        <v>31.142857142857142</v>
+      </c>
+      <c r="P48">
         <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="O41" s="6">
+        <v>16.472222222222221</v>
+      </c>
+      <c r="Q48">
         <f t="shared" si="2"/>
-        <v>29.470588235294116</v>
-      </c>
-      <c r="P41" s="6">
-        <f t="shared" si="2"/>
-        <v>14.685714285714285</v>
-      </c>
-      <c r="Q41" s="6">
-        <f t="shared" si="2"/>
-        <v>5.4285714285714288</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
@@ -3158,10 +3285,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4554,6 +4681,325 @@
       </c>
       <c r="Q21">
         <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>79</v>
+      </c>
+      <c r="D25">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>16</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <v>16</v>
+      </c>
+      <c r="L25">
+        <v>64</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>19</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <v>16</v>
+      </c>
+      <c r="Q25">
+        <v>6</v>
+      </c>
+      <c r="R25">
+        <v>-1.3943000000000001</v>
+      </c>
+      <c r="S25">
+        <v>39.318399999999997</v>
+      </c>
+      <c r="T25">
+        <v>7.8902999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>79</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>26</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>14</v>
+      </c>
+      <c r="I26">
+        <v>12</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <v>-6</v>
+      </c>
+      <c r="L26">
+        <v>32</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>7</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <v>-5</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+      <c r="R26">
+        <v>6.5499000000000001</v>
+      </c>
+      <c r="S26">
+        <v>10.702</v>
+      </c>
+      <c r="T26">
+        <v>3.1701999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>86</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>29</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>14</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>36</v>
+      </c>
+      <c r="L27">
+        <v>88</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>7</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <v>58</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+      <c r="R27">
+        <v>-14.2796</v>
+      </c>
+      <c r="S27">
+        <v>63.076300000000003</v>
+      </c>
+      <c r="T27">
+        <v>16.746500000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>-1.1779660921244217</v>
+      </c>
+      <c r="B31">
+        <v>0.97464603505467473</v>
+      </c>
+      <c r="C31">
+        <v>-1.0195175439495445</v>
+      </c>
+      <c r="D31">
+        <v>0.80956039188317086</v>
+      </c>
+      <c r="E31">
+        <v>-0.32608810771569802</v>
+      </c>
+      <c r="F31">
+        <v>1.060654084223299</v>
+      </c>
+      <c r="G31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-1.1602678079483986</v>
+      </c>
+      <c r="B32">
+        <v>0.91568284813292367</v>
+      </c>
+      <c r="C32">
+        <v>-1.1728427652927365</v>
+      </c>
+      <c r="D32">
+        <v>0.81444671587615358</v>
+      </c>
+      <c r="E32">
+        <v>-0.29942563058722554</v>
+      </c>
+      <c r="F32">
+        <v>0.88647871361902775</v>
+      </c>
+      <c r="G32" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4566,8 +5012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5243,7 +5689,7 @@
         <v>45</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="N8">
         <v>6</v>
@@ -5290,7 +5736,7 @@
       </c>
       <c r="AA8">
         <f>STANDARDIZE(M8,$M$15,$M$16)</f>
-        <v>-1.7054675896472848</v>
+        <v>-1.0773108212775186</v>
       </c>
       <c r="AB8">
         <f>STANDARDIZE(N8,$N$15,$N$16)</f>
@@ -5527,7 +5973,7 @@
       </c>
       <c r="M11" s="4">
         <f t="shared" si="25"/>
-        <v>17.888888888888889</v>
+        <v>19.333333333333332</v>
       </c>
       <c r="N11" s="4">
         <f t="shared" si="25"/>
@@ -5593,7 +6039,7 @@
       </c>
       <c r="M12" s="8">
         <f t="shared" si="26"/>
-        <v>8.1615630311301945</v>
+        <v>4.8989794855663558</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" si="26"/>
@@ -5686,7 +6132,7 @@
       </c>
       <c r="AA13" s="8">
         <f t="shared" si="27"/>
-        <v>-0.77780951439990875</v>
+        <v>-0.70801431791437919</v>
       </c>
       <c r="AB13" s="8">
         <f t="shared" si="27"/>
@@ -5779,7 +6225,7 @@
       </c>
       <c r="AA14" s="8">
         <f t="shared" si="28"/>
-        <v>0.40120714163691129</v>
+        <v>0.24316829747659627</v>
       </c>
       <c r="AB14" s="8">
         <f t="shared" si="28"/>
@@ -8925,7 +9371,7 @@
       </c>
       <c r="AA54" s="8">
         <f t="shared" si="63"/>
-        <v>4.7537890409860062E-2</v>
+        <v>1.1377127001027275E-2</v>
       </c>
       <c r="AB54" s="9">
         <f t="shared" si="63"/>
@@ -8984,7 +9430,7 @@
       </c>
       <c r="AA55" s="6">
         <f t="shared" si="64"/>
-        <v>0.71416608877603094</v>
+        <v>0.5121993711914461</v>
       </c>
       <c r="AB55" s="9">
         <f t="shared" si="64"/>
@@ -9219,8 +9665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10794,6 +11240,9 @@
       </c>
       <c r="B31" t="s">
         <v>20</v>
+      </c>
+      <c r="C31">
+        <v>89</v>
       </c>
       <c r="D31">
         <v>25</v>

--- a/CBS/Analysis/Data.xlsx
+++ b/CBS/Analysis/Data.xlsx
@@ -12,13 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
     <sheet name="MoCA" sheetId="2" r:id="rId2"/>
     <sheet name="Percentile" sheetId="4" r:id="rId3"/>
     <sheet name="MMSE - Severity" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Raw Data'!$E$1:$E$55</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="109">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -366,7 +367,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +379,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -436,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -456,11 +465,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -686,156 +701,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1128,7 +993,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40:Q43"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3805,8 +3670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10:AB15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4396,51 +4261,51 @@
         <v>8</v>
       </c>
       <c r="Q7">
-        <f>STANDARDIZE(C7,C18,C19)</f>
+        <f t="shared" ref="Q7:AB7" si="0">STANDARDIZE(C7,C18,C19)</f>
         <v>7.2913433679053091E-2</v>
       </c>
       <c r="R7">
-        <f>STANDARDIZE(D7,D18,D19)</f>
+        <f t="shared" si="0"/>
         <v>0.38005031547776363</v>
       </c>
       <c r="S7">
-        <f>STANDARDIZE(E7,E18,E19)</f>
+        <f t="shared" si="0"/>
         <v>1.8413205414342921</v>
       </c>
       <c r="T7">
-        <f>STANDARDIZE(F7,F18,F19)</f>
+        <f t="shared" si="0"/>
         <v>0.78161496292172838</v>
       </c>
       <c r="U7">
-        <f>STANDARDIZE(G7,G18,G19)</f>
+        <f t="shared" si="0"/>
         <v>-1.9002027646366408</v>
       </c>
       <c r="V7">
-        <f>STANDARDIZE(H7,H18,H19)</f>
+        <f t="shared" si="0"/>
         <v>0.33659898659798726</v>
       </c>
       <c r="W7">
-        <f>STANDARDIZE(I7,I18,I19)</f>
+        <f t="shared" si="0"/>
         <v>-0.19194951677020239</v>
       </c>
       <c r="X7">
-        <f>STANDARDIZE(J7,J18,J19)</f>
+        <f t="shared" si="0"/>
         <v>-0.97928690127369844</v>
       </c>
       <c r="Y7">
-        <f>STANDARDIZE(K7,K18,K19)</f>
+        <f t="shared" si="0"/>
         <v>0.69851253884046016</v>
       </c>
       <c r="Z7">
-        <f>STANDARDIZE(L7,L18,L19)</f>
+        <f t="shared" si="0"/>
         <v>-1.4497732692132557</v>
       </c>
       <c r="AA7">
-        <f>STANDARDIZE(M7,M18,M19)</f>
+        <f t="shared" si="0"/>
         <v>-0.55618787296668226</v>
       </c>
       <c r="AB7">
-        <f>STANDARDIZE(N7,N18,N19)</f>
+        <f t="shared" si="0"/>
         <v>1.1932716806534354</v>
       </c>
     </row>
@@ -4764,51 +4629,51 @@
         <v>8</v>
       </c>
       <c r="Q11">
-        <f t="shared" ref="Q11:Q15" si="0">STANDARDIZE(C11,$C$20,$C$21)</f>
+        <f t="shared" ref="Q11:Q15" si="1">STANDARDIZE(C11,$C$20,$C$21)</f>
         <v>1.0601074005891167</v>
       </c>
       <c r="R11">
-        <f t="shared" ref="R11:R15" si="1">STANDARDIZE(D11,$D$20,$D$21)</f>
+        <f t="shared" ref="R11:R15" si="2">STANDARDIZE(D11,$D$20,$D$21)</f>
         <v>0.12995618671429346</v>
       </c>
       <c r="S11">
-        <f t="shared" ref="S11:S15" si="2">STANDARDIZE(E11,$E$20,$E$21)</f>
+        <f t="shared" ref="S11:S15" si="3">STANDARDIZE(E11,$E$20,$E$21)</f>
         <v>0.3327813477462791</v>
       </c>
       <c r="T11">
-        <f t="shared" ref="T11:T15" si="3">STANDARDIZE(F11,$F$20,$F$21)</f>
+        <f t="shared" ref="T11:T15" si="4">STANDARDIZE(F11,$F$20,$F$21)</f>
         <v>0.61207327475574913</v>
       </c>
       <c r="U11">
-        <f t="shared" ref="U11:U15" si="4">STANDARDIZE(G11,$G$20,$G$21)</f>
+        <f t="shared" ref="U11:U15" si="5">STANDARDIZE(G11,$G$20,$G$21)</f>
         <v>-0.44199466222696143</v>
       </c>
       <c r="V11">
-        <f t="shared" ref="V11:V15" si="5">STANDARDIZE(H11,$H$20,$H$21)</f>
+        <f t="shared" ref="V11:V15" si="6">STANDARDIZE(H11,$H$20,$H$21)</f>
         <v>0.93926491165329351</v>
       </c>
       <c r="W11">
-        <f t="shared" ref="W11:W15" si="6">STANDARDIZE(I11,$I$20,$I$21)</f>
+        <f t="shared" ref="W11:W15" si="7">STANDARDIZE(I11,$I$20,$I$21)</f>
         <v>1.629365904997893</v>
       </c>
       <c r="X11">
-        <f t="shared" ref="X11:X15" si="7">STANDARDIZE(J11,$J$20,$J$21)</f>
+        <f t="shared" ref="X11:X15" si="8">STANDARDIZE(J11,$J$20,$J$21)</f>
         <v>0.10936680097393339</v>
       </c>
       <c r="Y11">
-        <f t="shared" ref="Y11:Y15" si="8">STANDARDIZE(K11,$K$20,$K$21)</f>
+        <f t="shared" ref="Y11:Y15" si="9">STANDARDIZE(K11,$K$20,$K$21)</f>
         <v>0.44218663902430755</v>
       </c>
       <c r="Z11">
-        <f t="shared" ref="Z11:Z15" si="9">STANDARDIZE(L11,$L$20,$L$21)</f>
+        <f t="shared" ref="Z11:Z15" si="10">STANDARDIZE(L11,$L$20,$L$21)</f>
         <v>0.9129917243741289</v>
       </c>
       <c r="AA11">
-        <f t="shared" ref="AA11:AA15" si="10">STANDARDIZE(M11,$M$20,$M$21)</f>
+        <f t="shared" ref="AA11:AA15" si="11">STANDARDIZE(M11,$M$20,$M$21)</f>
         <v>1.5319557550276641</v>
       </c>
       <c r="AB11">
-        <f t="shared" ref="AB11:AB15" si="11">STANDARDIZE(N11,$N$20,$N$21)</f>
+        <f t="shared" ref="AB11:AB15" si="12">STANDARDIZE(N11,$N$20,$N$21)</f>
         <v>1.0868706410559206</v>
       </c>
     </row>
@@ -4856,51 +4721,51 @@
         <v>7</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.4612291197309446</v>
       </c>
       <c r="R12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.841792853088777</v>
       </c>
       <c r="S12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.768210027602174E-2</v>
       </c>
       <c r="T12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.3152336914673985</v>
       </c>
       <c r="U12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.44199466222696143</v>
       </c>
       <c r="V12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.17020236654120074</v>
       </c>
       <c r="W12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.32143953227849542</v>
       </c>
       <c r="X12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10936680097393339</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.7725176696840157</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.6202004823256271</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1.7054675896472848</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.33964707532997496</v>
       </c>
     </row>
@@ -4948,51 +4813,51 @@
         <v>8</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.816508356685135</v>
       </c>
       <c r="R13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.65874342920693474</v>
       </c>
       <c r="S13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.72324479576858003</v>
       </c>
       <c r="T13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.80722707250395898</v>
       </c>
       <c r="U13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.0313208785295767</v>
       </c>
       <c r="V13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.17020236654120074</v>
       </c>
       <c r="W13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.2968422509166897</v>
       </c>
       <c r="X13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1787310771635018</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.7725176696840157</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.31937205185818479</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-0.20755529584245777</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0868706410559206</v>
       </c>
     </row>
@@ -5040,51 +4905,51 @@
         <v>5</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.3771845690536091</v>
       </c>
       <c r="R14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.65874342920693474</v>
       </c>
       <c r="S14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.3179910656242223</v>
       </c>
       <c r="T14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.80722707250395898</v>
       </c>
       <c r="U14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.44199466222696143</v>
       </c>
       <c r="V14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.93926491165329351</v>
       </c>
       <c r="W14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.65396318635969874</v>
       </c>
       <c r="X14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10936680097393339</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.44218663902430755</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.5589983416811346</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-0.54579355573387034</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.1548000561219161</v>
       </c>
     </row>
@@ -5132,51 +4997,51 @@
         <v>7</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.87291726498959699</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.4474430451281628</v>
       </c>
       <c r="S15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.4893814096911249</v>
       </c>
       <c r="T15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.75400330948171979</v>
       </c>
       <c r="U15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.44199466222696143</v>
       </c>
       <c r="V15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.38453127255604641</v>
       </c>
       <c r="W15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.32143953227849542</v>
       </c>
       <c r="X15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10936680097393339</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.1494948689383229</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1.6202004823256271</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1.4638688325819902</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.33964707532997496</v>
       </c>
     </row>
@@ -5189,47 +5054,47 @@
         <v>15</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" ref="D16:N16" si="12">AVERAGE(D2:D15)</f>
+        <f t="shared" ref="D16:N16" si="13">AVERAGE(D2:D15)</f>
         <v>11.142857142857142</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15.142857142857142</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14.428571428571429</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.1428571428571432</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.9285714285714288</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.3571428571428568</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.8571428571428568</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>90.571428571428569</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41.357142857142854</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21.142857142857142</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.9285714285714288</v>
       </c>
       <c r="Q16" s="8"/>
@@ -5255,47 +5120,47 @@
         <v>14.997435678244361</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" ref="D17:N17" si="13">STDEV(D2:D15)</f>
+        <f t="shared" ref="D17:N17" si="14">STDEV(D2:D15)</f>
         <v>2.3812454032143924</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.6083530225260878</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.3595965076929755</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.86443782150756421</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.2066664642907572</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.74494634366849233</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.77032888651964371</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>16.453731331381167</v>
       </c>
       <c r="L17" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>25.620325893733259</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>15.441488284474408</v>
       </c>
       <c r="N17" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0716117059605357</v>
       </c>
       <c r="AC17" s="3"/>
@@ -5344,51 +5209,51 @@
         <v>43</v>
       </c>
       <c r="Q18" s="8">
-        <f>AVERAGE(Q2:Q10)</f>
+        <f t="shared" ref="Q18:AB18" si="15">AVERAGE(Q2:Q10)</f>
         <v>-0.22620452743914118</v>
       </c>
       <c r="R18" s="8">
-        <f>AVERAGE(R2:R10)</f>
+        <f t="shared" si="15"/>
         <v>-1.0253050006382742</v>
       </c>
       <c r="S18" s="8">
-        <f>AVERAGE(S2:S10)</f>
+        <f t="shared" si="15"/>
         <v>0.24008784836341335</v>
       </c>
       <c r="T18" s="8">
-        <f>AVERAGE(T2:T10)</f>
+        <f t="shared" si="15"/>
         <v>0.28397115522181821</v>
       </c>
       <c r="U18" s="8">
-        <f>AVERAGE(U2:U10)</f>
+        <f t="shared" si="15"/>
         <v>-0.27661433121547296</v>
       </c>
       <c r="V18" s="8">
-        <f>AVERAGE(V2:V10)</f>
+        <f t="shared" si="15"/>
         <v>0.31756839199434572</v>
       </c>
       <c r="W18" s="8">
-        <f>AVERAGE(W2:W10)</f>
+        <f t="shared" si="15"/>
         <v>1.8082486768490755E-2</v>
       </c>
       <c r="X18" s="8">
-        <f>AVERAGE(X2:X10)</f>
+        <f t="shared" si="15"/>
         <v>-0.24923122731792979</v>
       </c>
       <c r="Y18" s="8">
-        <f>AVERAGE(Y2:Y10)</f>
+        <f t="shared" si="15"/>
         <v>-0.34844365690671342</v>
       </c>
       <c r="Z18" s="8">
-        <f>AVERAGE(Z2:Z10)</f>
+        <f t="shared" si="15"/>
         <v>-0.72263439596232515</v>
       </c>
       <c r="AA18" s="8">
-        <f>AVERAGE(AA2:AA10)</f>
+        <f t="shared" si="15"/>
         <v>-0.70801431791437919</v>
       </c>
       <c r="AB18" s="8">
-        <f>AVERAGE(AB2:AB10)</f>
+        <f t="shared" si="15"/>
         <v>0.26844457242681602</v>
       </c>
       <c r="AC18" s="3"/>
@@ -5437,51 +5302,51 @@
         <v>44</v>
       </c>
       <c r="Q19" s="8">
-        <f>STDEV(Q2:Q10)</f>
+        <f t="shared" ref="Q19:AB19" si="16">STDEV(Q2:Q10)</f>
         <v>1.2003043838131993</v>
       </c>
       <c r="R19" s="8">
-        <f>STDEV(R2:R10)</f>
+        <f t="shared" si="16"/>
         <v>1.0992626817880162</v>
       </c>
       <c r="S19" s="8">
-        <f>STDEV(S2:S10)</f>
+        <f t="shared" si="16"/>
         <v>0.90381484633496367</v>
       </c>
       <c r="T19" s="8">
-        <f>STDEV(T2:T10)</f>
+        <f t="shared" si="16"/>
         <v>0.88713276090705528</v>
       </c>
       <c r="U19" s="8">
-        <f>STDEV(U2:U10)</f>
+        <f t="shared" si="16"/>
         <v>0.67237842126586322</v>
       </c>
       <c r="V19" s="8">
-        <f>STDEV(V2:V10)</f>
+        <f t="shared" si="16"/>
         <v>0.75646235967744979</v>
       </c>
       <c r="W19" s="8">
-        <f>STDEV(W2:W10)</f>
+        <f t="shared" si="16"/>
         <v>0.47873821681804868</v>
       </c>
       <c r="X19" s="8">
-        <f>STDEV(X2:X10)</f>
+        <f t="shared" si="16"/>
         <v>0.92797317455212613</v>
       </c>
       <c r="Y19" s="8">
-        <f>STDEV(Y2:Y10)</f>
+        <f t="shared" si="16"/>
         <v>0.74176301223441599</v>
       </c>
       <c r="Z19" s="8">
-        <f>STDEV(Z2:Z10)</f>
+        <f t="shared" si="16"/>
         <v>0.84603610280242603</v>
       </c>
       <c r="AA19" s="8">
-        <f>STDEV(AA2:AA10)</f>
+        <f t="shared" si="16"/>
         <v>0.24316829747659627</v>
       </c>
       <c r="AB19" s="8">
-        <f>STDEV(AB2:AB10)</f>
+        <f t="shared" si="16"/>
         <v>0.80232406610780849</v>
       </c>
       <c r="AC19" s="3"/>
@@ -5598,10 +5463,10 @@
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -5903,47 +5768,47 @@
         <v>-1.7223938670102881</v>
       </c>
       <c r="R25">
-        <f t="shared" ref="R25:AB25" si="14">STANDARDIZE(D25,D18,D19)</f>
+        <f t="shared" ref="R25:AB25" si="17">STANDARDIZE(D25,D18,D19)</f>
         <v>-3.6608567597881354</v>
       </c>
       <c r="S25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.0154577505990161</v>
       </c>
       <c r="T25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.9045255123590941</v>
       </c>
       <c r="U25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.2194531141180136</v>
       </c>
       <c r="V25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-0.67518968317584471</v>
       </c>
       <c r="W25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-2.1819567518572018</v>
       </c>
       <c r="X25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-0.97928690127369844</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-0.432310177884557</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-0.41327614206341179</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.6080994123079873</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.34189244782766975</v>
       </c>
     </row>
@@ -5991,51 +5856,51 @@
         <v>6</v>
       </c>
       <c r="Q26">
-        <f t="shared" ref="Q26:Q34" si="15">STANDARDIZE(C26,$C$20,$C$21)</f>
+        <f t="shared" ref="Q26:Q34" si="18">STANDARDIZE(C26,$C$20,$C$21)</f>
         <v>-1.5452736704082799</v>
       </c>
       <c r="R26">
-        <f t="shared" ref="R26:R34" si="16">STANDARDIZE(D26,$D$20,$D$21)</f>
+        <f t="shared" ref="R26:R34" si="19">STANDARDIZE(D26,$D$20,$D$21)</f>
         <v>-1.4474430451281628</v>
       </c>
       <c r="S26">
-        <f t="shared" ref="S26:S34" si="17">STANDARDIZE(E26,$E$20,$E$21)</f>
+        <f t="shared" ref="S26:S34" si="20">STANDARDIZE(E26,$E$20,$E$21)</f>
         <v>-1.4893814096911249</v>
       </c>
       <c r="T26">
-        <f t="shared" ref="T26:T34" si="18">STANDARDIZE(F26,$F$20,$F$21)</f>
+        <f t="shared" ref="T26:T34" si="21">STANDARDIZE(F26,$F$20,$F$21)</f>
         <v>-2.1200798937191889</v>
       </c>
       <c r="U26">
-        <f t="shared" ref="U26:U34" si="19">STANDARDIZE(G26,$G$20,$G$21)</f>
+        <f t="shared" ref="U26:U34" si="22">STANDARDIZE(G26,$G$20,$G$21)</f>
         <v>-1.6206470948321918</v>
       </c>
       <c r="V26">
-        <f t="shared" ref="V26:V34" si="20">STANDARDIZE(H26,$H$20,$H$21)</f>
+        <f t="shared" ref="V26:V34" si="23">STANDARDIZE(H26,$H$20,$H$21)</f>
         <v>-2.3891369229301893</v>
       </c>
       <c r="W26">
-        <f t="shared" ref="W26:W34" si="21">STANDARDIZE(I26,$I$20,$I$21)</f>
+        <f t="shared" ref="W26:W34" si="24">STANDARDIZE(I26,$I$20,$I$21)</f>
         <v>-1.2968422509166897</v>
       </c>
       <c r="X26">
-        <f t="shared" ref="X26:X34" si="22">STANDARDIZE(J26,$J$20,$J$21)</f>
+        <f t="shared" ref="X26:X34" si="25">STANDARDIZE(J26,$J$20,$J$21)</f>
         <v>0.10936680097393339</v>
       </c>
       <c r="Y26">
-        <f t="shared" ref="Y26:Y34" si="23">STANDARDIZE(K26,$K$20,$K$21)</f>
+        <f t="shared" ref="Y26:Y34" si="26">STANDARDIZE(K26,$K$20,$K$21)</f>
         <v>-1.1494948689383229</v>
       </c>
       <c r="Z26">
-        <f t="shared" ref="Z26:Z34" si="24">STANDARDIZE(L26,$L$20,$L$21)</f>
+        <f t="shared" ref="Z26:Z34" si="27">STANDARDIZE(L26,$L$20,$L$21)</f>
         <v>-1.2094125569148557</v>
       </c>
       <c r="AA26">
-        <f t="shared" ref="AA26:AA34" si="25">STANDARDIZE(M26,$M$20,$M$21)</f>
+        <f t="shared" ref="AA26:AA34" si="28">STANDARDIZE(M26,$M$20,$M$21)</f>
         <v>-1.2222700755166955</v>
       </c>
       <c r="AB26">
-        <f t="shared" ref="AB26:AB34" si="26">STANDARDIZE(N26,$N$20,$N$21)</f>
+        <f t="shared" ref="AB26:AB34" si="29">STANDARDIZE(N26,$N$20,$N$21)</f>
         <v>-0.4075764903959706</v>
       </c>
     </row>
@@ -6083,51 +5948,51 @@
         <v>6</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.125050917021603</v>
       </c>
       <c r="R27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0.12995618671429346</v>
       </c>
       <c r="S27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.59309031309447968</v>
       </c>
       <c r="T27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-0.55884951173350994</v>
       </c>
       <c r="U27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-1.0313208785295767</v>
       </c>
       <c r="V27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-0.17020236654120074</v>
       </c>
       <c r="W27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.32143953227849542</v>
       </c>
       <c r="X27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-0.95999747521563505</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-0.39554047042970852</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-0.86708928573921307</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-0.88403181562528288</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-0.4075764903959706</v>
       </c>
     </row>
@@ -6175,51 +6040,51 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.9654964237949568</v>
       </c>
       <c r="R28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-3.8135418928918474</v>
       </c>
       <c r="S28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-0.83860899632062347</v>
       </c>
       <c r="T28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-2.3152336914673985</v>
       </c>
       <c r="U28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-1.0313208785295767</v>
       </c>
       <c r="V28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-0.72493600563844784</v>
       </c>
       <c r="W28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-1.2968422509166897</v>
       </c>
       <c r="X28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-0.95999747521563505</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-2.7830627323736543</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-1.9625237535012696</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-1.753787341060344</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-4.8909178847516435</v>
       </c>
     </row>
@@ -6267,51 +6132,51 @@
         <v>6</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.6293182210856154</v>
       </c>
       <c r="R29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-1.0530932371675488</v>
       </c>
       <c r="S29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.59309031309447968</v>
       </c>
       <c r="T29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-0.75400330948171979</v>
       </c>
       <c r="U29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-1.0313208785295767</v>
       </c>
       <c r="V29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-0.17020236654120074</v>
       </c>
       <c r="W29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.32143953227849542</v>
       </c>
       <c r="X29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.10936680097393339</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-1.1494948689383229</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-0.83285695862164877</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-1.5605083354081082</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-0.4075764903959706</v>
       </c>
     </row>
@@ -6359,51 +6224,51 @@
         <v>5</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.3771845690536091</v>
       </c>
       <c r="R30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-0.65874342920693474</v>
       </c>
       <c r="S30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-5.768210027602174E-2</v>
       </c>
       <c r="T30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2.6611881511119588E-2</v>
       </c>
       <c r="U30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.14733155407565382</v>
       </c>
       <c r="V30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-0.17020236654120074</v>
       </c>
       <c r="W30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-1.2968422509166897</v>
       </c>
       <c r="X30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-0.95999747521563505</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-1.1494948689383229</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-1.2778772111499843</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-1.0773108212775186</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-1.1548000561219161</v>
       </c>
     </row>
@@ -6451,51 +6316,51 @@
         <v>6</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-1.0410063663442677</v>
       </c>
       <c r="R31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-1.841792853088777</v>
       </c>
       <c r="S31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-1.2290724443429244</v>
       </c>
       <c r="T31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-0.94915710722992963</v>
       </c>
       <c r="U31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-1.6206470948321918</v>
       </c>
       <c r="V31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-1.279669644735695</v>
       </c>
       <c r="W31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-1.2968422509166897</v>
       </c>
       <c r="X31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-2.0293617514052036</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-2.4060855331193469</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-1.8255944450310126</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-1.1256305726905775</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-0.4075764903959706</v>
       </c>
     </row>
@@ -6543,51 +6408,51 @@
         <v>6</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.63988464720243976</v>
       </c>
       <c r="R32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-1.841792853088777</v>
       </c>
       <c r="S32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-0.57830003097242288</v>
       </c>
       <c r="T32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-1.1443109049781395</v>
       </c>
       <c r="U32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-1.6206470948321918</v>
       </c>
       <c r="V32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-0.17020236654120074</v>
       </c>
       <c r="W32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.32143953227849542</v>
       </c>
       <c r="X32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-0.95999747521563505</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-0.39554047042970852</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-1.5517358280904985</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-0.73907256138610611</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-0.4075764903959706</v>
       </c>
     </row>
@@ -6635,51 +6500,51 @@
         <v>2</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5.1572792461092136E-2</v>
       </c>
       <c r="R33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-2.2361426610493909</v>
       </c>
       <c r="S33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-0.57830003097242288</v>
       </c>
       <c r="T33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-0.16854191623709025</v>
       </c>
       <c r="U33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-1.6206470948321918</v>
       </c>
       <c r="V33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-0.17020236654120074</v>
       </c>
       <c r="W33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-2.2722449695548841</v>
       </c>
       <c r="X33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-0.95999747521563505</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-1.4845857127199293</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.57066845319848625</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-0.15923554442939883</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-3.3964707532997527</v>
       </c>
     </row>
@@ -6727,51 +6592,51 @@
         <v>8</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.63988464720243976</v>
       </c>
       <c r="R34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-1.0530932371675488</v>
       </c>
       <c r="S34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-0.3179910656242223</v>
       </c>
       <c r="T34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.61207327475574913</v>
       </c>
       <c r="U34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-1.0313208785295767</v>
       </c>
       <c r="V34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-1.279669644735695</v>
       </c>
       <c r="W34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-1.2968422509166897</v>
       </c>
       <c r="X34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.10936680097393339</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-1.1494948689383229</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.2553149955497716</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>-0.44915405290775245</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1.0868706410559206</v>
       </c>
     </row>
@@ -6823,47 +6688,47 @@
         <v>-0.39953585597603669</v>
       </c>
       <c r="R35">
-        <f t="shared" ref="R35:AB35" si="27">STANDARDIZE(D35,D18,D19)</f>
+        <f t="shared" ref="R35:AB35" si="30">STANDARDIZE(D35,D18,D19)</f>
         <v>-2.3138877346995024</v>
       </c>
       <c r="S35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-1.0154577505990161</v>
       </c>
       <c r="T35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-3.1254984556685588</v>
       </c>
       <c r="U35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-2.5809524151552683</v>
       </c>
       <c r="V35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-0.67518968317584471</v>
       </c>
       <c r="W35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-1.1869531343137021</v>
       </c>
       <c r="X35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-0.97928690127369844</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-2.343010630282</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-2.4862703963630994</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-1.8710772971433134</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-0.50948678499809574</v>
       </c>
     </row>
@@ -7099,47 +6964,47 @@
         <v>-1.5334141511482522</v>
       </c>
       <c r="R38">
-        <f t="shared" ref="R38:AB38" si="28">STANDARDIZE(D38,D18,D19)</f>
+        <f t="shared" ref="R38:AB38" si="31">STANDARDIZE(D38,D18,D19)</f>
         <v>-3.6608567597881354</v>
       </c>
       <c r="S38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-1.1514948121244117</v>
       </c>
       <c r="T38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-0.92774715771152239</v>
       </c>
       <c r="U38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-4.6232013667111502</v>
       </c>
       <c r="V38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.33659898659798726</v>
       </c>
       <c r="W38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-1.1869531343137021</v>
       </c>
       <c r="X38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-5.2678881585757562</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-1.6801145549604379</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-1.5212558297063483</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-0.45099671903255173</v>
       </c>
       <c r="AB38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-1.3608660178238612</v>
       </c>
     </row>
@@ -7329,20 +7194,20 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C41" s="6">
-        <f>4/18</f>
-        <v>0.22222222222222221</v>
+        <f>5/18</f>
+        <v>0.27777777777777779</v>
       </c>
       <c r="D41" s="6">
-        <f>11/18</f>
-        <v>0.61111111111111116</v>
+        <f>14/18</f>
+        <v>0.77777777777777779</v>
       </c>
       <c r="E41" s="6">
         <f>7/18</f>
         <v>0.3888888888888889</v>
       </c>
       <c r="F41" s="6">
-        <f>13/18</f>
-        <v>0.72222222222222221</v>
+        <f>11/18</f>
+        <v>0.61111111111111116</v>
       </c>
       <c r="G41" s="6">
         <f>13/18</f>
@@ -7353,24 +7218,24 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="I41" s="6">
-        <f>15/18</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="J41" s="6">
         <f>6/18</f>
         <v>0.33333333333333331</v>
       </c>
+      <c r="J41" s="6">
+        <f>8/18</f>
+        <v>0.44444444444444442</v>
+      </c>
       <c r="K41" s="6">
-        <f>15/18</f>
-        <v>0.83333333333333337</v>
+        <f>14/18</f>
+        <v>0.77777777777777779</v>
       </c>
       <c r="L41" s="6">
         <f>7/18</f>
         <v>0.3888888888888889</v>
       </c>
       <c r="M41" s="6">
-        <f>6/18</f>
-        <v>0.33333333333333331</v>
+        <f>4/18</f>
+        <v>0.22222222222222221</v>
       </c>
       <c r="N41" s="6">
         <f>11/18</f>
@@ -7383,16 +7248,16 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="D42" s="4">
-        <f>6/18</f>
-        <v>0.33333333333333331</v>
+        <f>3/18</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E42" s="4">
         <f>3/18</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="F42" s="4">
-        <f>1/18</f>
-        <v>5.5555555555555552E-2</v>
+        <f>2/18</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G42" s="4">
         <f>2/18</f>
@@ -7406,8 +7271,8 @@
         <v>0</v>
       </c>
       <c r="J42" s="4">
-        <f>7/18</f>
-        <v>0.3888888888888889</v>
+        <f>5/18</f>
+        <v>0.27777777777777779</v>
       </c>
       <c r="K42" s="4">
         <v>0</v>
@@ -7417,8 +7282,8 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="M42" s="4">
-        <f>7/18</f>
-        <v>0.3888888888888889</v>
+        <f>6/18</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N42" s="4">
         <f>3/18</f>
@@ -7432,54 +7297,54 @@
         <v>-0.98186627257940118</v>
       </c>
       <c r="R42">
-        <f t="shared" ref="R42:AB42" si="29">AVERAGE(R23:R40)</f>
+        <f t="shared" ref="R42:AB42" si="32">AVERAGE(R23:R40)</f>
         <v>-1.7634220410643795</v>
       </c>
       <c r="S42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-0.58640921950932146</v>
       </c>
       <c r="T42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-0.92679774304001916</v>
       </c>
       <c r="U42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-1.4256332623797741</v>
       </c>
       <c r="V42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-0.53716032821896842</v>
       </c>
       <c r="W42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-1.1170492172045652</v>
       </c>
       <c r="X42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-1.1420588785093395</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-1.4404655722191455</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-1.1868810707078303</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-0.87450322891507393</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-0.96422300363172964</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C43" s="5">
-        <f>10/18</f>
-        <v>0.55555555555555558</v>
+        <f>9/18</f>
+        <v>0.5</v>
       </c>
       <c r="D43" s="5">
         <f>1/18</f>
@@ -7490,8 +7355,8 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="F43" s="5">
-        <f>4/18</f>
-        <v>0.22222222222222221</v>
+        <f>5/18</f>
+        <v>0.27777777777777779</v>
       </c>
       <c r="G43" s="5">
         <f>3/18</f>
@@ -7502,24 +7367,24 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="I43" s="5">
-        <f>3/18</f>
-        <v>0.16666666666666666</v>
+        <f>12/18</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J43" s="5">
         <f>5/18</f>
         <v>0.27777777777777779</v>
       </c>
       <c r="K43" s="5">
-        <f>3/18</f>
-        <v>0.16666666666666666</v>
+        <f>4/18</f>
+        <v>0.22222222222222221</v>
       </c>
       <c r="L43" s="5">
         <f>8/18</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="M43" s="5">
-        <f>5/18</f>
-        <v>0.27777777777777779</v>
+        <f>8/18</f>
+        <v>0.44444444444444442</v>
       </c>
       <c r="N43" s="5">
         <f>4/18</f>
@@ -7533,47 +7398,47 @@
         <v>0.80726007899240582</v>
       </c>
       <c r="R43">
-        <f t="shared" ref="R43:AB43" si="30">STDEV(R23:R40)</f>
+        <f t="shared" ref="R43:AB43" si="33">STDEV(R23:R40)</f>
         <v>1.2517237890276267</v>
       </c>
       <c r="S43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.6958290195583996</v>
       </c>
       <c r="T43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.99070091896610302</v>
       </c>
       <c r="U43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1.0610338705278484</v>
       </c>
       <c r="V43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.7800630582907162</v>
       </c>
       <c r="W43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.6789699375827728</v>
       </c>
       <c r="X43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1.2891833146280969</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.79758642504305477</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.92297949968771098</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.72483799129815674</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1.399841146846172</v>
       </c>
     </row>
@@ -7702,47 +7567,47 @@
         <v>-1.4389242932172341</v>
       </c>
       <c r="R45">
-        <f t="shared" ref="R45:AB45" si="31">STANDARDIZE(D45,D18,D19)</f>
+        <f t="shared" ref="R45:AB45" si="34">STANDARDIZE(D45,D18,D19)</f>
         <v>-5.0078257848767684</v>
       </c>
       <c r="S45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-1.8316801197513899</v>
       </c>
       <c r="T45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-3.369693044330452</v>
       </c>
       <c r="U45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-2.5809524151552683</v>
       </c>
       <c r="V45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-1.6869783529496767</v>
       </c>
       <c r="W45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-2.1819567518572018</v>
       </c>
       <c r="X45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-3.1235875299247273</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-2.6159678377673488</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-1.6284796704459874</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-1.7658861432091828</v>
       </c>
       <c r="AB45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-3.0636244834753925</v>
       </c>
     </row>
@@ -7882,51 +7747,51 @@
         <v>2</v>
       </c>
       <c r="Q47">
-        <f t="shared" ref="Q47:Q53" si="32">STANDARDIZE(C47,$C$20,$C$21)</f>
+        <f t="shared" ref="Q47:Q53" si="35">STANDARDIZE(C47,$C$20,$C$21)</f>
         <v>-0.95696181566693228</v>
       </c>
       <c r="R47">
-        <f t="shared" ref="R47:R53" si="33">STANDARDIZE(D47,$D$20,$D$21)</f>
+        <f t="shared" ref="R47:R53" si="36">STANDARDIZE(D47,$D$20,$D$21)</f>
         <v>-4.2078917008524614</v>
       </c>
       <c r="S47">
-        <f t="shared" ref="S47:S53" si="34">STANDARDIZE(E47,$E$20,$E$21)</f>
+        <f t="shared" ref="S47:S53" si="37">STANDARDIZE(E47,$E$20,$E$21)</f>
         <v>-0.70845451364652323</v>
       </c>
       <c r="T47">
-        <f t="shared" ref="T47:T53" si="35">STANDARDIZE(F47,$F$20,$F$21)</f>
+        <f t="shared" ref="T47:T53" si="38">STANDARDIZE(F47,$F$20,$F$21)</f>
         <v>-2.5103874892156086</v>
       </c>
       <c r="U47">
-        <f t="shared" ref="U47:U53" si="36">STANDARDIZE(G47,$G$20,$G$21)</f>
+        <f t="shared" ref="U47:U53" si="39">STANDARDIZE(G47,$G$20,$G$21)</f>
         <v>-1.0313208785295767</v>
       </c>
       <c r="V47">
-        <f t="shared" ref="V47:V53" si="37">STANDARDIZE(H47,$H$20,$H$21)</f>
+        <f t="shared" ref="V47:V53" si="40">STANDARDIZE(H47,$H$20,$H$21)</f>
         <v>-0.72493600563844784</v>
       </c>
       <c r="W47">
-        <f t="shared" ref="W47:W53" si="38">STANDARDIZE(I47,$I$20,$I$21)</f>
+        <f t="shared" ref="W47:W53" si="41">STANDARDIZE(I47,$I$20,$I$21)</f>
         <v>-1.2968422509166897</v>
       </c>
       <c r="X47">
-        <f t="shared" ref="X47:X53" si="39">STANDARDIZE(J47,$J$20,$J$21)</f>
+        <f t="shared" ref="X47:X53" si="42">STANDARDIZE(J47,$J$20,$J$21)</f>
         <v>-0.95999747521563505</v>
       </c>
       <c r="Y47">
-        <f t="shared" ref="Y47:Y53" si="40">STANDARDIZE(K47,$K$20,$K$21)</f>
+        <f t="shared" ref="Y47:Y53" si="43">STANDARDIZE(K47,$K$20,$K$21)</f>
         <v>-2.1128810448104414</v>
       </c>
       <c r="Z47">
-        <f t="shared" ref="Z47:Z53" si="41">STANDARDIZE(L47,$L$20,$L$21)</f>
+        <f t="shared" ref="Z47:Z53" si="44">STANDARDIZE(L47,$L$20,$L$21)</f>
         <v>-2.1679177162066554</v>
       </c>
       <c r="AA47">
-        <f t="shared" ref="AA47:AA53" si="42">STANDARDIZE(M47,$M$20,$M$21)</f>
+        <f t="shared" ref="AA47:AA53" si="45">STANDARDIZE(M47,$M$20,$M$21)</f>
         <v>-0.69075280997304722</v>
       </c>
       <c r="AB47">
-        <f t="shared" ref="AB47:AB51" si="43">STANDARDIZE(N47,$N$20,$N$21)</f>
+        <f t="shared" ref="AB47:AB51" si="46">STANDARDIZE(N47,$N$20,$N$21)</f>
         <v>-3.3964707532997527</v>
       </c>
     </row>
@@ -7974,51 +7839,51 @@
         <v>6</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.95696181566693228</v>
       </c>
       <c r="R48">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-4.2078917008524614</v>
       </c>
       <c r="S48">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-5.768210027602174E-2</v>
       </c>
       <c r="T48">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>2.6611881511119588E-2</v>
       </c>
       <c r="U48">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-1.0313208785295767</v>
       </c>
       <c r="V48">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.38453127255604641</v>
       </c>
       <c r="W48">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.32143953227849542</v>
       </c>
       <c r="X48">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-0.95999747521563505</v>
       </c>
       <c r="Y48">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-1.4845857127199293</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.28513972474062049</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-0.83571206421222399</v>
       </c>
       <c r="AB48">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-0.4075764903959706</v>
       </c>
     </row>
@@ -8066,51 +7931,51 @@
         <v>2</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.53673906228025547</v>
       </c>
       <c r="R49">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-2.2361426610493909</v>
       </c>
       <c r="S49">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-1.2290724443429244</v>
       </c>
       <c r="T49">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-2.9006950847120283</v>
       </c>
       <c r="U49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-1.6206470948321918</v>
       </c>
       <c r="V49">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-1.279669644735695</v>
       </c>
       <c r="W49">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-2.2722449695548841</v>
       </c>
       <c r="X49">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-3.0987260275947719</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-4.0815397520273793</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.6616953230338275</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-1.8021070924734028</v>
       </c>
       <c r="AB49">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-3.3964707532997527</v>
       </c>
     </row>
@@ -8143,31 +8008,31 @@
         <v>4</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-1.0410063663442677</v>
       </c>
       <c r="R50">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-3.4191920849312334</v>
       </c>
       <c r="T50">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-1.3394647027263493</v>
       </c>
       <c r="U50">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-3.9779519600426529</v>
       </c>
       <c r="W50">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-1.2968422509166897</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-0.73907256138610611</v>
       </c>
       <c r="AB50">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-1.9020236218478617</v>
       </c>
     </row>
@@ -8215,51 +8080,51 @@
         <v>6</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-1.2090954676989385</v>
       </c>
       <c r="R51">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-3.0248422769706194</v>
       </c>
       <c r="S51">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-0.18783658295012204</v>
       </c>
       <c r="T51">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>2.6611881511119588E-2</v>
       </c>
       <c r="U51">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-1.0313208785295767</v>
       </c>
       <c r="V51">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-0.17020236654120074</v>
       </c>
       <c r="W51">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-1.2968422509166897</v>
       </c>
       <c r="X51">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.10936680097393339</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-1.5264720681926303</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-1.2778772111499843</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-1.4155490811689313</v>
       </c>
       <c r="AB51">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>-0.4075764903959706</v>
       </c>
     </row>
@@ -8307,47 +8172,47 @@
         <v>4</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-1.6293182210856154</v>
       </c>
       <c r="R52">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-4.2078917008524614</v>
       </c>
       <c r="S52">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-1.3592269270170245</v>
       </c>
       <c r="T52">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-2.1200798937191889</v>
       </c>
       <c r="U52">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-3.9779519600426529</v>
       </c>
       <c r="V52">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-3.4986042011246838</v>
       </c>
       <c r="W52">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-2.2722449695548841</v>
       </c>
       <c r="X52">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.10936680097393339</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-3.2438126425733631</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-2.4760086602647338</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>-1.8504268438864617</v>
       </c>
       <c r="AB52">
@@ -8399,47 +8264,47 @@
         <v>7</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-1.3771845690536091</v>
       </c>
       <c r="R53">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-3.8135418928918474</v>
       </c>
       <c r="S53">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>-5.768210027602174E-2</v>
       </c>
       <c r="T53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-0.3636957139853001</v>
       </c>
       <c r="U53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-1.0313208785295767</v>
       </c>
       <c r="V53">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.38453127255604641</v>
       </c>
       <c r="W53">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.32143953227849542</v>
       </c>
       <c r="X53">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>-2.0293617514052036</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>-0.7725176696840157</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-2.373311678912041</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.46892122394036739</v>
       </c>
       <c r="AB53">
@@ -8456,47 +8321,47 @@
         <v>3.7777777777777777</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" ref="D54:N54" si="44">AVERAGE(D45:D53)</f>
+        <f t="shared" ref="D54:N54" si="47">AVERAGE(D45:D53)</f>
         <v>4.2222222222222223</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>7.875</v>
       </c>
       <c r="F54" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>6.1111111111111107</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>3.4444444444444446</v>
       </c>
       <c r="H54" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>4.75</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="J54" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>3.625</v>
       </c>
       <c r="K54" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>46.25</v>
       </c>
       <c r="L54" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>17</v>
       </c>
       <c r="M54" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>12.222222222222221</v>
       </c>
       <c r="N54" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>4.4444444444444446</v>
       </c>
     </row>
@@ -8509,98 +8374,98 @@
         <v>3.7675515184857717</v>
       </c>
       <c r="D55">
-        <f t="shared" ref="D55:N55" si="45">STDEV(D45:D53)</f>
+        <f t="shared" ref="D55:N55" si="48">STDEV(D45:D53)</f>
         <v>1.8559214542766735</v>
       </c>
       <c r="E55">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>5.3033008588991066</v>
       </c>
       <c r="F55">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>5.9675045966560525</v>
       </c>
       <c r="G55">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>2.0682789409984763</v>
       </c>
       <c r="H55">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>2.3754698783308417</v>
       </c>
       <c r="I55">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.8660254037844386</v>
       </c>
       <c r="J55">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1.1877349391654208</v>
       </c>
       <c r="K55">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>27.054178446749617</v>
       </c>
       <c r="L55">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>23.145502494313785</v>
       </c>
       <c r="M55">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>15.51433029313365</v>
       </c>
       <c r="N55">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1.8782379449307745</v>
       </c>
       <c r="P55" t="s">
         <v>43</v>
       </c>
       <c r="Q55">
-        <f>AVERAGE(Q45:Q52)</f>
+        <f t="shared" ref="Q55:AB55" si="49">AVERAGE(Q45:Q52)</f>
         <v>-1.1432739513767232</v>
       </c>
       <c r="R55">
-        <f>AVERAGE(R45:R52)</f>
+        <f t="shared" si="49"/>
         <v>-3.7656524754096554</v>
       </c>
       <c r="S55">
-        <f>AVERAGE(S45:S52)</f>
+        <f t="shared" si="49"/>
         <v>-0.98047629966787586</v>
       </c>
       <c r="T55">
-        <f>AVERAGE(T45:T52)</f>
+        <f t="shared" si="49"/>
         <v>-1.7396085937380197</v>
       </c>
       <c r="U55">
-        <f>AVERAGE(U45:U52)</f>
+        <f t="shared" si="49"/>
         <v>-2.1090141450617113</v>
       </c>
       <c r="V55">
-        <f>AVERAGE(V45:V52)</f>
+        <f t="shared" si="49"/>
         <v>-1.0208659521392656</v>
       </c>
       <c r="W55">
-        <f>AVERAGE(W45:W52)</f>
+        <f t="shared" si="49"/>
         <v>-1.4074815635342537</v>
       </c>
       <c r="X55">
-        <f>AVERAGE(X45:X52)</f>
+        <f t="shared" si="49"/>
         <v>-1.2690817687455052</v>
       </c>
       <c r="Y55">
-        <f>AVERAGE(Y45:Y52)</f>
+        <f t="shared" si="49"/>
         <v>-2.3642635386872888</v>
       </c>
       <c r="Z55">
-        <f>AVERAGE(Z45:Z52)</f>
+        <f t="shared" si="49"/>
         <v>-1.4159892607802929</v>
       </c>
       <c r="AA55">
-        <f>AVERAGE(AA45:AA52)</f>
+        <f t="shared" si="49"/>
         <v>-1.2539822704184622</v>
       </c>
       <c r="AB55">
-        <f>AVERAGE(AB45:AB52)</f>
+        <f t="shared" si="49"/>
         <v>-1.8604178381198166</v>
       </c>
     </row>
@@ -8609,51 +8474,51 @@
         <v>38</v>
       </c>
       <c r="Q56">
-        <f>STDEV(Q45:Q52)</f>
+        <f t="shared" ref="Q56:AB56" si="50">STDEV(Q45:Q52)</f>
         <v>0.34443793973149106</v>
       </c>
       <c r="R56">
-        <f>STDEV(R45:R52)</f>
+        <f t="shared" si="50"/>
         <v>0.85692551344294221</v>
       </c>
       <c r="S56">
-        <f>STDEV(S45:S52)</f>
+        <f t="shared" si="50"/>
         <v>0.6760925900862389</v>
       </c>
       <c r="T56">
-        <f>STDEV(T45:T52)</f>
+        <f t="shared" si="50"/>
         <v>1.2617129564892886</v>
       </c>
       <c r="U56">
-        <f>STDEV(U45:U52)</f>
+        <f t="shared" si="50"/>
         <v>1.2632077040498488</v>
       </c>
       <c r="V56">
-        <f>STDEV(V45:V52)</f>
+        <f t="shared" si="50"/>
         <v>1.3012714856658889</v>
       </c>
       <c r="W56">
-        <f>STDEV(W45:W52)</f>
+        <f t="shared" si="50"/>
         <v>0.80099412106906243</v>
       </c>
       <c r="X56">
-        <f>STDEV(X45:X52)</f>
+        <f t="shared" si="50"/>
         <v>1.3462063952969667</v>
       </c>
       <c r="Y56">
-        <f>STDEV(Y45:Y52)</f>
+        <f t="shared" si="50"/>
         <v>1.0081958419609858</v>
       </c>
       <c r="Z56">
-        <f>STDEV(Z45:Z52)</f>
+        <f t="shared" si="50"/>
         <v>0.77470919903052182</v>
       </c>
       <c r="AA56">
-        <f>STDEV(AA45:AA52)</f>
+        <f t="shared" si="50"/>
         <v>0.50780931002161755</v>
       </c>
       <c r="AB56">
-        <f>STDEV(AB45:AB52)</f>
+        <f t="shared" si="50"/>
         <v>1.3364307141113256</v>
       </c>
     </row>
@@ -8675,51 +8540,51 @@
         <v>45</v>
       </c>
       <c r="Q60" s="8">
-        <f>_xlfn.T.TEST(Q2:Q10,Q45:Q52,2,2)</f>
+        <f t="shared" ref="Q60:AB60" si="51">_xlfn.T.TEST(Q2:Q10,Q45:Q52,2,2)</f>
         <v>5.5145072726480428E-2</v>
       </c>
       <c r="R60" s="9">
-        <f>_xlfn.T.TEST(R2:R10,R45:R52,2,2)</f>
+        <f t="shared" si="51"/>
         <v>4.3977405081288177E-5</v>
       </c>
       <c r="S60" s="9">
-        <f>_xlfn.T.TEST(S2:S10,S45:S52,2,2)</f>
+        <f t="shared" si="51"/>
         <v>1.0032649567104937E-2</v>
       </c>
       <c r="T60" s="9">
-        <f>_xlfn.T.TEST(T2:T10,T45:T52,2,2)</f>
+        <f t="shared" si="51"/>
         <v>1.5350225918183138E-3</v>
       </c>
       <c r="U60" s="9">
-        <f>_xlfn.T.TEST(U2:U10,U45:U52,2,2)</f>
+        <f t="shared" si="51"/>
         <v>1.7497906717238471E-3</v>
       </c>
       <c r="V60" s="9">
-        <f>_xlfn.T.TEST(V2:V10,V45:V52,2,2)</f>
+        <f t="shared" si="51"/>
         <v>2.1449973453462935E-2</v>
       </c>
       <c r="W60" s="9">
-        <f>_xlfn.T.TEST(W2:W10,W45:W52,2,2)</f>
+        <f t="shared" si="51"/>
         <v>4.0830972718957742E-4</v>
       </c>
       <c r="X60" s="8">
-        <f>_xlfn.T.TEST(X2:X10,X45:X52,2,2)</f>
+        <f t="shared" si="51"/>
         <v>9.3997692194821306E-2</v>
       </c>
       <c r="Y60" s="9">
-        <f>_xlfn.T.TEST(Y2:Y10,Y45:Y52,2,2)</f>
+        <f t="shared" si="51"/>
         <v>3.9803481252540597E-4</v>
       </c>
       <c r="Z60" s="8">
-        <f>_xlfn.T.TEST(Z2:Z10,Z45:Z52,2,2)</f>
+        <f t="shared" si="51"/>
         <v>0.11402352774093191</v>
       </c>
       <c r="AA60" s="8">
-        <f>_xlfn.T.TEST(AA2:AA10,AA45:AA52,2,2)</f>
+        <f t="shared" si="51"/>
         <v>1.1377127001027275E-2</v>
       </c>
       <c r="AB60" s="9">
-        <f>_xlfn.T.TEST(AB2:AB10,AB45:AB52,2,2)</f>
+        <f t="shared" si="51"/>
         <v>1.0717139617099488E-3</v>
       </c>
     </row>
@@ -8734,51 +8599,51 @@
         <v>46</v>
       </c>
       <c r="Q61" s="6">
-        <f>_xlfn.T.TEST(Q2:Q10,Q23:Q40,2,2)</f>
+        <f t="shared" ref="Q61:AB61" si="52">_xlfn.T.TEST(Q2:Q10,Q23:Q40,2,2)</f>
         <v>6.2902019898798192E-2</v>
       </c>
       <c r="R61" s="6">
-        <f>_xlfn.T.TEST(R2:R10,R23:R40,2,2)</f>
+        <f t="shared" si="52"/>
         <v>0.14604120267540949</v>
       </c>
       <c r="S61" s="9">
-        <f>_xlfn.T.TEST(S2:S10,S23:S40,2,2)</f>
+        <f t="shared" si="52"/>
         <v>1.4263662210353365E-2</v>
       </c>
       <c r="T61" s="9">
-        <f>_xlfn.T.TEST(T2:T10,T23:T40,2,2)</f>
+        <f t="shared" si="52"/>
         <v>4.8205086841899324E-3</v>
       </c>
       <c r="U61" s="9">
-        <f>_xlfn.T.TEST(U2:U10,U23:U40,2,2)</f>
+        <f t="shared" si="52"/>
         <v>6.8055399288605174E-3</v>
       </c>
       <c r="V61" s="9">
-        <f>_xlfn.T.TEST(V2:V10,V23:V40,2,2)</f>
+        <f t="shared" si="52"/>
         <v>1.1979987496421148E-2</v>
       </c>
       <c r="W61" s="9">
-        <f>_xlfn.T.TEST(W2:W10,W23:W40,2,2)</f>
+        <f t="shared" si="52"/>
         <v>1.4696878782898272E-4</v>
       </c>
       <c r="X61" s="6">
-        <f>_xlfn.T.TEST(X2:X10,X23:X40,2,2)</f>
+        <f t="shared" si="52"/>
         <v>7.6982026071654219E-2</v>
       </c>
       <c r="Y61" s="9">
-        <f>_xlfn.T.TEST(Y2:Y10,Y23:Y40,2,2)</f>
+        <f t="shared" si="52"/>
         <v>2.1104805307362732E-3</v>
       </c>
       <c r="Z61" s="6">
-        <f>_xlfn.T.TEST(Z2:Z10,Z23:Z40,2,2)</f>
+        <f t="shared" si="52"/>
         <v>0.21759952996350579</v>
       </c>
       <c r="AA61" s="6">
-        <f>_xlfn.T.TEST(AA2:AA10,AA23:AA40,2,2)</f>
+        <f t="shared" si="52"/>
         <v>0.5121993711914461</v>
       </c>
       <c r="AB61" s="9">
-        <f>_xlfn.T.TEST(AB2:AB10,AB23:AB40,2,2)</f>
+        <f t="shared" si="52"/>
         <v>2.2399260374249195E-2</v>
       </c>
     </row>
@@ -8796,51 +8661,51 @@
         <v>47</v>
       </c>
       <c r="Q62" s="6">
-        <f>_xlfn.T.TEST(Q23:Q40,Q45:Q52,2,2)</f>
+        <f t="shared" ref="Q62:AB62" si="53">_xlfn.T.TEST(Q23:Q40,Q45:Q52,2,2)</f>
         <v>0.59468248545622426</v>
       </c>
       <c r="R62" s="9">
-        <f>_xlfn.T.TEST(R23:R40,R45:R52,2,2)</f>
+        <f t="shared" si="53"/>
         <v>4.142405635968328E-4</v>
       </c>
       <c r="S62" s="6">
-        <f>_xlfn.T.TEST(S23:S40,S45:S52,2,2)</f>
+        <f t="shared" si="53"/>
         <v>0.21303646895789771</v>
       </c>
       <c r="T62" s="6">
-        <f>_xlfn.T.TEST(T23:T40,T45:T52,2,2)</f>
+        <f t="shared" si="53"/>
         <v>8.8345888076191259E-2</v>
       </c>
       <c r="U62" s="6">
-        <f>_xlfn.T.TEST(U23:U40,U45:U52,2,2)</f>
+        <f t="shared" si="53"/>
         <v>0.165283751545935</v>
       </c>
       <c r="V62" s="6">
-        <f>_xlfn.T.TEST(V23:V40,V45:V52,2,2)</f>
+        <f t="shared" si="53"/>
         <v>0.26191880194094425</v>
       </c>
       <c r="W62" s="6">
-        <f>_xlfn.T.TEST(W23:W40,W45:W52,2,2)</f>
+        <f t="shared" si="53"/>
         <v>0.34975994349410322</v>
       </c>
       <c r="X62" s="6">
-        <f>_xlfn.T.TEST(X23:X40,X45:X52,2,2)</f>
+        <f t="shared" si="53"/>
         <v>0.82886266485204629</v>
       </c>
       <c r="Y62" s="9">
-        <f>_xlfn.T.TEST(Y23:Y40,Y45:Y52,2,2)</f>
+        <f t="shared" si="53"/>
         <v>2.390489976381335E-2</v>
       </c>
       <c r="Z62" s="6">
-        <f>_xlfn.T.TEST(Z23:Z40,Z45:Z52,2,2)</f>
+        <f t="shared" si="53"/>
         <v>0.56750566699418326</v>
       </c>
       <c r="AA62" s="6">
-        <f>_xlfn.T.TEST(AA23:AA40,AA45:AA52,2,2)</f>
+        <f t="shared" si="53"/>
         <v>0.19433235137362281</v>
       </c>
       <c r="AB62" s="6">
-        <f>_xlfn.T.TEST(AB23:AB40,AB45:AB52,2,2)</f>
+        <f t="shared" si="53"/>
         <v>0.13995484295418473</v>
       </c>
     </row>
@@ -8997,7 +8862,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -11015,10 +10880,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12692,7 +12557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>35</v>
       </c>
@@ -12745,350 +12610,630 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>67</v>
+      </c>
+      <c r="D34">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>14</v>
+      </c>
+      <c r="I34">
+        <v>12</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>81</v>
+      </c>
+      <c r="O34">
+        <v>-8</v>
+      </c>
+      <c r="P34">
+        <v>44</v>
+      </c>
+      <c r="Q34">
+        <v>7</v>
+      </c>
+      <c r="S34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>67</v>
+      </c>
+      <c r="D35">
+        <v>27</v>
+      </c>
+      <c r="E35">
+        <v>29</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>9</v>
+      </c>
+      <c r="H35">
+        <v>14</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>6</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35">
+        <v>81</v>
+      </c>
+      <c r="O35">
+        <v>14</v>
+      </c>
+      <c r="P35">
+        <v>-1</v>
+      </c>
+      <c r="Q35">
+        <v>7</v>
+      </c>
+      <c r="S35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>65</v>
+      </c>
+      <c r="D36">
+        <v>28</v>
+      </c>
+      <c r="E36">
+        <v>29</v>
+      </c>
+      <c r="F36">
+        <v>39</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <v>18</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>6</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>6</v>
+      </c>
+      <c r="N36">
+        <v>81</v>
+      </c>
+      <c r="O36">
+        <v>52</v>
+      </c>
+      <c r="P36">
+        <v>30</v>
+      </c>
+      <c r="Q36">
+        <v>8</v>
+      </c>
+      <c r="S36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>78</v>
+      </c>
+      <c r="D37">
+        <v>29</v>
+      </c>
+      <c r="E37">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>12</v>
+      </c>
+      <c r="H37">
+        <v>12</v>
+      </c>
+      <c r="I37">
+        <v>18</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
+      </c>
+      <c r="K37">
+        <v>8</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="N37">
+        <v>110</v>
+      </c>
+      <c r="O37">
+        <v>45</v>
+      </c>
+      <c r="P37">
+        <v>23</v>
+      </c>
+      <c r="Q37">
+        <v>5</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>70</v>
+      </c>
+      <c r="D38">
+        <v>29</v>
+      </c>
+      <c r="E38">
+        <v>29</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <v>7</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="N38">
+        <v>72</v>
+      </c>
+      <c r="O38">
+        <v>14</v>
+      </c>
+      <c r="P38">
+        <v>4</v>
+      </c>
+      <c r="Q38">
+        <v>7</v>
+      </c>
+      <c r="S38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>21</v>
       </c>
-      <c r="F34">
+      <c r="F39">
         <f>AVERAGE(F2:F33)</f>
         <v>8.25</v>
       </c>
-      <c r="G34">
-        <f t="shared" ref="G34:Q34" si="0">AVERAGE(G2:G33)</f>
+      <c r="G39">
+        <f t="shared" ref="G39:Q39" si="0">AVERAGE(G2:G33)</f>
         <v>9.03125</v>
       </c>
-      <c r="H34">
+      <c r="H39">
         <f t="shared" si="0"/>
         <v>11.35483870967742</v>
       </c>
-      <c r="I34">
+      <c r="I39">
         <f t="shared" si="0"/>
         <v>10.46875</v>
       </c>
-      <c r="J34">
+      <c r="J39">
         <f t="shared" si="0"/>
         <v>4.6875</v>
       </c>
-      <c r="K34">
+      <c r="K39">
         <f t="shared" si="0"/>
         <v>5.645161290322581</v>
       </c>
-      <c r="L34">
+      <c r="L39">
         <f t="shared" si="0"/>
         <v>3.46875</v>
       </c>
-      <c r="M34">
+      <c r="M39">
         <f t="shared" si="0"/>
         <v>6.129032258064516</v>
       </c>
-      <c r="N34">
+      <c r="N39">
         <f t="shared" si="0"/>
         <v>67.967741935483872</v>
       </c>
-      <c r="O34">
+      <c r="O39">
         <f t="shared" si="0"/>
         <v>31.032258064516128</v>
       </c>
-      <c r="P34">
+      <c r="P39">
         <f t="shared" si="0"/>
         <v>15.375</v>
       </c>
-      <c r="Q34">
+      <c r="Q39">
         <f t="shared" si="0"/>
         <v>5.59375</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="41" spans="1:19" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="N41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="O41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="P41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="Q41" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>7</v>
       </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37">
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42">
         <v>83</v>
       </c>
-      <c r="D37">
+      <c r="D42">
         <v>18</v>
       </c>
-      <c r="E37">
+      <c r="E42">
         <v>21</v>
       </c>
-      <c r="F37">
-        <v>6</v>
-      </c>
-      <c r="G37">
-        <v>3</v>
-      </c>
-      <c r="H37">
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
         <v>9</v>
       </c>
-      <c r="I37">
+      <c r="I42">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>5</v>
-      </c>
-      <c r="K37">
-        <v>5</v>
-      </c>
-      <c r="L37">
-        <v>3</v>
-      </c>
-      <c r="M37">
-        <v>4</v>
-      </c>
-      <c r="N37">
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42">
         <v>49</v>
       </c>
-      <c r="O37">
+      <c r="O42">
         <v>-2</v>
       </c>
-      <c r="P37">
-        <v>20</v>
-      </c>
-      <c r="Q37">
+      <c r="P42">
+        <v>20</v>
+      </c>
+      <c r="Q42">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>23</v>
       </c>
-      <c r="B38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38">
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
         <v>85</v>
       </c>
-      <c r="D38">
-        <v>20</v>
-      </c>
-      <c r="E38">
+      <c r="D43">
+        <v>20</v>
+      </c>
+      <c r="E43">
         <v>23</v>
       </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-      <c r="G38">
-        <v>6</v>
-      </c>
-      <c r="H38">
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
         <v>13</v>
       </c>
-      <c r="I38">
+      <c r="I43">
         <v>14</v>
       </c>
-      <c r="J38">
-        <v>5</v>
-      </c>
-      <c r="K38">
-        <v>6</v>
-      </c>
-      <c r="L38">
-        <v>3</v>
-      </c>
-      <c r="M38">
-        <v>5</v>
-      </c>
-      <c r="N38">
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <v>6</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>5</v>
+      </c>
+      <c r="N43">
         <v>63</v>
       </c>
-      <c r="O38">
+      <c r="O43">
         <v>24</v>
       </c>
-      <c r="P38">
-        <v>5</v>
-      </c>
-      <c r="Q38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="P43">
+        <v>5</v>
+      </c>
+      <c r="Q43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>21</v>
       </c>
-      <c r="F39">
-        <f t="shared" ref="F39:Q39" si="1">AVERAGE(F37:F38)</f>
+      <c r="F44">
+        <f t="shared" ref="F44:Q44" si="1">AVERAGE(F42:F43)</f>
         <v>4.5</v>
       </c>
-      <c r="G39">
+      <c r="G44">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="H39">
+      <c r="H44">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I39">
+      <c r="I44">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="J39">
+      <c r="J44">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K39">
+      <c r="K44">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="L39">
+      <c r="L44">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M39">
+      <c r="M44">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="N39">
+      <c r="N44">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="O39">
+      <c r="O44">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="P39">
+      <c r="P44">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="Q39">
+      <c r="Q44">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="47" spans="1:19" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="N47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="O47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="P47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="Q47" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>1</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B48" t="s">
         <v>19</v>
       </c>
-      <c r="C43">
+      <c r="C48">
         <v>87</v>
       </c>
-      <c r="D43">
+      <c r="D48">
         <v>12</v>
       </c>
-      <c r="E43">
+      <c r="E48">
         <v>16</v>
       </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="G43">
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
         <v>2</v>
       </c>
-      <c r="H43">
+      <c r="H48">
         <v>1</v>
       </c>
-      <c r="I43">
+      <c r="I48">
         <v>0</v>
       </c>
-      <c r="J43">
-        <v>3</v>
-      </c>
-      <c r="K43">
-        <v>3</v>
-      </c>
-      <c r="L43">
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
         <v>2</v>
       </c>
-      <c r="M43">
+      <c r="M48">
         <v>2</v>
       </c>
-      <c r="N43">
+      <c r="N48">
         <v>25</v>
       </c>
-      <c r="O43">
+      <c r="O48">
         <v>18</v>
       </c>
-      <c r="P43">
+      <c r="P48">
         <v>-3</v>
       </c>
-      <c r="Q43">
+      <c r="Q48">
         <v>3</v>
       </c>
     </row>
@@ -13100,4 +13245,18 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CBS/Analysis/Data.xlsx
+++ b/CBS/Analysis/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Raw Data'!$E$1:$E$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Raw Data'!$E$1:$E$57</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="108">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -102,12 +102,6 @@
     <t>MEAN</t>
   </si>
   <si>
-    <t>Feature Match and Paired associates - highest % of scores in middle - like Brenkel 2017</t>
-  </si>
-  <si>
-    <t>Least amount in the middle</t>
-  </si>
-  <si>
     <t>GR</t>
   </si>
   <si>
@@ -142,9 +136,6 @@
   </si>
   <si>
     <t>DT</t>
-  </si>
-  <si>
-    <t>replicates Brenkel 2017</t>
   </si>
   <si>
     <t>STD</t>
@@ -362,6 +353,12 @@
   <si>
     <t>SD</t>
   </si>
+  <si>
+    <t>Odd One Out (max)</t>
+  </si>
+  <si>
+    <t>amount left in middle</t>
+  </si>
 </sst>
 </file>
 
@@ -435,17 +432,17 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -455,7 +452,6 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -471,6 +467,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -989,11 +987,11 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39:XFD43"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1031,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
@@ -1119,7 +1117,7 @@
         <v>24</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1142,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1198,7 +1196,7 @@
         <v>6</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -1310,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1366,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -1422,7 +1420,7 @@
         <v>25</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <v>14</v>
@@ -1478,7 +1476,7 @@
         <v>6</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <v>9</v>
@@ -1534,7 +1532,7 @@
         <v>-1</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1646,7 +1644,7 @@
         <v>-6</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>8</v>
@@ -1702,7 +1700,7 @@
         <v>11</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H13">
         <v>13</v>
@@ -1758,7 +1756,7 @@
         <v>6</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H14">
         <v>14</v>
@@ -1814,7 +1812,7 @@
         <v>-2</v>
       </c>
       <c r="G15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H15">
         <v>19</v>
@@ -1926,7 +1924,7 @@
         <v>11</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H17">
         <v>5</v>
@@ -1982,7 +1980,7 @@
         <v>33</v>
       </c>
       <c r="G18">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H18">
         <v>23</v>
@@ -2094,7 +2092,7 @@
         <v>-6</v>
       </c>
       <c r="G20">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H20">
         <v>11</v>
@@ -2150,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H21">
         <v>6</v>
@@ -2206,7 +2204,7 @@
         <v>5</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I22">
         <v>7</v>
@@ -2247,7 +2245,7 @@
         <v>19</v>
       </c>
       <c r="G23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H23">
         <v>28</v>
@@ -2303,7 +2301,7 @@
         <v>25</v>
       </c>
       <c r="G24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H24">
         <v>10</v>
@@ -2359,7 +2357,7 @@
         <v>3</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H25">
         <v>13</v>
@@ -2415,7 +2413,7 @@
         <v>18</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H26">
         <v>10</v>
@@ -2471,7 +2469,7 @@
         <v>25</v>
       </c>
       <c r="G27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H27">
         <v>12</v>
@@ -2527,7 +2525,7 @@
         <v>14</v>
       </c>
       <c r="G28">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H28">
         <v>7</v>
@@ -2616,7 +2614,7 @@
         <v>4</v>
       </c>
       <c r="S29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -2639,7 +2637,7 @@
         <v>-2</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -2695,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H31">
         <v>7</v>
@@ -2751,7 +2749,7 @@
         <v>2</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H32">
         <v>6</v>
@@ -2807,7 +2805,7 @@
         <v>16</v>
       </c>
       <c r="G33">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H33">
         <v>12</v>
@@ -2863,7 +2861,7 @@
         <v>-1</v>
       </c>
       <c r="G34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H34">
         <v>12</v>
@@ -2919,7 +2917,7 @@
         <v>5</v>
       </c>
       <c r="G35">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H35">
         <v>14</v>
@@ -2975,7 +2973,7 @@
         <v>23</v>
       </c>
       <c r="G36">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H36">
         <v>19</v>
@@ -3031,7 +3029,7 @@
         <v>29</v>
       </c>
       <c r="G37">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H37">
         <v>20</v>
@@ -3087,7 +3085,7 @@
         <v>30</v>
       </c>
       <c r="G38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H38">
         <v>17</v>
@@ -3143,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H39">
         <v>14</v>
@@ -3199,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H40">
         <v>14</v>
@@ -3255,7 +3253,7 @@
         <v>39</v>
       </c>
       <c r="G41">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H41">
         <v>20</v>
@@ -3311,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H42">
         <v>12</v>
@@ -3367,7 +3365,7 @@
         <v>7</v>
       </c>
       <c r="G43">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -3407,26 +3405,281 @@
       <c r="A44">
         <v>42</v>
       </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>65</v>
+      </c>
+      <c r="D44">
+        <v>30</v>
+      </c>
+      <c r="E44">
+        <v>27</v>
+      </c>
+      <c r="F44">
+        <v>25</v>
+      </c>
+      <c r="G44">
+        <v>16</v>
+      </c>
+      <c r="H44">
+        <v>30</v>
+      </c>
+      <c r="I44">
+        <v>14</v>
+      </c>
+      <c r="J44">
+        <v>6</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44">
+        <v>5</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
+      <c r="N44">
+        <v>92</v>
+      </c>
+      <c r="O44">
+        <v>44</v>
+      </c>
+      <c r="P44">
+        <v>29</v>
+      </c>
+      <c r="Q44">
+        <v>7</v>
+      </c>
+      <c r="S44">
+        <v>9</v>
+      </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>64</v>
+      </c>
+      <c r="D45">
+        <v>28</v>
+      </c>
+      <c r="E45">
+        <v>30</v>
+      </c>
+      <c r="F45">
+        <v>24</v>
+      </c>
+      <c r="G45">
+        <v>17</v>
+      </c>
+      <c r="H45">
+        <v>29</v>
+      </c>
+      <c r="I45">
+        <v>13</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>7</v>
+      </c>
+      <c r="L45">
+        <v>4</v>
+      </c>
+      <c r="M45">
+        <v>7</v>
+      </c>
+      <c r="N45">
+        <v>90</v>
+      </c>
+      <c r="O45">
+        <v>79</v>
+      </c>
+      <c r="P45">
+        <v>55</v>
+      </c>
+      <c r="Q45">
+        <v>7</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46">
+        <v>71</v>
+      </c>
+      <c r="D46">
+        <v>27</v>
+      </c>
+      <c r="E46">
+        <v>28</v>
+      </c>
+      <c r="F46">
+        <v>27</v>
+      </c>
+      <c r="G46">
+        <v>15</v>
+      </c>
+      <c r="H46">
+        <v>23</v>
+      </c>
+      <c r="I46">
+        <v>14</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>7</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>5</v>
+      </c>
+      <c r="N46">
+        <v>77</v>
+      </c>
+      <c r="O46">
+        <v>60</v>
+      </c>
+      <c r="P46">
+        <v>66</v>
+      </c>
+      <c r="Q46">
+        <v>7</v>
+      </c>
+      <c r="S46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>68</v>
+      </c>
+      <c r="D47">
+        <v>29</v>
+      </c>
+      <c r="E47">
+        <v>30</v>
+      </c>
+      <c r="F47">
+        <v>31</v>
+      </c>
+      <c r="G47">
+        <v>14</v>
+      </c>
+      <c r="H47">
+        <v>12</v>
+      </c>
+      <c r="I47">
+        <v>19</v>
+      </c>
+      <c r="J47">
+        <v>7</v>
+      </c>
+      <c r="K47">
+        <v>7</v>
+      </c>
+      <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <v>6</v>
+      </c>
+      <c r="N47">
+        <v>90</v>
+      </c>
+      <c r="O47">
+        <v>74</v>
+      </c>
+      <c r="P47">
+        <v>11</v>
+      </c>
+      <c r="Q47">
+        <v>6</v>
+      </c>
+      <c r="S47">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>97</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <v>28</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>8</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+      <c r="K48">
+        <v>6</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>4</v>
+      </c>
+      <c r="N48">
+        <v>56</v>
+      </c>
+      <c r="O48">
+        <v>8</v>
+      </c>
+      <c r="P48">
+        <v>9</v>
+      </c>
+      <c r="Q48">
+        <v>6</v>
+      </c>
+      <c r="S48">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -3437,222 +3690,549 @@
       <c r="A50">
         <v>48</v>
       </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>85</v>
+      </c>
+      <c r="D50">
+        <v>23</v>
+      </c>
+      <c r="E50">
+        <v>26</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>13</v>
+      </c>
+      <c r="H50">
+        <v>11</v>
+      </c>
+      <c r="I50">
+        <v>14</v>
+      </c>
+      <c r="J50">
+        <v>6</v>
+      </c>
+      <c r="K50">
+        <v>6</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <v>5</v>
+      </c>
+      <c r="N50">
+        <v>56</v>
+      </c>
+      <c r="O50">
+        <v>24</v>
+      </c>
+      <c r="P50">
+        <v>15</v>
+      </c>
+      <c r="Q50">
+        <v>8</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51">
+        <v>90</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>26</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>19</v>
+      </c>
+      <c r="I51">
+        <v>9</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <v>4</v>
+      </c>
+      <c r="N51">
+        <v>19</v>
+      </c>
+      <c r="O51">
+        <v>28</v>
+      </c>
+      <c r="P51">
+        <v>4</v>
+      </c>
+      <c r="Q51">
+        <v>5</v>
+      </c>
+      <c r="S51">
+        <v>4</v>
+      </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>84</v>
+      </c>
+      <c r="D52">
+        <v>24</v>
+      </c>
+      <c r="E52">
+        <v>25</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>7</v>
+      </c>
+      <c r="H52">
+        <v>8</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>36</v>
+      </c>
+      <c r="O52">
+        <v>23</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>2</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>96</v>
+      </c>
+      <c r="D53">
+        <v>26</v>
+      </c>
+      <c r="E53">
+        <v>28</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="G53">
+        <v>8</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+      <c r="I53">
+        <v>10</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>4</v>
+      </c>
+      <c r="N53">
+        <v>72</v>
+      </c>
+      <c r="O53">
+        <v>37</v>
+      </c>
+      <c r="P53">
+        <v>19</v>
+      </c>
+      <c r="Q53">
+        <v>5</v>
+      </c>
+      <c r="S53">
+        <v>5</v>
+      </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>5</v>
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
       </c>
       <c r="C54">
-        <f>MIN(C3:C52)</f>
+        <v>92</v>
+      </c>
+      <c r="D54">
+        <v>22</v>
+      </c>
+      <c r="E54">
+        <v>25</v>
+      </c>
+      <c r="F54">
+        <v>-7</v>
+      </c>
+      <c r="G54">
+        <v>15</v>
+      </c>
+      <c r="H54">
+        <v>19</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>6</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="N54">
+        <v>49</v>
+      </c>
+      <c r="O54">
+        <v>37</v>
+      </c>
+      <c r="P54">
+        <v>2</v>
+      </c>
+      <c r="Q54">
+        <v>5</v>
+      </c>
+      <c r="S54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <f>MIN(C3:C54)</f>
         <v>62</v>
       </c>
-      <c r="D54">
-        <f t="shared" ref="D54:S54" si="0">MIN(D3:D52)</f>
+      <c r="D56">
+        <f t="shared" ref="D56:S56" si="0">MIN(D3:D54)</f>
         <v>12</v>
       </c>
-      <c r="E54">
+      <c r="E56">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F54">
+      <c r="F56">
         <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="G54">
+        <v>-7</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="J54">
+      <c r="M56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K54">
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="Q56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L54">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M54">
+      <c r="S56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N54">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="0"/>
-        <v>-11</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="Q54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55">
-        <f>MAX(C3:C52)</f>
-        <v>92</v>
-      </c>
-      <c r="D55">
-        <f t="shared" ref="D55:S55" si="1">MAX(D3:D52)</f>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <f>MAX(C3:C54)</f>
+        <v>97</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ref="D57:S57" si="1">MAX(D3:D54)</f>
         <v>30</v>
       </c>
-      <c r="E55">
+      <c r="E57">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="F55">
+      <c r="F57">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="G55">
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S57">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="H55">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="Q55">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="S55">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56">
-        <f>AVERAGE(C3:C52)</f>
-        <v>80.634146341463421</v>
-      </c>
-      <c r="D56">
-        <f t="shared" ref="D56:S56" si="2">AVERAGE(D3:D52)</f>
-        <v>24.560975609756099</v>
-      </c>
-      <c r="E56">
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58">
+        <f>AVERAGE(C3:C54)</f>
+        <v>80.745098039215691</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ref="D58:S58" si="2">AVERAGE(D3:D54)</f>
+        <v>24.627450980392158</v>
+      </c>
+      <c r="E58">
         <f t="shared" si="2"/>
-        <v>27.829268292682926</v>
-      </c>
-      <c r="F56">
+        <v>27.725490196078432</v>
+      </c>
+      <c r="F58">
         <f t="shared" si="2"/>
-        <v>8.6341463414634152</v>
-      </c>
-      <c r="G56">
+        <v>9.4313725490196081</v>
+      </c>
+      <c r="G58">
         <f t="shared" si="2"/>
-        <v>8.8048780487804876</v>
-      </c>
-      <c r="H56">
+        <v>11.411764705882353</v>
+      </c>
+      <c r="H58">
         <f t="shared" si="2"/>
-        <v>11.375</v>
-      </c>
-      <c r="I56">
+        <v>12.44</v>
+      </c>
+      <c r="I58">
         <f t="shared" si="2"/>
-        <v>10.414634146341463</v>
-      </c>
-      <c r="J56">
+        <v>10.352941176470589</v>
+      </c>
+      <c r="J58">
         <f t="shared" si="2"/>
-        <v>4.8048780487804876</v>
-      </c>
-      <c r="K56">
+        <v>4.8039215686274508</v>
+      </c>
+      <c r="K58">
         <f t="shared" si="2"/>
-        <v>5.7750000000000004</v>
-      </c>
-      <c r="L56">
+        <v>5.78</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="2"/>
-        <v>3.5365853658536586</v>
-      </c>
-      <c r="M56">
+        <v>3.5490196078431371</v>
+      </c>
+      <c r="M58">
         <f t="shared" si="2"/>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="N56">
+        <v>4.26</v>
+      </c>
+      <c r="N58">
         <f t="shared" si="2"/>
-        <v>69.474999999999994</v>
-      </c>
-      <c r="O56">
+        <v>68.319999999999993</v>
+      </c>
+      <c r="O58">
         <f t="shared" si="2"/>
-        <v>30.175000000000001</v>
-      </c>
-      <c r="P56">
+        <v>32.42</v>
+      </c>
+      <c r="P58">
         <f t="shared" si="2"/>
-        <v>16.902439024390244</v>
-      </c>
-      <c r="Q56">
+        <v>17.725490196078432</v>
+      </c>
+      <c r="Q58">
         <f t="shared" si="2"/>
-        <v>5.6585365853658534</v>
-      </c>
-      <c r="S56">
+        <v>5.6862745098039218</v>
+      </c>
+      <c r="S58">
         <f t="shared" si="2"/>
-        <v>6.5750000000000002</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <f>STDEV(C3:C54)</f>
+        <v>8.7746068567313245</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ref="D59:Q59" si="3">STDEV(D3:D54)</f>
+        <v>3.9897908933362687</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="3"/>
+        <v>2.7646224434634754</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="3"/>
+        <v>11.905049184208833</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="3"/>
+        <v>3.4535574156989783</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="3"/>
+        <v>7.0974557096906494</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>5.8849758858019623</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>1.7552163153655704</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="3"/>
+        <v>1.6449055552566791</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="3"/>
+        <v>0.92333581085531558</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="3"/>
+        <v>1.225744255377865</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="3"/>
+        <v>25.672537538651483</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="3"/>
+        <v>26.117544341859162</v>
+      </c>
+      <c r="P59">
+        <f>STDEV(P3:P54)</f>
+        <v>16.761955054673724</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="3"/>
+        <v>1.8274593957561014</v>
       </c>
     </row>
   </sheetData>
@@ -3668,10 +4248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC67"/>
+  <dimension ref="A1:AC80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+    <sheetView topLeftCell="A50" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3679,9 +4259,9 @@
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -3757,7 +4337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -3801,55 +4381,55 @@
         <v>6</v>
       </c>
       <c r="Q2">
-        <f>STANDARDIZE(C2,$C$20,$C$21)</f>
+        <f>STANDARDIZE(C2,$C$25,$C$26)</f>
         <v>0.63988464720243976</v>
       </c>
       <c r="R2">
-        <f>STANDARDIZE(D2,$D$20,$D$21)</f>
+        <f>STANDARDIZE(D2,$D$25,$D$26)</f>
         <v>-1.0530932371675488</v>
       </c>
       <c r="S2">
-        <f>STANDARDIZE(E2,$E$20,$E$21)</f>
+        <f>STANDARDIZE(E2,$E$25,$E$26)</f>
         <v>-5.768210027602174E-2</v>
       </c>
       <c r="T2">
-        <f>STANDARDIZE(F2,$F$20,$F$21)</f>
+        <f>STANDARDIZE(F2,$F$25,$F$26)</f>
         <v>0.41691947700753929</v>
       </c>
       <c r="U2">
-        <f>STANDARDIZE(G2,$G$20,$G$21)</f>
+        <f>STANDARDIZE(G2,$G$25,$G$26)</f>
         <v>-0.44199466222696143</v>
       </c>
       <c r="V2">
-        <f>STANDARDIZE(H2,$H$20,$H$21)</f>
+        <f>STANDARDIZE(H2,$H$25,$H$26)</f>
         <v>-0.72493600563844784</v>
       </c>
       <c r="W2">
-        <f>STANDARDIZE(I2,$I$20,$I$21)</f>
+        <f>STANDARDIZE(I2,$I$25,$I$26)</f>
         <v>0.65396318635969874</v>
       </c>
       <c r="X2">
-        <f>STANDARDIZE(J2,$J$20,$J$21)</f>
+        <f>STANDARDIZE(J2,$J$25,$J$26)</f>
         <v>-0.95999747521563505</v>
       </c>
       <c r="Y2">
-        <f>STANDARDIZE(K2,$K$20,$K$21)</f>
+        <f>STANDARDIZE(K2,$K$25,$K$26)</f>
         <v>-0.8144040251567165</v>
       </c>
       <c r="Z2">
-        <f>STANDARDIZE(L2,$L$20,$L$21)</f>
+        <f>STANDARDIZE(L2,$L$25,$L$26)</f>
         <v>-1.5859681552080627</v>
       </c>
       <c r="AA2">
-        <f>STANDARDIZE(M2,$M$20,$M$21)</f>
+        <f>STANDARDIZE(M2,$M$25,$M$26)</f>
         <v>-0.73907256138610611</v>
       </c>
       <c r="AB2">
-        <f>STANDARDIZE(N2,$N$20,$N$21)</f>
+        <f>STANDARDIZE(N2,$N$25,$N$26)</f>
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11</v>
       </c>
@@ -3893,55 +4473,55 @@
         <v>7</v>
       </c>
       <c r="Q3">
-        <f>STANDARDIZE(C3,$C$20,$C$21)</f>
+        <f>STANDARDIZE(C3,$C$25,$C$26)</f>
         <v>-0.53673906228025547</v>
       </c>
       <c r="R3">
-        <f>STANDARDIZE(D3,$D$20,$D$21)</f>
+        <f>STANDARDIZE(D3,$D$25,$D$26)</f>
         <v>-2.2361426610493909</v>
       </c>
       <c r="S3">
-        <f>STANDARDIZE(E3,$E$20,$E$21)</f>
+        <f>STANDARDIZE(E3,$E$25,$E$26)</f>
         <v>-0.18783658295012204</v>
       </c>
       <c r="T3">
-        <f>STANDARDIZE(F3,$F$20,$F$21)</f>
+        <f>STANDARDIZE(F3,$F$25,$F$26)</f>
         <v>-0.75400330948171979</v>
       </c>
       <c r="U3">
-        <f>STANDARDIZE(G3,$G$20,$G$21)</f>
+        <f>STANDARDIZE(G3,$G$25,$G$26)</f>
         <v>0.14733155407565382</v>
       </c>
       <c r="V3">
-        <f>STANDARDIZE(H3,$H$20,$H$21)</f>
+        <f>STANDARDIZE(H3,$H$25,$H$26)</f>
         <v>0.38453127255604641</v>
       </c>
       <c r="W3">
-        <f>STANDARDIZE(I3,$I$20,$I$21)</f>
+        <f>STANDARDIZE(I3,$I$25,$I$26)</f>
         <v>-0.32143953227849542</v>
       </c>
       <c r="X3">
-        <f>STANDARDIZE(J3,$J$20,$J$21)</f>
+        <f>STANDARDIZE(J3,$J$25,$J$26)</f>
         <v>-0.95999747521563505</v>
       </c>
       <c r="Y3">
-        <f>STANDARDIZE(K3,$K$20,$K$21)</f>
+        <f>STANDARDIZE(K3,$K$25,$K$26)</f>
         <v>-1.2751539353564254</v>
       </c>
       <c r="Z3">
-        <f>STANDARDIZE(L3,$L$20,$L$21)</f>
+        <f>STANDARDIZE(L3,$L$25,$L$26)</f>
         <v>-1.4148065196202413</v>
       </c>
       <c r="AA3">
-        <f>STANDARDIZE(M3,$M$20,$M$21)</f>
+        <f>STANDARDIZE(M3,$M$25,$M$26)</f>
         <v>-0.69075280997304722</v>
       </c>
       <c r="AB3">
-        <f>STANDARDIZE(N3,$N$20,$N$21)</f>
+        <f>STANDARDIZE(N3,$N$25,$N$26)</f>
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>16</v>
       </c>
@@ -3985,55 +4565,55 @@
         <v>8</v>
       </c>
       <c r="Q4">
-        <f>STANDARDIZE(C4,$C$20,$C$21)</f>
+        <f>STANDARDIZE(C4,$C$25,$C$26)</f>
         <v>1.3122410526211228</v>
       </c>
       <c r="R4">
-        <f>STANDARDIZE(D4,$D$20,$D$21)</f>
+        <f>STANDARDIZE(D4,$D$25,$D$26)</f>
         <v>0.9186558026355216</v>
       </c>
       <c r="S4">
-        <f>STANDARDIZE(E4,$E$20,$E$21)</f>
+        <f>STANDARDIZE(E4,$E$25,$E$26)</f>
         <v>1.113708243790881</v>
       </c>
       <c r="T4">
-        <f>STANDARDIZE(F4,$F$20,$F$21)</f>
+        <f>STANDARDIZE(F4,$F$25,$F$26)</f>
         <v>1.5878422634967984</v>
       </c>
       <c r="U4">
-        <f>STANDARDIZE(G4,$G$20,$G$21)</f>
+        <f>STANDARDIZE(G4,$G$25,$G$26)</f>
         <v>-0.44199466222696143</v>
       </c>
       <c r="V4">
-        <f>STANDARDIZE(H4,$H$20,$H$21)</f>
+        <f>STANDARDIZE(H4,$H$25,$H$26)</f>
         <v>0.38453127255604641</v>
       </c>
       <c r="W4">
-        <f>STANDARDIZE(I4,$I$20,$I$21)</f>
+        <f>STANDARDIZE(I4,$I$25,$I$26)</f>
         <v>-0.32143953227849542</v>
       </c>
       <c r="X4">
-        <f>STANDARDIZE(J4,$J$20,$J$21)</f>
+        <f>STANDARDIZE(J4,$J$25,$J$26)</f>
         <v>1.1787310771635018</v>
       </c>
       <c r="Y4">
-        <f>STANDARDIZE(K4,$K$20,$K$21)</f>
+        <f>STANDARDIZE(K4,$K$25,$K$26)</f>
         <v>0.44218663902430755</v>
       </c>
       <c r="Z4">
-        <f>STANDARDIZE(L4,$L$20,$L$21)</f>
+        <f>STANDARDIZE(L4,$L$25,$L$26)</f>
         <v>-0.83285695862164877</v>
       </c>
       <c r="AA4">
-        <f>STANDARDIZE(M4,$M$20,$M$21)</f>
+        <f>STANDARDIZE(M4,$M$25,$M$26)</f>
         <v>-0.44915405290775245</v>
       </c>
       <c r="AB4">
-        <f>STANDARDIZE(N4,$N$20,$N$21)</f>
+        <f>STANDARDIZE(N4,$N$25,$N$26)</f>
         <v>1.0868706410559206</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18</v>
       </c>
@@ -4077,55 +4657,55 @@
         <v>5</v>
       </c>
       <c r="Q5">
-        <f>STANDARDIZE(C5,$C$20,$C$21)</f>
+        <f>STANDARDIZE(C5,$C$25,$C$26)</f>
         <v>-1.9654964237949568</v>
       </c>
       <c r="R5">
-        <f>STANDARDIZE(D5,$D$20,$D$21)</f>
+        <f>STANDARDIZE(D5,$D$25,$D$26)</f>
         <v>-1.0530932371675488</v>
       </c>
       <c r="S5">
-        <f>STANDARDIZE(E5,$E$20,$E$21)</f>
+        <f>STANDARDIZE(E5,$E$25,$E$26)</f>
         <v>-0.44814554829832259</v>
       </c>
       <c r="T5">
-        <f>STANDARDIZE(F5,$F$20,$F$21)</f>
+        <f>STANDARDIZE(F5,$F$25,$F$26)</f>
         <v>0.80722707250395898</v>
       </c>
       <c r="U5">
-        <f>STANDARDIZE(G5,$G$20,$G$21)</f>
+        <f>STANDARDIZE(G5,$G$25,$G$26)</f>
         <v>-0.44199466222696143</v>
       </c>
       <c r="V5">
-        <f>STANDARDIZE(H5,$H$20,$H$21)</f>
+        <f>STANDARDIZE(H5,$H$25,$H$26)</f>
         <v>0.38453127255604641</v>
       </c>
       <c r="W5">
-        <f>STANDARDIZE(I5,$I$20,$I$21)</f>
+        <f>STANDARDIZE(I5,$I$25,$I$26)</f>
         <v>0.65396318635969874</v>
       </c>
       <c r="X5">
-        <f>STANDARDIZE(J5,$J$20,$J$21)</f>
+        <f>STANDARDIZE(J5,$J$25,$J$26)</f>
         <v>0.10936680097393339</v>
       </c>
       <c r="Y5">
-        <f>STANDARDIZE(K5,$K$20,$K$21)</f>
+        <f>STANDARDIZE(K5,$K$25,$K$26)</f>
         <v>6.5209439770000335E-2</v>
       </c>
       <c r="Z5">
-        <f>STANDARDIZE(L5,$L$20,$L$21)</f>
+        <f>STANDARDIZE(L5,$L$25,$L$26)</f>
         <v>-1.2436448840324201</v>
       </c>
       <c r="AA5">
-        <f>STANDARDIZE(M5,$M$20,$M$21)</f>
+        <f>STANDARDIZE(M5,$M$25,$M$26)</f>
         <v>-0.44915405290775245</v>
       </c>
       <c r="AB5">
-        <f>STANDARDIZE(N5,$N$20,$N$21)</f>
+        <f>STANDARDIZE(N5,$N$25,$N$26)</f>
         <v>-1.1548000561219161</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>19</v>
       </c>
@@ -4169,55 +4749,55 @@
         <v>7</v>
       </c>
       <c r="Q6">
-        <f>STANDARDIZE(C6,$C$20,$C$21)</f>
+        <f>STANDARDIZE(C6,$C$25,$C$26)</f>
         <v>-1.4612291197309446</v>
       </c>
       <c r="R6">
-        <f>STANDARDIZE(D6,$D$20,$D$21)</f>
+        <f>STANDARDIZE(D6,$D$25,$D$26)</f>
         <v>-1.4474430451281628</v>
       </c>
       <c r="S6">
-        <f>STANDARDIZE(E6,$E$20,$E$21)</f>
+        <f>STANDARDIZE(E6,$E$25,$E$26)</f>
         <v>-1.0989179616688241</v>
       </c>
       <c r="T6">
-        <f>STANDARDIZE(F6,$F$20,$F$21)</f>
+        <f>STANDARDIZE(F6,$F$25,$F$26)</f>
         <v>0.61207327475574913</v>
       </c>
       <c r="U6">
-        <f>STANDARDIZE(G6,$G$20,$G$21)</f>
+        <f>STANDARDIZE(G6,$G$25,$G$26)</f>
         <v>0.14733155407565382</v>
       </c>
       <c r="V6">
-        <f>STANDARDIZE(H6,$H$20,$H$21)</f>
+        <f>STANDARDIZE(H6,$H$25,$H$26)</f>
         <v>-0.17020236654120074</v>
       </c>
       <c r="W6">
-        <f>STANDARDIZE(I6,$I$20,$I$21)</f>
+        <f>STANDARDIZE(I6,$I$25,$I$26)</f>
         <v>-0.32143953227849542</v>
       </c>
       <c r="X6">
-        <f>STANDARDIZE(J6,$J$20,$J$21)</f>
+        <f>STANDARDIZE(J6,$J$25,$J$26)</f>
         <v>-0.95999747521563505</v>
       </c>
       <c r="Y6">
-        <f>STANDARDIZE(K6,$K$20,$K$21)</f>
+        <f>STANDARDIZE(K6,$K$25,$K$26)</f>
         <v>-0.39554047042970852</v>
       </c>
       <c r="Z6">
-        <f>STANDARDIZE(L6,$L$20,$L$21)</f>
+        <f>STANDARDIZE(L6,$L$25,$L$26)</f>
         <v>-0.5932306687986989</v>
       </c>
       <c r="AA6">
-        <f>STANDARDIZE(M6,$M$20,$M$21)</f>
+        <f>STANDARDIZE(M6,$M$25,$M$26)</f>
         <v>-1.0289910698644598</v>
       </c>
       <c r="AB6">
-        <f>STANDARDIZE(N6,$N$20,$N$21)</f>
+        <f>STANDARDIZE(N6,$N$25,$N$26)</f>
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21</v>
       </c>
@@ -4261,7 +4841,7 @@
         <v>8</v>
       </c>
       <c r="Q7">
-        <f t="shared" ref="Q7:AB7" si="0">STANDARDIZE(C7,C18,C19)</f>
+        <f t="shared" ref="Q7:AB7" si="0">STANDARDIZE(C7,C23,C24)</f>
         <v>7.2913433679053091E-2</v>
       </c>
       <c r="R7">
@@ -4309,7 +4889,7 @@
         <v>1.1932716806534354</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32</v>
       </c>
@@ -4353,55 +4933,55 @@
         <v>6</v>
       </c>
       <c r="Q8">
-        <f>STANDARDIZE(C8,$C$20,$C$21)</f>
+        <f t="shared" ref="Q8:Q15" si="1">STANDARDIZE(C8,$C$25,$C$26)</f>
         <v>-1.5452736704082799</v>
       </c>
       <c r="R8">
-        <f>STANDARDIZE(D8,$D$20,$D$21)</f>
+        <f t="shared" ref="R8:R15" si="2">STANDARDIZE(D8,$D$25,$D$26)</f>
         <v>-0.65874342920693474</v>
       </c>
       <c r="S8">
-        <f>STANDARDIZE(E8,$E$20,$E$21)</f>
+        <f t="shared" ref="S8:S15" si="3">STANDARDIZE(E8,$E$25,$E$26)</f>
         <v>-0.3179910656242223</v>
       </c>
       <c r="T8">
-        <f>STANDARDIZE(F8,$F$20,$F$21)</f>
+        <f t="shared" ref="T8:T15" si="4">STANDARDIZE(F8,$F$25,$F$26)</f>
         <v>-0.75400330948171979</v>
       </c>
       <c r="U8">
-        <f>STANDARDIZE(G8,$G$20,$G$21)</f>
+        <f t="shared" ref="U8:U15" si="5">STANDARDIZE(G8,$G$25,$G$26)</f>
         <v>0.14733155407565382</v>
       </c>
       <c r="V8">
-        <f>STANDARDIZE(H8,$H$20,$H$21)</f>
+        <f t="shared" ref="V8:V15" si="6">STANDARDIZE(H8,$H$25,$H$26)</f>
         <v>0.38453127255604641</v>
       </c>
       <c r="W8">
-        <f>STANDARDIZE(I8,$I$20,$I$21)</f>
+        <f t="shared" ref="W8:W15" si="7">STANDARDIZE(I8,$I$25,$I$26)</f>
         <v>0.65396318635969874</v>
       </c>
       <c r="X8">
-        <f>STANDARDIZE(J8,$J$20,$J$21)</f>
+        <f t="shared" ref="X8:X15" si="8">STANDARDIZE(J8,$J$25,$J$26)</f>
         <v>-0.95999747521563505</v>
       </c>
       <c r="Y8">
-        <f>STANDARDIZE(K8,$K$20,$K$21)</f>
+        <f t="shared" ref="Y8:Y15" si="9">STANDARDIZE(K8,$K$25,$K$26)</f>
         <v>-0.39554047042970852</v>
       </c>
       <c r="Z8">
-        <f>STANDARDIZE(L8,$L$20,$L$21)</f>
+        <f t="shared" ref="Z8:Z15" si="10">STANDARDIZE(L8,$L$25,$L$26)</f>
         <v>-0.5589983416811346</v>
       </c>
       <c r="AA8">
-        <f>STANDARDIZE(M8,$M$20,$M$21)</f>
+        <f t="shared" ref="AA8:AA15" si="11">STANDARDIZE(M8,$M$25,$M$26)</f>
         <v>-1.0773108212775186</v>
       </c>
       <c r="AB8">
-        <f>STANDARDIZE(N8,$N$20,$N$21)</f>
+        <f t="shared" ref="AB8:AB15" si="12">STANDARDIZE(N8,$N$25,$N$26)</f>
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>34</v>
       </c>
@@ -4445,55 +5025,55 @@
         <v>7</v>
       </c>
       <c r="Q9">
-        <f>STANDARDIZE(C9,$C$20,$C$21)</f>
+        <f t="shared" si="1"/>
         <v>0.471795545847769</v>
       </c>
       <c r="R9">
-        <f>STANDARDIZE(D9,$D$20,$D$21)</f>
+        <f t="shared" si="2"/>
         <v>-1.841792853088777</v>
       </c>
       <c r="S9">
-        <f>STANDARDIZE(E9,$E$20,$E$21)</f>
+        <f t="shared" si="3"/>
         <v>0.59309031309447968</v>
       </c>
       <c r="T9">
-        <f>STANDARDIZE(F9,$F$20,$F$21)</f>
+        <f t="shared" si="4"/>
         <v>0.80722707250395898</v>
       </c>
       <c r="U9">
-        <f>STANDARDIZE(G9,$G$20,$G$21)</f>
+        <f t="shared" si="5"/>
         <v>0.14733155407565382</v>
       </c>
       <c r="V9">
-        <f>STANDARDIZE(H9,$H$20,$H$21)</f>
+        <f t="shared" si="6"/>
         <v>-0.17020236654120074</v>
       </c>
       <c r="W9">
-        <f>STANDARDIZE(I9,$I$20,$I$21)</f>
+        <f t="shared" si="7"/>
         <v>-0.32143953227849542</v>
       </c>
       <c r="X9">
-        <f>STANDARDIZE(J9,$J$20,$J$21)</f>
+        <f t="shared" si="8"/>
         <v>0.10936680097393339</v>
       </c>
       <c r="Y9">
-        <f>STANDARDIZE(K9,$K$20,$K$21)</f>
+        <f t="shared" si="9"/>
         <v>2.3323084297299526E-2</v>
       </c>
       <c r="Z9">
-        <f>STANDARDIZE(L9,$L$20,$L$21)</f>
+        <f t="shared" si="10"/>
         <v>0.9129917243741289</v>
       </c>
       <c r="AA9">
-        <f>STANDARDIZE(M9,$M$20,$M$21)</f>
+        <f t="shared" si="11"/>
         <v>-0.4974738043208114</v>
       </c>
       <c r="AB9">
-        <f>STANDARDIZE(N9,$N$20,$N$21)</f>
+        <f t="shared" si="12"/>
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>35</v>
       </c>
@@ -4537,55 +5117,55 @@
         <v>8</v>
       </c>
       <c r="Q10">
-        <f>STANDARDIZE(C10,$C$20,$C$21)</f>
+        <f t="shared" si="1"/>
         <v>0.97606284991178127</v>
       </c>
       <c r="R10">
-        <f>STANDARDIZE(D10,$D$20,$D$21)</f>
+        <f t="shared" si="2"/>
         <v>-2.2361426610493909</v>
       </c>
       <c r="S10">
-        <f>STANDARDIZE(E10,$E$20,$E$21)</f>
+        <f t="shared" si="3"/>
         <v>0.72324479576858003</v>
       </c>
       <c r="T10">
-        <f>STANDARDIZE(F10,$F$20,$F$21)</f>
+        <f t="shared" si="4"/>
         <v>-0.94915710722992963</v>
       </c>
       <c r="U10">
-        <f>STANDARDIZE(G10,$G$20,$G$21)</f>
+        <f t="shared" si="5"/>
         <v>0.14733155407565382</v>
       </c>
       <c r="V10">
-        <f>STANDARDIZE(H10,$H$20,$H$21)</f>
+        <f t="shared" si="6"/>
         <v>2.0487321898477879</v>
       </c>
       <c r="W10">
-        <f>STANDARDIZE(I10,$I$20,$I$21)</f>
+        <f t="shared" si="7"/>
         <v>-0.32143953227849542</v>
       </c>
       <c r="X10">
-        <f>STANDARDIZE(J10,$J$20,$J$21)</f>
+        <f t="shared" si="8"/>
         <v>1.1787310771635018</v>
       </c>
       <c r="Y10">
-        <f>STANDARDIZE(K10,$K$20,$K$21)</f>
+        <f t="shared" si="9"/>
         <v>-1.4845857127199293</v>
       </c>
       <c r="Z10">
-        <f>STANDARDIZE(L10,$L$20,$L$21)</f>
+        <f t="shared" si="10"/>
         <v>0.26257750914040778</v>
       </c>
       <c r="AA10">
-        <f>STANDARDIZE(M10,$M$20,$M$21)</f>
+        <f t="shared" si="11"/>
         <v>-0.88403181562528288</v>
       </c>
       <c r="AB10">
-        <f>STANDARDIZE(N10,$N$20,$N$21)</f>
+        <f t="shared" si="12"/>
         <v>1.0868706410559206</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>36</v>
       </c>
@@ -4629,55 +5209,55 @@
         <v>8</v>
       </c>
       <c r="Q11">
-        <f t="shared" ref="Q11:Q15" si="1">STANDARDIZE(C11,$C$20,$C$21)</f>
+        <f t="shared" si="1"/>
         <v>1.0601074005891167</v>
       </c>
       <c r="R11">
-        <f t="shared" ref="R11:R15" si="2">STANDARDIZE(D11,$D$20,$D$21)</f>
+        <f t="shared" si="2"/>
         <v>0.12995618671429346</v>
       </c>
       <c r="S11">
-        <f t="shared" ref="S11:S15" si="3">STANDARDIZE(E11,$E$20,$E$21)</f>
+        <f t="shared" si="3"/>
         <v>0.3327813477462791</v>
       </c>
       <c r="T11">
-        <f t="shared" ref="T11:T15" si="4">STANDARDIZE(F11,$F$20,$F$21)</f>
+        <f t="shared" si="4"/>
         <v>0.61207327475574913</v>
       </c>
       <c r="U11">
-        <f t="shared" ref="U11:U15" si="5">STANDARDIZE(G11,$G$20,$G$21)</f>
+        <f t="shared" si="5"/>
         <v>-0.44199466222696143</v>
       </c>
       <c r="V11">
-        <f t="shared" ref="V11:V15" si="6">STANDARDIZE(H11,$H$20,$H$21)</f>
+        <f t="shared" si="6"/>
         <v>0.93926491165329351</v>
       </c>
       <c r="W11">
-        <f t="shared" ref="W11:W15" si="7">STANDARDIZE(I11,$I$20,$I$21)</f>
+        <f t="shared" si="7"/>
         <v>1.629365904997893</v>
       </c>
       <c r="X11">
-        <f t="shared" ref="X11:X15" si="8">STANDARDIZE(J11,$J$20,$J$21)</f>
+        <f t="shared" si="8"/>
         <v>0.10936680097393339</v>
       </c>
       <c r="Y11">
-        <f t="shared" ref="Y11:Y15" si="9">STANDARDIZE(K11,$K$20,$K$21)</f>
+        <f t="shared" si="9"/>
         <v>0.44218663902430755</v>
       </c>
       <c r="Z11">
-        <f t="shared" ref="Z11:Z15" si="10">STANDARDIZE(L11,$L$20,$L$21)</f>
+        <f t="shared" si="10"/>
         <v>0.9129917243741289</v>
       </c>
       <c r="AA11">
-        <f t="shared" ref="AA11:AA15" si="11">STANDARDIZE(M11,$M$20,$M$21)</f>
+        <f t="shared" si="11"/>
         <v>1.5319557550276641</v>
       </c>
       <c r="AB11">
-        <f t="shared" ref="AB11:AB15" si="12">STANDARDIZE(N11,$N$20,$N$21)</f>
+        <f t="shared" si="12"/>
         <v>1.0868706410559206</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>38</v>
       </c>
@@ -4769,7 +5349,7 @@
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>39</v>
       </c>
@@ -4861,7 +5441,7 @@
         <v>1.0868706410559206</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>40</v>
       </c>
@@ -4953,7 +5533,7 @@
         <v>-1.1548000561219161</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>41</v>
       </c>
@@ -5045,1387 +5625,1103 @@
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>92</v>
+      </c>
+      <c r="L16">
+        <v>44</v>
+      </c>
+      <c r="M16">
+        <v>29</v>
+      </c>
+      <c r="N16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>29</v>
+      </c>
+      <c r="F17">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>90</v>
+      </c>
+      <c r="L17">
+        <v>79</v>
+      </c>
+      <c r="M17">
+        <v>55</v>
+      </c>
+      <c r="N17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>23</v>
+      </c>
+      <c r="F18">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>77</v>
+      </c>
+      <c r="L18">
+        <v>60</v>
+      </c>
+      <c r="M18">
+        <v>66</v>
+      </c>
+      <c r="N18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <v>90</v>
+      </c>
+      <c r="L19">
+        <v>74</v>
+      </c>
+      <c r="M19">
+        <v>11</v>
+      </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="4">
-        <f>AVERAGE(C2:C15)</f>
-        <v>15</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" ref="D16:N16" si="13">AVERAGE(D2:D15)</f>
-        <v>11.142857142857142</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="C21" s="4">
+        <f>AVERAGE(C2:C20)</f>
+        <v>17.611111111111111</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" ref="D21:N21" si="13">AVERAGE(D2:D20)</f>
+        <v>12.111111111111111</v>
+      </c>
+      <c r="E21" s="4">
         <f t="shared" si="13"/>
-        <v>15.142857142857142</v>
-      </c>
-      <c r="F16" s="4">
+        <v>17</v>
+      </c>
+      <c r="F21" s="4">
         <f t="shared" si="13"/>
-        <v>14.428571428571429</v>
-      </c>
-      <c r="G16" s="4">
+        <v>14.555555555555555</v>
+      </c>
+      <c r="G21" s="4">
         <f t="shared" si="13"/>
-        <v>6.1428571428571432</v>
-      </c>
-      <c r="H16" s="4">
+        <v>6.1111111111111107</v>
+      </c>
+      <c r="H21" s="4">
         <f t="shared" si="13"/>
-        <v>6.9285714285714288</v>
-      </c>
-      <c r="I16" s="4">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="I21" s="4">
         <f t="shared" si="13"/>
-        <v>4.3571428571428568</v>
-      </c>
-      <c r="J16" s="4">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="J21" s="4">
         <f t="shared" si="13"/>
-        <v>4.8571428571428568</v>
-      </c>
-      <c r="K16" s="4">
+        <v>5.1111111111111107</v>
+      </c>
+      <c r="K21" s="4">
         <f t="shared" si="13"/>
-        <v>90.571428571428569</v>
-      </c>
-      <c r="L16" s="4">
+        <v>89.833333333333329</v>
+      </c>
+      <c r="L21" s="4">
         <f t="shared" si="13"/>
-        <v>41.357142857142854</v>
-      </c>
-      <c r="M16" s="4">
+        <v>46.444444444444443</v>
+      </c>
+      <c r="M21" s="4">
         <f t="shared" si="13"/>
-        <v>21.142857142857142</v>
-      </c>
-      <c r="N16" s="4">
+        <v>25.388888888888889</v>
+      </c>
+      <c r="N21" s="4">
         <f t="shared" si="13"/>
-        <v>6.9285714285714288</v>
-      </c>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="3"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="7">
+        <f>STDEV(C2:C20)</f>
+        <v>14.105230105881621</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" ref="D22:N22" si="14">STDEV(D2:D20)</f>
+        <v>2.8468535549618101</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="14"/>
+        <v>7.6312052860375248</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="14"/>
+        <v>4.8291056561136134</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="14"/>
+        <v>0.83235236379573219</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="14"/>
+        <v>1.1504474832710556</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="14"/>
+        <v>0.76696498884737041</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="14"/>
+        <v>0.90025413986266623</v>
+      </c>
+      <c r="K22" s="7">
+        <f t="shared" si="14"/>
+        <v>14.745886764470567</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="14"/>
+        <v>25.326624498671986</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" si="14"/>
+        <v>18.939963627795649</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" si="14"/>
+        <v>0.96338184286574635</v>
+      </c>
+      <c r="AC22" s="3"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="8">
-        <f>STDEV(C2:C15)</f>
-        <v>14.997435678244361</v>
-      </c>
-      <c r="D17" s="8">
-        <f t="shared" ref="D17:N17" si="14">STDEV(D2:D15)</f>
-        <v>2.3812454032143924</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" si="14"/>
-        <v>6.6083530225260878</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="14"/>
-        <v>5.3595965076929755</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" si="14"/>
-        <v>0.86443782150756421</v>
-      </c>
-      <c r="H17" s="8">
-        <f t="shared" si="14"/>
-        <v>1.2066664642907572</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" si="14"/>
-        <v>0.74494634366849233</v>
-      </c>
-      <c r="J17" s="8">
-        <f t="shared" si="14"/>
-        <v>0.77032888651964371</v>
-      </c>
-      <c r="K17" s="8">
-        <f t="shared" si="14"/>
-        <v>16.453731331381167</v>
-      </c>
-      <c r="L17" s="8">
-        <f t="shared" si="14"/>
-        <v>25.620325893733259</v>
-      </c>
-      <c r="M17" s="8">
-        <f t="shared" si="14"/>
-        <v>15.441488284474408</v>
-      </c>
-      <c r="N17" s="8">
-        <f t="shared" si="14"/>
-        <v>1.0716117059605357</v>
-      </c>
-      <c r="AC17" s="3"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C23">
+        <v>18.228346456692915</v>
+      </c>
+      <c r="D23">
+        <v>13.153543307086615</v>
+      </c>
+      <c r="E23">
+        <v>14.464566929133857</v>
+      </c>
+      <c r="F23">
+        <v>13.799212598425196</v>
+      </c>
+      <c r="G23">
+        <v>6.7913385826771657</v>
+      </c>
+      <c r="H23">
+        <v>6.3346456692913389</v>
+      </c>
+      <c r="I23">
+        <v>4.1929133858267713</v>
+      </c>
+      <c r="J23">
+        <v>4.9133858267716537</v>
+      </c>
+      <c r="K23">
+        <v>92.086614173228341</v>
+      </c>
+      <c r="L23">
+        <v>63.562992125984252</v>
+      </c>
+      <c r="M23">
+        <v>30.5748031496063</v>
+      </c>
+      <c r="N23">
+        <v>6.5984251968503935</v>
+      </c>
+      <c r="P23" t="s">
         <v>40</v>
       </c>
-      <c r="C18">
-        <v>18.228346456692915</v>
-      </c>
-      <c r="D18">
-        <v>13.153543307086615</v>
-      </c>
-      <c r="E18">
-        <v>14.464566929133857</v>
-      </c>
-      <c r="F18">
-        <v>13.799212598425196</v>
-      </c>
-      <c r="G18">
-        <v>6.7913385826771657</v>
-      </c>
-      <c r="H18">
-        <v>6.3346456692913389</v>
-      </c>
-      <c r="I18">
-        <v>4.1929133858267713</v>
-      </c>
-      <c r="J18">
-        <v>4.9133858267716537</v>
-      </c>
-      <c r="K18">
-        <v>92.086614173228341</v>
-      </c>
-      <c r="L18">
-        <v>63.562992125984252</v>
-      </c>
-      <c r="M18">
-        <v>30.5748031496063</v>
-      </c>
-      <c r="N18">
-        <v>6.5984251968503935</v>
-      </c>
-      <c r="P18" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q18" s="8">
-        <f t="shared" ref="Q18:AB18" si="15">AVERAGE(Q2:Q10)</f>
+      <c r="Q23" s="7">
+        <f t="shared" ref="Q23:AB23" si="15">AVERAGE(Q2:Q10)</f>
         <v>-0.22620452743914118</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R23" s="7">
         <f t="shared" si="15"/>
         <v>-1.0253050006382742</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S23" s="7">
         <f t="shared" si="15"/>
         <v>0.24008784836341335</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T23" s="7">
         <f t="shared" si="15"/>
         <v>0.28397115522181821</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U23" s="7">
         <f t="shared" si="15"/>
         <v>-0.27661433121547296</v>
       </c>
-      <c r="V18" s="8">
+      <c r="V23" s="7">
         <f t="shared" si="15"/>
         <v>0.31756839199434572</v>
       </c>
-      <c r="W18" s="8">
+      <c r="W23" s="7">
         <f t="shared" si="15"/>
         <v>1.8082486768490755E-2</v>
       </c>
-      <c r="X18" s="8">
+      <c r="X23" s="7">
         <f t="shared" si="15"/>
         <v>-0.24923122731792979</v>
       </c>
-      <c r="Y18" s="8">
+      <c r="Y23" s="7">
         <f t="shared" si="15"/>
         <v>-0.34844365690671342</v>
       </c>
-      <c r="Z18" s="8">
+      <c r="Z23" s="7">
         <f t="shared" si="15"/>
         <v>-0.72263439596232515</v>
       </c>
-      <c r="AA18" s="8">
+      <c r="AA23" s="7">
         <f t="shared" si="15"/>
         <v>-0.70801431791437919</v>
       </c>
-      <c r="AB18" s="8">
+      <c r="AB23" s="7">
         <f t="shared" si="15"/>
         <v>0.26844457242681602</v>
       </c>
-      <c r="AC18" s="3"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19">
+      <c r="AC23" s="3"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
         <v>10.583146402125475</v>
       </c>
-      <c r="D19">
+      <c r="D24">
         <v>2.2272227082598239</v>
       </c>
-      <c r="E19">
+      <c r="E24">
         <v>7.3509379634263734</v>
       </c>
-      <c r="F19">
+      <c r="F24">
         <v>4.0950948400604421</v>
       </c>
-      <c r="G19">
+      <c r="G24">
         <v>1.4689688040796682</v>
       </c>
-      <c r="H19">
+      <c r="H24">
         <v>1.9766973674918358</v>
       </c>
-      <c r="I19">
+      <c r="I24">
         <v>1.0050214716493548</v>
       </c>
-      <c r="J19">
+      <c r="J24">
         <v>0.93270503831274443</v>
       </c>
-      <c r="K19">
+      <c r="K24">
         <v>25.645045479796412</v>
       </c>
-      <c r="L19">
+      <c r="L24">
         <v>27.978852271153031</v>
       </c>
-      <c r="M19">
+      <c r="M24">
         <v>19.013005611216862</v>
       </c>
-      <c r="N19">
+      <c r="N24">
         <v>1.1745647079985209</v>
       </c>
-      <c r="P19" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="8">
-        <f t="shared" ref="Q19:AB19" si="16">STDEV(Q2:Q10)</f>
+      <c r="P24" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q24" s="7">
+        <f t="shared" ref="Q24:AB24" si="16">STDEV(Q2:Q10)</f>
         <v>1.2003043838131993</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R24" s="7">
         <f t="shared" si="16"/>
         <v>1.0992626817880162</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S24" s="7">
         <f t="shared" si="16"/>
         <v>0.90381484633496367</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T24" s="7">
         <f t="shared" si="16"/>
         <v>0.88713276090705528</v>
       </c>
-      <c r="U19" s="8">
+      <c r="U24" s="7">
         <f t="shared" si="16"/>
         <v>0.67237842126586322</v>
       </c>
-      <c r="V19" s="8">
+      <c r="V24" s="7">
         <f t="shared" si="16"/>
         <v>0.75646235967744979</v>
       </c>
-      <c r="W19" s="8">
+      <c r="W24" s="7">
         <f t="shared" si="16"/>
         <v>0.47873821681804868</v>
       </c>
-      <c r="X19" s="8">
+      <c r="X24" s="7">
         <f t="shared" si="16"/>
         <v>0.92797317455212613</v>
       </c>
-      <c r="Y19" s="8">
+      <c r="Y24" s="7">
         <f t="shared" si="16"/>
         <v>0.74176301223441599</v>
       </c>
-      <c r="Z19" s="8">
+      <c r="Z24" s="7">
         <f t="shared" si="16"/>
         <v>0.84603610280242603</v>
       </c>
-      <c r="AA19" s="8">
+      <c r="AA24" s="7">
         <f t="shared" si="16"/>
         <v>0.24316829747659627</v>
       </c>
-      <c r="AB19" s="8">
+      <c r="AB24" s="7">
         <f t="shared" si="16"/>
         <v>0.80232406610780849</v>
       </c>
-      <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20">
+      <c r="AC24" s="3"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25">
         <v>17.386363636363637</v>
       </c>
-      <c r="D20">
+      <c r="D25">
         <v>13.670454545454545</v>
       </c>
-      <c r="E20">
+      <c r="E25">
         <v>14.443181818181818</v>
       </c>
-      <c r="F20">
+      <c r="F25">
         <v>13.863636363636363</v>
       </c>
-      <c r="G20">
+      <c r="G25">
         <v>6.75</v>
       </c>
-      <c r="H20">
+      <c r="H25">
         <v>6.3068181818181817</v>
       </c>
-      <c r="I20">
+      <c r="I25">
         <v>4.3295454545454541</v>
       </c>
-      <c r="J20">
+      <c r="J25">
         <v>4.8977272727272725</v>
       </c>
-      <c r="K20">
+      <c r="K25">
         <v>99.443181818181813</v>
       </c>
-      <c r="L20">
+      <c r="L25">
         <v>61.329545454545453</v>
       </c>
-      <c r="M20">
+      <c r="M25">
         <v>34.295454545454547</v>
       </c>
-      <c r="N20">
+      <c r="N25">
         <v>6.5454545454545459</v>
       </c>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="3"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21">
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="3"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26">
         <v>11.898451380140152</v>
       </c>
-      <c r="D21">
+      <c r="D26">
         <v>2.5358196702859193</v>
       </c>
-      <c r="E21">
+      <c r="E26">
         <v>7.6831775552744146</v>
       </c>
-      <c r="F21">
+      <c r="F26">
         <v>5.124163667520393</v>
       </c>
-      <c r="G21">
+      <c r="G26">
         <v>1.6968530710782199</v>
       </c>
-      <c r="H21">
+      <c r="H26">
         <v>1.8026669549504204</v>
       </c>
-      <c r="I21">
+      <c r="I26">
         <v>1.0252175649009336</v>
       </c>
-      <c r="J21">
+      <c r="J26">
         <v>0.93513503514748786</v>
       </c>
-      <c r="K21">
+      <c r="K26">
         <v>23.874122938476813</v>
       </c>
-      <c r="L21">
+      <c r="L26">
         <v>29.212153662989213</v>
       </c>
-      <c r="M21">
+      <c r="M26">
         <v>20.69547070827312</v>
       </c>
-      <c r="N21">
+      <c r="N26">
         <v>1.3382875565875336</v>
       </c>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="3"/>
-    </row>
-    <row r="22" spans="1:29" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="16" t="s">
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="3"/>
+    </row>
+    <row r="27" spans="1:29" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="S27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="T27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="U27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="V27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="X27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Y27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="Z27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AA22" s="1" t="s">
+      <c r="AA27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AB22" s="1" t="s">
+      <c r="AB27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
         <v>11</v>
       </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23">
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
         <v>14</v>
       </c>
-      <c r="G23">
+      <c r="G28">
         <v>7</v>
       </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
-      <c r="I23">
-        <v>4</v>
-      </c>
-      <c r="J23">
-        <v>4</v>
-      </c>
-      <c r="K23">
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
         <v>64</v>
       </c>
-      <c r="L23">
+      <c r="L28">
         <v>8</v>
       </c>
-      <c r="M23">
+      <c r="M28">
         <v>17</v>
       </c>
-      <c r="N23">
-        <v>5</v>
-      </c>
-      <c r="Q23">
-        <f>STANDARDIZE(C23,$C$20,$C$21)</f>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="Q28">
+        <f>STANDARDIZE(C28,$C$25,$C$26)</f>
         <v>-0.95696181566693228</v>
       </c>
-      <c r="R23">
-        <f>STANDARDIZE(D23,$D$20,$D$21)</f>
+      <c r="R28">
+        <f>STANDARDIZE(D28,$D$25,$D$26)</f>
         <v>-1.0530932371675488</v>
       </c>
-      <c r="S23">
-        <f>STANDARDIZE(E23,$E$20,$E$21)</f>
+      <c r="S28">
+        <f>STANDARDIZE(E28,$E$25,$E$26)</f>
         <v>-1.2290724443429244</v>
       </c>
-      <c r="T23">
-        <f>STANDARDIZE(F23,$F$20,$F$21)</f>
+      <c r="T28">
+        <f>STANDARDIZE(F28,$F$25,$F$26)</f>
         <v>2.6611881511119588E-2</v>
       </c>
-      <c r="U23">
-        <f>STANDARDIZE(G23,$G$20,$G$21)</f>
+      <c r="U28">
+        <f>STANDARDIZE(G28,$G$25,$G$26)</f>
         <v>0.14733155407565382</v>
       </c>
-      <c r="V23">
-        <f>STANDARDIZE(H23,$H$20,$H$21)</f>
+      <c r="V28">
+        <f>STANDARDIZE(H28,$H$25,$H$26)</f>
         <v>-0.72493600563844784</v>
       </c>
-      <c r="W23">
-        <f>STANDARDIZE(I23,$I$20,$I$21)</f>
+      <c r="W28">
+        <f>STANDARDIZE(I28,$I$25,$I$26)</f>
         <v>-0.32143953227849542</v>
       </c>
-      <c r="X23">
-        <f>STANDARDIZE(J23,$J$20,$J$21)</f>
+      <c r="X28">
+        <f>STANDARDIZE(J28,$J$25,$J$26)</f>
         <v>-0.95999747521563505</v>
       </c>
-      <c r="Y23">
-        <f>STANDARDIZE(K23,$K$20,$K$21)</f>
+      <c r="Y28">
+        <f>STANDARDIZE(K28,$K$25,$K$26)</f>
         <v>-1.4845857127199293</v>
       </c>
-      <c r="Z23">
-        <f>STANDARDIZE(L23,$L$20,$L$21)</f>
+      <c r="Z28">
+        <f>STANDARDIZE(L28,$L$25,$L$26)</f>
         <v>-1.8255944450310126</v>
       </c>
-      <c r="AA23">
-        <f>STANDARDIZE(M23,$M$20,$M$21)</f>
+      <c r="AA28">
+        <f>STANDARDIZE(M28,$M$25,$M$26)</f>
         <v>-0.83571206421222399</v>
       </c>
-      <c r="AB23">
-        <f>STANDARDIZE(N23,$N$20,$N$21)</f>
+      <c r="AB28">
+        <f>STANDARDIZE(N28,$N$25,$N$26)</f>
         <v>-1.1548000561219161</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29">
         <v>1</v>
       </c>
-      <c r="D24">
+      <c r="D29">
         <v>16</v>
       </c>
-      <c r="E24">
+      <c r="E29">
         <v>19</v>
       </c>
-      <c r="F24">
+      <c r="F29">
         <v>15</v>
       </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <v>6</v>
-      </c>
-      <c r="I24">
-        <v>4</v>
-      </c>
-      <c r="J24">
-        <v>3</v>
-      </c>
-      <c r="K24">
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
         <v>64</v>
       </c>
-      <c r="L24">
+      <c r="L29">
         <v>16</v>
       </c>
-      <c r="M24">
+      <c r="M29">
         <v>16</v>
       </c>
-      <c r="N24">
+      <c r="N29">
         <v>7</v>
       </c>
-      <c r="Q24">
-        <f>STANDARDIZE(C24,$C$20,$C$21)</f>
+      <c r="Q29">
+        <f>STANDARDIZE(C29,$C$25,$C$26)</f>
         <v>-1.3771845690536091</v>
       </c>
-      <c r="R24">
-        <f>STANDARDIZE(D24,$D$20,$D$21)</f>
+      <c r="R29">
+        <f>STANDARDIZE(D29,$D$25,$D$26)</f>
         <v>0.9186558026355216</v>
       </c>
-      <c r="S24">
-        <f>STANDARDIZE(E24,$E$20,$E$21)</f>
+      <c r="S29">
+        <f>STANDARDIZE(E29,$E$25,$E$26)</f>
         <v>0.59309031309447968</v>
       </c>
-      <c r="T24">
-        <f>STANDARDIZE(F24,$F$20,$F$21)</f>
+      <c r="T29">
+        <f>STANDARDIZE(F29,$F$25,$F$26)</f>
         <v>0.22176567925932944</v>
       </c>
-      <c r="U24">
-        <f>STANDARDIZE(G24,$G$20,$G$21)</f>
+      <c r="U29">
+        <f>STANDARDIZE(G29,$G$25,$G$26)</f>
         <v>-2.209973311134807</v>
       </c>
-      <c r="V24">
-        <f>STANDARDIZE(H24,$H$20,$H$21)</f>
+      <c r="V29">
+        <f>STANDARDIZE(H29,$H$25,$H$26)</f>
         <v>-0.17020236654120074</v>
       </c>
-      <c r="W24">
-        <f>STANDARDIZE(I24,$I$20,$I$21)</f>
+      <c r="W29">
+        <f>STANDARDIZE(I29,$I$25,$I$26)</f>
         <v>-0.32143953227849542</v>
       </c>
-      <c r="X24">
-        <f>STANDARDIZE(J24,$J$20,$J$21)</f>
+      <c r="X29">
+        <f>STANDARDIZE(J29,$J$25,$J$26)</f>
         <v>-2.0293617514052036</v>
       </c>
-      <c r="Y24">
-        <f>STANDARDIZE(K24,$K$20,$K$21)</f>
+      <c r="Y29">
+        <f>STANDARDIZE(K29,$K$25,$K$26)</f>
         <v>-1.4845857127199293</v>
       </c>
-      <c r="Z24">
-        <f>STANDARDIZE(L24,$L$20,$L$21)</f>
+      <c r="Z29">
+        <f>STANDARDIZE(L29,$L$25,$L$26)</f>
         <v>-1.5517358280904985</v>
       </c>
-      <c r="AA24">
-        <f>STANDARDIZE(M24,$M$20,$M$21)</f>
+      <c r="AA29">
+        <f>STANDARDIZE(M29,$M$25,$M$26)</f>
         <v>-0.88403181562528288</v>
       </c>
-      <c r="AB24">
-        <f>STANDARDIZE(N24,$N$20,$N$21)</f>
+      <c r="AB29">
+        <f>STANDARDIZE(N29,$N$25,$N$26)</f>
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
         <v>19</v>
       </c>
-      <c r="C25">
+      <c r="C30">
         <v>0</v>
       </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
         <v>7</v>
       </c>
-      <c r="F25">
-        <v>6</v>
-      </c>
-      <c r="G25">
-        <v>5</v>
-      </c>
-      <c r="H25">
-        <v>5</v>
-      </c>
-      <c r="I25">
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
         <v>2</v>
       </c>
-      <c r="J25">
-        <v>4</v>
-      </c>
-      <c r="K25">
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30">
         <v>81</v>
       </c>
-      <c r="L25">
+      <c r="L30">
         <v>52</v>
       </c>
-      <c r="M25">
+      <c r="M30">
         <v>0</v>
       </c>
-      <c r="N25">
+      <c r="N30">
         <v>7</v>
       </c>
-      <c r="Q25">
-        <f>STANDARDIZE(C25,C18,C19)</f>
+      <c r="Q30">
+        <f>STANDARDIZE(C30,C23,C24)</f>
         <v>-1.7223938670102881</v>
       </c>
-      <c r="R25">
-        <f t="shared" ref="R25:AB25" si="17">STANDARDIZE(D25,D18,D19)</f>
+      <c r="R30">
+        <f t="shared" ref="R30:AB30" si="17">STANDARDIZE(D30,D23,D24)</f>
         <v>-3.6608567597881354</v>
       </c>
-      <c r="S25">
+      <c r="S30">
         <f t="shared" si="17"/>
         <v>-1.0154577505990161</v>
       </c>
-      <c r="T25">
+      <c r="T30">
         <f t="shared" si="17"/>
         <v>-1.9045255123590941</v>
       </c>
-      <c r="U25">
+      <c r="U30">
         <f t="shared" si="17"/>
         <v>-1.2194531141180136</v>
       </c>
-      <c r="V25">
+      <c r="V30">
         <f t="shared" si="17"/>
         <v>-0.67518968317584471</v>
       </c>
-      <c r="W25">
+      <c r="W30">
         <f t="shared" si="17"/>
         <v>-2.1819567518572018</v>
       </c>
-      <c r="X25">
+      <c r="X30">
         <f t="shared" si="17"/>
         <v>-0.97928690127369844</v>
       </c>
-      <c r="Y25">
+      <c r="Y30">
         <f t="shared" si="17"/>
         <v>-0.432310177884557</v>
       </c>
-      <c r="Z25">
+      <c r="Z30">
         <f t="shared" si="17"/>
         <v>-0.41327614206341179</v>
       </c>
-      <c r="AA25">
+      <c r="AA30">
         <f t="shared" si="17"/>
         <v>-1.6080994123079873</v>
       </c>
-      <c r="AB25">
+      <c r="AB30">
         <f t="shared" si="17"/>
         <v>0.34189244782766975</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>8</v>
       </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26">
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
         <v>-1</v>
       </c>
-      <c r="D26">
+      <c r="D31">
         <v>10</v>
       </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-      <c r="H26">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
         <v>2</v>
       </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <v>5</v>
-      </c>
-      <c r="K26">
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
         <v>72</v>
       </c>
-      <c r="L26">
+      <c r="L31">
         <v>26</v>
       </c>
-      <c r="M26">
+      <c r="M31">
         <v>9</v>
       </c>
-      <c r="N26">
-        <v>6</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" ref="Q26:Q34" si="18">STANDARDIZE(C26,$C$20,$C$21)</f>
+      <c r="N31">
+        <v>6</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ref="Q31:Q39" si="18">STANDARDIZE(C31,$C$25,$C$26)</f>
         <v>-1.5452736704082799</v>
       </c>
-      <c r="R26">
-        <f t="shared" ref="R26:R34" si="19">STANDARDIZE(D26,$D$20,$D$21)</f>
+      <c r="R31">
+        <f t="shared" ref="R31:R39" si="19">STANDARDIZE(D31,$D$25,$D$26)</f>
         <v>-1.4474430451281628</v>
       </c>
-      <c r="S26">
-        <f t="shared" ref="S26:S34" si="20">STANDARDIZE(E26,$E$20,$E$21)</f>
+      <c r="S31">
+        <f t="shared" ref="S31:S39" si="20">STANDARDIZE(E31,$E$25,$E$26)</f>
         <v>-1.4893814096911249</v>
       </c>
-      <c r="T26">
-        <f t="shared" ref="T26:T34" si="21">STANDARDIZE(F26,$F$20,$F$21)</f>
+      <c r="T31">
+        <f t="shared" ref="T31:T39" si="21">STANDARDIZE(F31,$F$25,$F$26)</f>
         <v>-2.1200798937191889</v>
       </c>
-      <c r="U26">
-        <f t="shared" ref="U26:U34" si="22">STANDARDIZE(G26,$G$20,$G$21)</f>
+      <c r="U31">
+        <f t="shared" ref="U31:U39" si="22">STANDARDIZE(G31,$G$25,$G$26)</f>
         <v>-1.6206470948321918</v>
       </c>
-      <c r="V26">
-        <f t="shared" ref="V26:V34" si="23">STANDARDIZE(H26,$H$20,$H$21)</f>
+      <c r="V31">
+        <f t="shared" ref="V31:V39" si="23">STANDARDIZE(H31,$H$25,$H$26)</f>
         <v>-2.3891369229301893</v>
       </c>
-      <c r="W26">
-        <f t="shared" ref="W26:W34" si="24">STANDARDIZE(I26,$I$20,$I$21)</f>
+      <c r="W31">
+        <f t="shared" ref="W31:W39" si="24">STANDARDIZE(I31,$I$25,$I$26)</f>
         <v>-1.2968422509166897</v>
       </c>
-      <c r="X26">
-        <f t="shared" ref="X26:X34" si="25">STANDARDIZE(J26,$J$20,$J$21)</f>
+      <c r="X31">
+        <f t="shared" ref="X31:X39" si="25">STANDARDIZE(J31,$J$25,$J$26)</f>
         <v>0.10936680097393339</v>
       </c>
-      <c r="Y26">
-        <f t="shared" ref="Y26:Y34" si="26">STANDARDIZE(K26,$K$20,$K$21)</f>
+      <c r="Y31">
+        <f t="shared" ref="Y31:Y39" si="26">STANDARDIZE(K31,$K$25,$K$26)</f>
         <v>-1.1494948689383229</v>
       </c>
-      <c r="Z26">
-        <f t="shared" ref="Z26:Z34" si="27">STANDARDIZE(L26,$L$20,$L$21)</f>
+      <c r="Z31">
+        <f t="shared" ref="Z31:Z39" si="27">STANDARDIZE(L31,$L$25,$L$26)</f>
         <v>-1.2094125569148557</v>
       </c>
-      <c r="AA26">
-        <f t="shared" ref="AA26:AA34" si="28">STANDARDIZE(M26,$M$20,$M$21)</f>
+      <c r="AA31">
+        <f t="shared" ref="AA31:AA39" si="28">STANDARDIZE(M31,$M$25,$M$26)</f>
         <v>-1.2222700755166955</v>
       </c>
-      <c r="AB26">
-        <f t="shared" ref="AB26:AB34" si="29">STANDARDIZE(N26,$N$20,$N$21)</f>
+      <c r="AB31">
+        <f t="shared" ref="AB31:AB39" si="29">STANDARDIZE(N31,$N$25,$N$26)</f>
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>9</v>
       </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27">
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
         <v>14</v>
       </c>
-      <c r="E27">
+      <c r="E32">
         <v>19</v>
       </c>
-      <c r="F27">
+      <c r="F32">
         <v>11</v>
       </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-      <c r="H27">
-        <v>6</v>
-      </c>
-      <c r="I27">
-        <v>4</v>
-      </c>
-      <c r="J27">
-        <v>4</v>
-      </c>
-      <c r="K27">
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
         <v>90</v>
       </c>
-      <c r="L27">
+      <c r="L32">
         <v>36</v>
       </c>
-      <c r="M27">
+      <c r="M32">
         <v>16</v>
       </c>
-      <c r="N27">
-        <v>6</v>
-      </c>
-      <c r="Q27">
+      <c r="N32">
+        <v>6</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="18"/>
         <v>-1.125050917021603</v>
       </c>
-      <c r="R27">
+      <c r="R32">
         <f t="shared" si="19"/>
         <v>0.12995618671429346</v>
       </c>
-      <c r="S27">
+      <c r="S32">
         <f t="shared" si="20"/>
         <v>0.59309031309447968</v>
       </c>
-      <c r="T27">
+      <c r="T32">
         <f t="shared" si="21"/>
         <v>-0.55884951173350994</v>
       </c>
-      <c r="U27">
+      <c r="U32">
         <f t="shared" si="22"/>
         <v>-1.0313208785295767</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="23"/>
-        <v>-0.17020236654120074</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="24"/>
-        <v>-0.32143953227849542</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="25"/>
-        <v>-0.95999747521563505</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="26"/>
-        <v>-0.39554047042970852</v>
-      </c>
-      <c r="Z27">
-        <f t="shared" si="27"/>
-        <v>-0.86708928573921307</v>
-      </c>
-      <c r="AA27">
-        <f t="shared" si="28"/>
-        <v>-0.88403181562528288</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" si="29"/>
-        <v>-0.4075764903959706</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28">
-        <v>-6</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>8</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>5</v>
-      </c>
-      <c r="H28">
-        <v>5</v>
-      </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
-      <c r="J28">
-        <v>4</v>
-      </c>
-      <c r="K28">
-        <v>33</v>
-      </c>
-      <c r="L28">
-        <v>4</v>
-      </c>
-      <c r="M28">
-        <v>-2</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="18"/>
-        <v>-1.9654964237949568</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="19"/>
-        <v>-3.8135418928918474</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="20"/>
-        <v>-0.83860899632062347</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="21"/>
-        <v>-2.3152336914673985</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="22"/>
-        <v>-1.0313208785295767</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="23"/>
-        <v>-0.72493600563844784</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="24"/>
-        <v>-1.2968422509166897</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="25"/>
-        <v>-0.95999747521563505</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="26"/>
-        <v>-2.7830627323736543</v>
-      </c>
-      <c r="Z28">
-        <f t="shared" si="27"/>
-        <v>-1.9625237535012696</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="28"/>
-        <v>-1.753787341060344</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" si="29"/>
-        <v>-4.8909178847516435</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29">
-        <v>-2</v>
-      </c>
-      <c r="D29">
-        <v>11</v>
-      </c>
-      <c r="E29">
-        <v>19</v>
-      </c>
-      <c r="F29">
-        <v>10</v>
-      </c>
-      <c r="G29">
-        <v>5</v>
-      </c>
-      <c r="H29">
-        <v>6</v>
-      </c>
-      <c r="I29">
-        <v>4</v>
-      </c>
-      <c r="J29">
-        <v>5</v>
-      </c>
-      <c r="K29">
-        <v>72</v>
-      </c>
-      <c r="L29">
-        <v>37</v>
-      </c>
-      <c r="M29">
-        <v>2</v>
-      </c>
-      <c r="N29">
-        <v>6</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="18"/>
-        <v>-1.6293182210856154</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="19"/>
-        <v>-1.0530932371675488</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="20"/>
-        <v>0.59309031309447968</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="21"/>
-        <v>-0.75400330948171979</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="22"/>
-        <v>-1.0313208785295767</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="23"/>
-        <v>-0.17020236654120074</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="24"/>
-        <v>-0.32143953227849542</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="25"/>
-        <v>0.10936680097393339</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="26"/>
-        <v>-1.1494948689383229</v>
-      </c>
-      <c r="Z29">
-        <f t="shared" si="27"/>
-        <v>-0.83285695862164877</v>
-      </c>
-      <c r="AA29">
-        <f t="shared" si="28"/>
-        <v>-1.5605083354081082</v>
-      </c>
-      <c r="AB29">
-        <f t="shared" si="29"/>
-        <v>-0.4075764903959706</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>14</v>
-      </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>12</v>
-      </c>
-      <c r="E30">
-        <v>14</v>
-      </c>
-      <c r="F30">
-        <v>14</v>
-      </c>
-      <c r="G30">
-        <v>7</v>
-      </c>
-      <c r="H30">
-        <v>6</v>
-      </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30">
-        <v>4</v>
-      </c>
-      <c r="K30">
-        <v>72</v>
-      </c>
-      <c r="L30">
-        <v>24</v>
-      </c>
-      <c r="M30">
-        <v>12</v>
-      </c>
-      <c r="N30">
-        <v>5</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="18"/>
-        <v>-1.3771845690536091</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="19"/>
-        <v>-0.65874342920693474</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="20"/>
-        <v>-5.768210027602174E-2</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="21"/>
-        <v>2.6611881511119588E-2</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="22"/>
-        <v>0.14733155407565382</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="23"/>
-        <v>-0.17020236654120074</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="24"/>
-        <v>-1.2968422509166897</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="25"/>
-        <v>-0.95999747521563505</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="26"/>
-        <v>-1.1494948689383229</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" si="27"/>
-        <v>-1.2778772111499843</v>
-      </c>
-      <c r="AA30">
-        <f t="shared" si="28"/>
-        <v>-1.0773108212775186</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" si="29"/>
-        <v>-1.1548000561219161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>17</v>
-      </c>
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>9</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-      <c r="F31">
-        <v>9</v>
-      </c>
-      <c r="G31">
-        <v>4</v>
-      </c>
-      <c r="H31">
-        <v>4</v>
-      </c>
-      <c r="I31">
-        <v>3</v>
-      </c>
-      <c r="J31">
-        <v>3</v>
-      </c>
-      <c r="K31">
-        <v>42</v>
-      </c>
-      <c r="L31">
-        <v>8</v>
-      </c>
-      <c r="M31">
-        <v>11</v>
-      </c>
-      <c r="N31">
-        <v>6</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="18"/>
-        <v>-1.0410063663442677</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="19"/>
-        <v>-1.841792853088777</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="20"/>
-        <v>-1.2290724443429244</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="21"/>
-        <v>-0.94915710722992963</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="22"/>
-        <v>-1.6206470948321918</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="23"/>
-        <v>-1.279669644735695</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="24"/>
-        <v>-1.2968422509166897</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="25"/>
-        <v>-2.0293617514052036</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="26"/>
-        <v>-2.4060855331193469</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" si="27"/>
-        <v>-1.8255944450310126</v>
-      </c>
-      <c r="AA31">
-        <f t="shared" si="28"/>
-        <v>-1.1256305726905775</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" si="29"/>
-        <v>-0.4075764903959706</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>22</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32">
-        <v>25</v>
-      </c>
-      <c r="D32">
-        <v>9</v>
-      </c>
-      <c r="E32">
-        <v>10</v>
-      </c>
-      <c r="F32">
-        <v>8</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="H32">
-        <v>6</v>
-      </c>
-      <c r="I32">
-        <v>4</v>
-      </c>
-      <c r="J32">
-        <v>4</v>
-      </c>
-      <c r="K32">
-        <v>90</v>
-      </c>
-      <c r="L32">
-        <v>16</v>
-      </c>
-      <c r="M32">
-        <v>19</v>
-      </c>
-      <c r="N32">
-        <v>6</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="18"/>
-        <v>0.63988464720243976</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="19"/>
-        <v>-1.841792853088777</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="20"/>
-        <v>-0.57830003097242288</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="21"/>
-        <v>-1.1443109049781395</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="22"/>
-        <v>-1.6206470948321918</v>
       </c>
       <c r="V32">
         <f t="shared" si="23"/>
@@ -6445,11 +6741,11 @@
       </c>
       <c r="Z32">
         <f t="shared" si="27"/>
-        <v>-1.5517358280904985</v>
+        <v>-0.86708928573921307</v>
       </c>
       <c r="AA32">
         <f t="shared" si="28"/>
-        <v>-0.73907256138610611</v>
+        <v>-0.88403181562528288</v>
       </c>
       <c r="AB32">
         <f t="shared" si="29"/>
@@ -6458,74 +6754,74 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>-6</v>
       </c>
       <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
         <v>8</v>
       </c>
-      <c r="E33">
-        <v>10</v>
-      </c>
       <c r="F33">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33">
         <v>4</v>
       </c>
       <c r="K33">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="L33">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>-2</v>
       </c>
       <c r="N33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <f t="shared" si="18"/>
-        <v>5.1572792461092136E-2</v>
+        <v>-1.9654964237949568</v>
       </c>
       <c r="R33">
         <f t="shared" si="19"/>
-        <v>-2.2361426610493909</v>
+        <v>-3.8135418928918474</v>
       </c>
       <c r="S33">
         <f t="shared" si="20"/>
-        <v>-0.57830003097242288</v>
+        <v>-0.83860899632062347</v>
       </c>
       <c r="T33">
         <f t="shared" si="21"/>
-        <v>-0.16854191623709025</v>
+        <v>-2.3152336914673985</v>
       </c>
       <c r="U33">
         <f t="shared" si="22"/>
-        <v>-1.6206470948321918</v>
+        <v>-1.0313208785295767</v>
       </c>
       <c r="V33">
         <f t="shared" si="23"/>
-        <v>-0.17020236654120074</v>
+        <v>-0.72493600563844784</v>
       </c>
       <c r="W33">
         <f t="shared" si="24"/>
-        <v>-2.2722449695548841</v>
+        <v>-1.2968422509166897</v>
       </c>
       <c r="X33">
         <f t="shared" si="25"/>
@@ -6533,48 +6829,48 @@
       </c>
       <c r="Y33">
         <f t="shared" si="26"/>
-        <v>-1.4845857127199293</v>
+        <v>-2.7830627323736543</v>
       </c>
       <c r="Z33">
         <f t="shared" si="27"/>
-        <v>0.57066845319848625</v>
+        <v>-1.9625237535012696</v>
       </c>
       <c r="AA33">
         <f t="shared" si="28"/>
-        <v>-0.15923554442939883</v>
+        <v>-1.753787341060344</v>
       </c>
       <c r="AB33">
         <f t="shared" si="29"/>
-        <v>-3.3964707532997527</v>
+        <v>-4.8909178847516435</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="D34">
         <v>11</v>
       </c>
       <c r="E34">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F34">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G34">
         <v>5</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J34">
         <v>5</v>
@@ -6583,17 +6879,17 @@
         <v>72</v>
       </c>
       <c r="L34">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q34">
         <f t="shared" si="18"/>
-        <v>0.63988464720243976</v>
+        <v>-1.6293182210856154</v>
       </c>
       <c r="R34">
         <f t="shared" si="19"/>
@@ -6601,11 +6897,11 @@
       </c>
       <c r="S34">
         <f t="shared" si="20"/>
-        <v>-0.3179910656242223</v>
+        <v>0.59309031309447968</v>
       </c>
       <c r="T34">
         <f t="shared" si="21"/>
-        <v>0.61207327475574913</v>
+        <v>-0.75400330948171979</v>
       </c>
       <c r="U34">
         <f t="shared" si="22"/>
@@ -6613,11 +6909,11 @@
       </c>
       <c r="V34">
         <f t="shared" si="23"/>
-        <v>-1.279669644735695</v>
+        <v>-0.17020236654120074</v>
       </c>
       <c r="W34">
         <f t="shared" si="24"/>
-        <v>-1.2968422509166897</v>
+        <v>-0.32143953227849542</v>
       </c>
       <c r="X34">
         <f t="shared" si="25"/>
@@ -6629,2236 +6925,2963 @@
       </c>
       <c r="Z34">
         <f t="shared" si="27"/>
-        <v>1.2553149955497716</v>
+        <v>-0.83285695862164877</v>
       </c>
       <c r="AA34">
         <f t="shared" si="28"/>
-        <v>-0.44915405290775245</v>
+        <v>-1.5605083354081082</v>
       </c>
       <c r="AB34">
         <f t="shared" si="29"/>
-        <v>1.0868706410559206</v>
+        <v>-0.4075764903959706</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>14</v>
+      </c>
+      <c r="F35">
+        <v>14</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>72</v>
+      </c>
+      <c r="L35">
+        <v>24</v>
+      </c>
+      <c r="M35">
+        <v>12</v>
+      </c>
+      <c r="N35">
+        <v>5</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="18"/>
+        <v>-1.3771845690536091</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="19"/>
+        <v>-0.65874342920693474</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="20"/>
+        <v>-5.768210027602174E-2</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="21"/>
+        <v>2.6611881511119588E-2</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="22"/>
+        <v>0.14733155407565382</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="23"/>
+        <v>-0.17020236654120074</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="24"/>
+        <v>-1.2968422509166897</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="25"/>
+        <v>-0.95999747521563505</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="26"/>
+        <v>-1.1494948689383229</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="27"/>
+        <v>-1.2778772111499843</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="28"/>
+        <v>-1.0773108212775186</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="29"/>
+        <v>-1.1548000561219161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>42</v>
+      </c>
+      <c r="L36">
+        <v>8</v>
+      </c>
+      <c r="M36">
+        <v>11</v>
+      </c>
+      <c r="N36">
+        <v>6</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="18"/>
+        <v>-1.0410063663442677</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="19"/>
+        <v>-1.841792853088777</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="20"/>
+        <v>-1.2290724443429244</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="21"/>
+        <v>-0.94915710722992963</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="22"/>
+        <v>-1.6206470948321918</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="23"/>
+        <v>-1.279669644735695</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="24"/>
+        <v>-1.2968422509166897</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="25"/>
+        <v>-2.0293617514052036</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="26"/>
+        <v>-2.4060855331193469</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="27"/>
+        <v>-1.8255944450310126</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="28"/>
+        <v>-1.1256305726905775</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="29"/>
+        <v>-0.4075764903959706</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>90</v>
+      </c>
+      <c r="L37">
+        <v>16</v>
+      </c>
+      <c r="M37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>6</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="18"/>
+        <v>0.63988464720243976</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="19"/>
+        <v>-1.841792853088777</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="20"/>
+        <v>-0.57830003097242288</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="21"/>
+        <v>-1.1443109049781395</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="22"/>
+        <v>-1.6206470948321918</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="23"/>
+        <v>-0.17020236654120074</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="24"/>
+        <v>-0.32143953227849542</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="25"/>
+        <v>-0.95999747521563505</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="26"/>
+        <v>-0.39554047042970852</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="27"/>
+        <v>-1.5517358280904985</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="28"/>
+        <v>-0.73907256138610611</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="29"/>
+        <v>-0.4075764903959706</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>13</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>64</v>
+      </c>
+      <c r="L38">
+        <v>78</v>
+      </c>
+      <c r="M38">
+        <v>31</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="18"/>
+        <v>5.1572792461092136E-2</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="19"/>
+        <v>-2.2361426610493909</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="20"/>
+        <v>-0.57830003097242288</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="21"/>
+        <v>-0.16854191623709025</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="22"/>
+        <v>-1.6206470948321918</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="23"/>
+        <v>-0.17020236654120074</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="24"/>
+        <v>-2.2722449695548841</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="25"/>
+        <v>-0.95999747521563505</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="26"/>
+        <v>-1.4845857127199293</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="27"/>
+        <v>0.57066845319848625</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="28"/>
+        <v>-0.15923554442939883</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="29"/>
+        <v>-3.3964707532997527</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>25</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>12</v>
+      </c>
+      <c r="F39">
+        <v>17</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>72</v>
+      </c>
+      <c r="L39">
+        <v>98</v>
+      </c>
+      <c r="M39">
+        <v>25</v>
+      </c>
+      <c r="N39">
+        <v>8</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="18"/>
+        <v>0.63988464720243976</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="19"/>
+        <v>-1.0530932371675488</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="20"/>
+        <v>-0.3179910656242223</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="21"/>
+        <v>0.61207327475574913</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="22"/>
+        <v>-1.0313208785295767</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="23"/>
+        <v>-1.279669644735695</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="24"/>
+        <v>-1.2968422509166897</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="25"/>
+        <v>0.10936680097393339</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="26"/>
+        <v>-1.1494948689383229</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="27"/>
+        <v>1.2553149955497716</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="28"/>
+        <v>-0.44915405290775245</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="29"/>
+        <v>1.0868706410559206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>26</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B40" t="s">
         <v>19</v>
       </c>
-      <c r="C35">
+      <c r="C40">
         <v>14</v>
       </c>
-      <c r="D35">
+      <c r="D40">
         <v>8</v>
       </c>
-      <c r="E35">
+      <c r="E40">
         <v>7</v>
       </c>
-      <c r="F35">
+      <c r="F40">
         <v>1</v>
       </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35">
-        <v>5</v>
-      </c>
-      <c r="I35">
-        <v>3</v>
-      </c>
-      <c r="J35">
-        <v>4</v>
-      </c>
-      <c r="K35">
+      <c r="G40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
         <v>32</v>
       </c>
-      <c r="L35">
+      <c r="L40">
         <v>-6</v>
       </c>
-      <c r="M35">
+      <c r="M40">
         <v>-5</v>
       </c>
-      <c r="N35">
-        <v>6</v>
-      </c>
-      <c r="Q35">
-        <f>STANDARDIZE(C35,C18,C19)</f>
+      <c r="N40">
+        <v>6</v>
+      </c>
+      <c r="Q40">
+        <f>STANDARDIZE(C40,C23,C24)</f>
         <v>-0.39953585597603669</v>
       </c>
-      <c r="R35">
-        <f t="shared" ref="R35:AB35" si="30">STANDARDIZE(D35,D18,D19)</f>
+      <c r="R40">
+        <f t="shared" ref="R40:AB40" si="30">STANDARDIZE(D40,D23,D24)</f>
         <v>-2.3138877346995024</v>
       </c>
-      <c r="S35">
+      <c r="S40">
         <f t="shared" si="30"/>
         <v>-1.0154577505990161</v>
       </c>
-      <c r="T35">
+      <c r="T40">
         <f t="shared" si="30"/>
         <v>-3.1254984556685588</v>
       </c>
-      <c r="U35">
+      <c r="U40">
         <f t="shared" si="30"/>
         <v>-2.5809524151552683</v>
       </c>
-      <c r="V35">
+      <c r="V40">
         <f t="shared" si="30"/>
         <v>-0.67518968317584471</v>
       </c>
-      <c r="W35">
+      <c r="W40">
         <f t="shared" si="30"/>
         <v>-1.1869531343137021</v>
       </c>
-      <c r="X35">
+      <c r="X40">
         <f t="shared" si="30"/>
         <v>-0.97928690127369844</v>
       </c>
-      <c r="Y35">
+      <c r="Y40">
         <f t="shared" si="30"/>
         <v>-2.343010630282</v>
       </c>
-      <c r="Z35">
+      <c r="Z40">
         <f t="shared" si="30"/>
         <v>-2.4862703963630994</v>
       </c>
-      <c r="AA35">
+      <c r="AA40">
         <f t="shared" si="30"/>
         <v>-1.8710772971433134</v>
       </c>
-      <c r="AB35">
+      <c r="AB40">
         <f t="shared" si="30"/>
         <v>-0.50948678499809574</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>27</v>
       </c>
-      <c r="B36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36">
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
         <v>-3</v>
       </c>
-      <c r="D36">
+      <c r="D41">
         <v>8</v>
       </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>5</v>
-      </c>
-      <c r="G36">
-        <v>4</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-      <c r="I36">
-        <v>3</v>
-      </c>
-      <c r="J36">
-        <v>3</v>
-      </c>
-      <c r="K36">
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41">
         <v>27</v>
       </c>
-      <c r="L36">
+      <c r="L41">
         <v>0</v>
       </c>
-      <c r="M36">
-        <v>3</v>
-      </c>
-      <c r="N36">
-        <v>4</v>
-      </c>
-      <c r="Q36">
-        <f>STANDARDIZE(C36,$C$20,$C$21)</f>
+      <c r="M41">
+        <v>3</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+      <c r="Q41">
+        <f>STANDARDIZE(C41,$C$25,$C$26)</f>
         <v>-1.7133627717629507</v>
       </c>
-      <c r="R36">
-        <f>STANDARDIZE(D36,$D$20,$D$21)</f>
+      <c r="R41">
+        <f>STANDARDIZE(D41,$D$25,$D$26)</f>
         <v>-2.2361426610493909</v>
       </c>
-      <c r="S36">
-        <f>STANDARDIZE(E36,$E$20,$E$21)</f>
+      <c r="S41">
+        <f>STANDARDIZE(E41,$E$25,$E$26)</f>
         <v>-1.4893814096911249</v>
       </c>
-      <c r="T36">
-        <f>STANDARDIZE(F36,$F$20,$F$21)</f>
+      <c r="T41">
+        <f>STANDARDIZE(F41,$F$25,$F$26)</f>
         <v>-1.729772298222769</v>
       </c>
-      <c r="U36">
-        <f>STANDARDIZE(G36,$G$20,$G$21)</f>
+      <c r="U41">
+        <f>STANDARDIZE(G41,$G$25,$G$26)</f>
         <v>-1.6206470948321918</v>
       </c>
-      <c r="V36">
-        <f>STANDARDIZE(H36,$H$20,$H$21)</f>
+      <c r="V41">
+        <f>STANDARDIZE(H41,$H$25,$H$26)</f>
         <v>-1.8344032838329423</v>
       </c>
-      <c r="W36">
-        <f>STANDARDIZE(I36,$I$20,$I$21)</f>
+      <c r="W41">
+        <f>STANDARDIZE(I41,$I$25,$I$26)</f>
         <v>-1.2968422509166897</v>
       </c>
-      <c r="X36">
-        <f>STANDARDIZE(J36,$J$20,$J$21)</f>
+      <c r="X41">
+        <f>STANDARDIZE(J41,$J$25,$J$26)</f>
         <v>-2.0293617514052036</v>
       </c>
-      <c r="Y36">
-        <f>STANDARDIZE(K36,$K$20,$K$21)</f>
+      <c r="Y41">
+        <f>STANDARDIZE(K41,$K$25,$K$26)</f>
         <v>-3.0343808652098589</v>
       </c>
-      <c r="Z36">
-        <f>STANDARDIZE(L36,$L$20,$L$21)</f>
+      <c r="Z41">
+        <f>STANDARDIZE(L41,$L$25,$L$26)</f>
         <v>-2.0994530619715266</v>
       </c>
-      <c r="AA36">
-        <f>STANDARDIZE(M36,$M$20,$M$21)</f>
+      <c r="AA41">
+        <f>STANDARDIZE(M41,$M$25,$M$26)</f>
         <v>-1.5121885839950491</v>
       </c>
-      <c r="AB36">
-        <f>STANDARDIZE(N36,$N$20,$N$21)</f>
+      <c r="AB41">
+        <f>STANDARDIZE(N41,$N$25,$N$26)</f>
         <v>-1.9020236218478617</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>29</v>
       </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37">
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42">
         <v>0</v>
       </c>
-      <c r="D37">
+      <c r="D42">
         <v>10</v>
       </c>
-      <c r="E37">
+      <c r="E42">
         <v>7</v>
       </c>
-      <c r="F37">
+      <c r="F42">
         <v>10</v>
       </c>
-      <c r="G37">
-        <v>5</v>
-      </c>
-      <c r="H37">
-        <v>6</v>
-      </c>
-      <c r="I37">
-        <v>3</v>
-      </c>
-      <c r="J37">
-        <v>5</v>
-      </c>
-      <c r="K37">
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42">
         <v>88</v>
       </c>
-      <c r="L37">
+      <c r="L42">
         <v>36</v>
       </c>
-      <c r="M37">
+      <c r="M42">
         <v>58</v>
       </c>
-      <c r="N37">
-        <v>6</v>
-      </c>
-      <c r="Q37">
-        <f>STANDARDIZE(C37,$C$20,$C$21)</f>
+      <c r="N42">
+        <v>6</v>
+      </c>
+      <c r="Q42">
+        <f>STANDARDIZE(C42,$C$25,$C$26)</f>
         <v>-1.4612291197309446</v>
       </c>
-      <c r="R37">
-        <f>STANDARDIZE(D37,$D$20,$D$21)</f>
+      <c r="R42">
+        <f>STANDARDIZE(D42,$D$25,$D$26)</f>
         <v>-1.4474430451281628</v>
       </c>
-      <c r="S37">
-        <f>STANDARDIZE(E37,$E$20,$E$21)</f>
+      <c r="S42">
+        <f>STANDARDIZE(E42,$E$25,$E$26)</f>
         <v>-0.9687634789947237</v>
       </c>
-      <c r="T37">
-        <f>STANDARDIZE(F37,$F$20,$F$21)</f>
+      <c r="T42">
+        <f>STANDARDIZE(F42,$F$25,$F$26)</f>
         <v>-0.75400330948171979</v>
       </c>
-      <c r="U37">
-        <f>STANDARDIZE(G37,$G$20,$G$21)</f>
+      <c r="U42">
+        <f>STANDARDIZE(G42,$G$25,$G$26)</f>
         <v>-1.0313208785295767</v>
       </c>
-      <c r="V37">
-        <f>STANDARDIZE(H37,$H$20,$H$21)</f>
+      <c r="V42">
+        <f>STANDARDIZE(H42,$H$25,$H$26)</f>
         <v>-0.17020236654120074</v>
       </c>
-      <c r="W37">
-        <f>STANDARDIZE(I37,$I$20,$I$21)</f>
+      <c r="W42">
+        <f>STANDARDIZE(I42,$I$25,$I$26)</f>
         <v>-1.2968422509166897</v>
       </c>
-      <c r="X37">
-        <f>STANDARDIZE(J37,$J$20,$J$21)</f>
+      <c r="X42">
+        <f>STANDARDIZE(J42,$J$25,$J$26)</f>
         <v>0.10936680097393339</v>
       </c>
-      <c r="Y37">
-        <f>STANDARDIZE(K37,$K$20,$K$21)</f>
+      <c r="Y42">
+        <f>STANDARDIZE(K42,$K$25,$K$26)</f>
         <v>-0.47931318137511009</v>
       </c>
-      <c r="Z37">
-        <f>STANDARDIZE(L37,$L$20,$L$21)</f>
+      <c r="Z42">
+        <f>STANDARDIZE(L42,$L$25,$L$26)</f>
         <v>-0.86708928573921307</v>
       </c>
-      <c r="AA37">
-        <f>STANDARDIZE(M37,$M$20,$M$21)</f>
+      <c r="AA42">
+        <f>STANDARDIZE(M42,$M$25,$M$26)</f>
         <v>1.1453977437231926</v>
       </c>
-      <c r="AB37">
-        <f>STANDARDIZE(N37,$N$20,$N$21)</f>
+      <c r="AB42">
+        <f>STANDARDIZE(N42,$N$25,$N$26)</f>
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>30</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B43" t="s">
         <v>19</v>
       </c>
-      <c r="C38">
+      <c r="C43">
         <v>2</v>
       </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38">
-        <v>6</v>
-      </c>
-      <c r="F38">
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43">
         <v>10</v>
       </c>
-      <c r="G38">
+      <c r="G43">
         <v>0</v>
       </c>
-      <c r="H38">
+      <c r="H43">
         <v>7</v>
       </c>
-      <c r="I38">
-        <v>3</v>
-      </c>
-      <c r="J38">
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
         <v>0</v>
       </c>
-      <c r="K38">
+      <c r="K43">
         <v>49</v>
       </c>
-      <c r="L38">
+      <c r="L43">
         <v>21</v>
       </c>
-      <c r="M38">
+      <c r="M43">
         <v>22</v>
       </c>
-      <c r="N38">
-        <v>5</v>
-      </c>
-      <c r="Q38">
-        <f>STANDARDIZE(C38,C18,C19)</f>
+      <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="Q43">
+        <f>STANDARDIZE(C43,C23,C24)</f>
         <v>-1.5334141511482522</v>
       </c>
-      <c r="R38">
-        <f t="shared" ref="R38:AB38" si="31">STANDARDIZE(D38,D18,D19)</f>
+      <c r="R43">
+        <f t="shared" ref="R43:AB43" si="31">STANDARDIZE(D43,D23,D24)</f>
         <v>-3.6608567597881354</v>
       </c>
-      <c r="S38">
+      <c r="S43">
         <f t="shared" si="31"/>
         <v>-1.1514948121244117</v>
       </c>
-      <c r="T38">
+      <c r="T43">
         <f t="shared" si="31"/>
         <v>-0.92774715771152239</v>
       </c>
-      <c r="U38">
+      <c r="U43">
         <f t="shared" si="31"/>
         <v>-4.6232013667111502</v>
       </c>
-      <c r="V38">
+      <c r="V43">
         <f t="shared" si="31"/>
         <v>0.33659898659798726</v>
       </c>
-      <c r="W38">
+      <c r="W43">
         <f t="shared" si="31"/>
         <v>-1.1869531343137021</v>
       </c>
-      <c r="X38">
+      <c r="X43">
         <f t="shared" si="31"/>
         <v>-5.2678881585757562</v>
       </c>
-      <c r="Y38">
+      <c r="Y43">
         <f t="shared" si="31"/>
         <v>-1.6801145549604379</v>
       </c>
-      <c r="Z38">
+      <c r="Z43">
         <f t="shared" si="31"/>
         <v>-1.5212558297063483</v>
       </c>
-      <c r="AA38">
+      <c r="AA43">
         <f t="shared" si="31"/>
         <v>-0.45099671903255173</v>
       </c>
-      <c r="AB38">
+      <c r="AB43">
         <f t="shared" si="31"/>
         <v>-1.3608660178238612</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>31</v>
       </c>
-      <c r="B39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39">
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44">
         <v>16</v>
       </c>
-      <c r="D39">
+      <c r="D44">
         <v>9</v>
       </c>
-      <c r="E39">
+      <c r="E44">
         <v>12</v>
       </c>
-      <c r="F39">
+      <c r="F44">
         <v>13</v>
       </c>
-      <c r="G39">
-        <v>6</v>
-      </c>
-      <c r="H39">
+      <c r="G44">
+        <v>6</v>
+      </c>
+      <c r="H44">
         <v>8</v>
       </c>
-      <c r="I39">
-        <v>4</v>
-      </c>
-      <c r="J39">
-        <v>5</v>
-      </c>
-      <c r="K39">
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+      <c r="K44">
         <v>72</v>
       </c>
-      <c r="L39">
+      <c r="L44">
         <v>15</v>
       </c>
-      <c r="M39">
+      <c r="M44">
         <v>23</v>
       </c>
-      <c r="N39">
-        <v>6</v>
-      </c>
-      <c r="Q39">
-        <f>STANDARDIZE(C39,$C$20,$C$21)</f>
+      <c r="N44">
+        <v>6</v>
+      </c>
+      <c r="Q44">
+        <f>STANDARDIZE(C44,$C$25,$C$26)</f>
         <v>-0.11651630889357861</v>
       </c>
-      <c r="R39">
-        <f>STANDARDIZE(D39,$D$20,$D$21)</f>
+      <c r="R44">
+        <f>STANDARDIZE(D44,$D$25,$D$26)</f>
         <v>-1.841792853088777</v>
       </c>
-      <c r="S39">
-        <f>STANDARDIZE(E39,$E$20,$E$21)</f>
+      <c r="S44">
+        <f>STANDARDIZE(E44,$E$25,$E$26)</f>
         <v>-0.3179910656242223</v>
       </c>
-      <c r="T39">
-        <f>STANDARDIZE(F39,$F$20,$F$21)</f>
+      <c r="T44">
+        <f>STANDARDIZE(F44,$F$25,$F$26)</f>
         <v>-0.16854191623709025</v>
       </c>
-      <c r="U39">
-        <f>STANDARDIZE(G39,$G$20,$G$21)</f>
+      <c r="U44">
+        <f>STANDARDIZE(G44,$G$25,$G$26)</f>
         <v>-0.44199466222696143</v>
       </c>
-      <c r="V39">
-        <f>STANDARDIZE(H39,$H$20,$H$21)</f>
+      <c r="V44">
+        <f>STANDARDIZE(H44,$H$25,$H$26)</f>
         <v>0.93926491165329351</v>
       </c>
-      <c r="W39">
-        <f>STANDARDIZE(I39,$I$20,$I$21)</f>
+      <c r="W44">
+        <f>STANDARDIZE(I44,$I$25,$I$26)</f>
         <v>-0.32143953227849542</v>
       </c>
-      <c r="X39">
-        <f>STANDARDIZE(J39,$J$20,$J$21)</f>
+      <c r="X44">
+        <f>STANDARDIZE(J44,$J$25,$J$26)</f>
         <v>0.10936680097393339</v>
       </c>
-      <c r="Y39">
-        <f>STANDARDIZE(K39,$K$20,$K$21)</f>
+      <c r="Y44">
+        <f>STANDARDIZE(K44,$K$25,$K$26)</f>
         <v>-1.1494948689383229</v>
       </c>
-      <c r="Z39">
-        <f>STANDARDIZE(L39,$L$20,$L$21)</f>
+      <c r="Z44">
+        <f>STANDARDIZE(L44,$L$25,$L$26)</f>
         <v>-1.5859681552080627</v>
       </c>
-      <c r="AA39">
-        <f>STANDARDIZE(M39,$M$20,$M$21)</f>
+      <c r="AA44">
+        <f>STANDARDIZE(M44,$M$25,$M$26)</f>
         <v>-0.54579355573387034</v>
       </c>
-      <c r="AB39">
-        <f>STANDARDIZE(N39,$N$20,$N$21)</f>
+      <c r="AB44">
+        <f>STANDARDIZE(N44,$N$25,$N$26)</f>
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>33</v>
       </c>
-      <c r="B40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="7">
-        <v>5</v>
-      </c>
-      <c r="D40" s="7">
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="16">
+        <v>5</v>
+      </c>
+      <c r="D45" s="16">
         <v>7</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E45" s="16">
         <v>14</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F45" s="16">
         <v>9</v>
       </c>
-      <c r="G40" s="7">
-        <v>4</v>
-      </c>
-      <c r="H40" s="7">
-        <v>6</v>
-      </c>
-      <c r="I40" s="7">
+      <c r="G45" s="16">
+        <v>4</v>
+      </c>
+      <c r="H45" s="16">
+        <v>6</v>
+      </c>
+      <c r="I45" s="16">
         <v>2</v>
       </c>
-      <c r="J40" s="7">
-        <v>3</v>
-      </c>
-      <c r="K40" s="7">
+      <c r="J45" s="16">
+        <v>3</v>
+      </c>
+      <c r="K45" s="16">
         <v>57</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L45" s="16">
         <v>23</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M45" s="16">
         <v>30</v>
       </c>
-      <c r="N40" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q40">
-        <f>STANDARDIZE(C40,$C$20,$C$21)</f>
+      <c r="N45" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q45">
+        <f>STANDARDIZE(C45,$C$25,$C$26)</f>
         <v>-1.0410063663442677</v>
       </c>
-      <c r="R40">
-        <f>STANDARDIZE(D40,$D$20,$D$21)</f>
+      <c r="R45">
+        <f>STANDARDIZE(D45,$D$25,$D$26)</f>
         <v>-2.6304924690100053</v>
       </c>
-      <c r="S40">
-        <f>STANDARDIZE(E40,$E$20,$E$21)</f>
+      <c r="S45">
+        <f>STANDARDIZE(E45,$E$25,$E$26)</f>
         <v>-5.768210027602174E-2</v>
       </c>
-      <c r="T40">
-        <f>STANDARDIZE(F40,$F$20,$F$21)</f>
+      <c r="T45">
+        <f>STANDARDIZE(F45,$F$25,$F$26)</f>
         <v>-0.94915710722992963</v>
       </c>
-      <c r="U40">
-        <f>STANDARDIZE(G40,$G$20,$G$21)</f>
+      <c r="U45">
+        <f>STANDARDIZE(G45,$G$25,$G$26)</f>
         <v>-1.6206470948321918</v>
       </c>
-      <c r="V40">
-        <f>STANDARDIZE(H40,$H$20,$H$21)</f>
+      <c r="V45">
+        <f>STANDARDIZE(H45,$H$25,$H$26)</f>
         <v>-0.17020236654120074</v>
       </c>
-      <c r="W40">
-        <f>STANDARDIZE(I40,$I$20,$I$21)</f>
+      <c r="W45">
+        <f>STANDARDIZE(I45,$I$25,$I$26)</f>
         <v>-2.2722449695548841</v>
       </c>
-      <c r="X40">
-        <f>STANDARDIZE(J40,$J$20,$J$21)</f>
+      <c r="X45">
+        <f>STANDARDIZE(J45,$J$25,$J$26)</f>
         <v>-2.0293617514052036</v>
       </c>
-      <c r="Y40">
-        <f>STANDARDIZE(K40,$K$20,$K$21)</f>
+      <c r="Y45">
+        <f>STANDARDIZE(K45,$K$25,$K$26)</f>
         <v>-1.7777902010288349</v>
       </c>
-      <c r="Z40">
-        <f>STANDARDIZE(L40,$L$20,$L$21)</f>
+      <c r="Z45">
+        <f>STANDARDIZE(L45,$L$25,$L$26)</f>
         <v>-1.3121095382675485</v>
       </c>
-      <c r="AA40">
-        <f>STANDARDIZE(M40,$M$20,$M$21)</f>
+      <c r="AA45">
+        <f>STANDARDIZE(M45,$M$25,$M$26)</f>
         <v>-0.20755529584245777</v>
       </c>
-      <c r="AB40">
-        <f>STANDARDIZE(N40,$N$20,$N$21)</f>
+      <c r="AB45">
+        <f>STANDARDIZE(N45,$N$25,$N$26)</f>
         <v>-1.9020236218478617</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C41" s="6">
-        <f>5/18</f>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="D41" s="6">
-        <f>14/18</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="E41" s="6">
-        <f>7/18</f>
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="F41" s="6">
-        <f>11/18</f>
-        <v>0.61111111111111116</v>
-      </c>
-      <c r="G41" s="6">
-        <f>13/18</f>
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="H41" s="6">
-        <f>12/18</f>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>13</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>14</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>56</v>
+      </c>
+      <c r="L46">
+        <v>24</v>
+      </c>
+      <c r="M46">
+        <v>15</v>
+      </c>
+      <c r="N46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>36</v>
+      </c>
+      <c r="L47">
+        <v>23</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="K48">
+        <v>72</v>
+      </c>
+      <c r="L48">
+        <v>37</v>
+      </c>
+      <c r="M48">
+        <v>19</v>
+      </c>
+      <c r="N48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C49" s="17">
+        <f>8/21</f>
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="D49" s="17">
+        <f>15/21</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E49" s="17">
+        <f>5/21</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="F49" s="17">
+        <f>14/21</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="I41" s="6">
-        <f>6/18</f>
+      <c r="G49" s="17">
+        <f>15/21</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H49" s="17">
+        <f>9/21</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="I49" s="17">
+        <f>7/21</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J41" s="6">
-        <f>8/18</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="K41" s="6">
-        <f>14/18</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="L41" s="6">
-        <f>7/18</f>
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="M41" s="6">
-        <f>4/18</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="N41" s="6">
-        <f>11/18</f>
-        <v>0.61111111111111116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C42" s="4">
-        <f>4/18</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D42" s="4">
-        <f>3/18</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E42" s="4">
-        <f>3/18</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F42" s="4">
-        <f>2/18</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G42" s="4">
-        <f>2/18</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="H42" s="4">
-        <f>2/18</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="I42" s="4">
+      <c r="J49" s="17">
+        <f>15/21</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K49" s="17">
+        <f>14/21</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L49" s="17">
+        <f>10/21</f>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="M49" s="17">
+        <f>11/21</f>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="N49" s="17">
+        <f>12/21</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C50" s="4">
+        <f>3/21</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D50" s="4">
+        <f>3/21</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E50" s="4">
+        <f>3/21</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F50" s="4">
+        <f>2/21</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="G50" s="4">
+        <f>2/21</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="H50" s="4">
+        <f>2/21</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="I50" s="4">
         <v>0</v>
       </c>
-      <c r="J42" s="4">
-        <f>5/18</f>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="K42" s="4">
+      <c r="J50" s="4">
+        <f>0/21</f>
         <v>0</v>
       </c>
-      <c r="L42" s="4">
-        <f>3/18</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="M42" s="4">
-        <f>6/18</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N42" s="4">
-        <f>3/18</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="P42" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q42">
-        <f>AVERAGE(Q23:Q40)</f>
+      <c r="K50" s="4">
+        <f>2/21</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="L50" s="4">
+        <f>3/21</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="M50" s="4">
+        <f>3/21</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="N50" s="4">
+        <f>4/21</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="P50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" ref="Q50:AB50" si="32">AVERAGE(Q28:Q45)</f>
         <v>-0.98186627257940118</v>
       </c>
-      <c r="R42">
-        <f t="shared" ref="R42:AB42" si="32">AVERAGE(R23:R40)</f>
+      <c r="R50">
+        <f t="shared" si="32"/>
         <v>-1.7634220410643795</v>
       </c>
-      <c r="S42">
+      <c r="S50">
         <f t="shared" si="32"/>
         <v>-0.58640921950932146</v>
       </c>
-      <c r="T42">
+      <c r="T50">
         <f t="shared" si="32"/>
         <v>-0.92679774304001916</v>
       </c>
-      <c r="U42">
+      <c r="U50">
         <f t="shared" si="32"/>
         <v>-1.4256332623797741</v>
       </c>
-      <c r="V42">
+      <c r="V50">
         <f t="shared" si="32"/>
         <v>-0.53716032821896842</v>
       </c>
-      <c r="W42">
+      <c r="W50">
         <f t="shared" si="32"/>
         <v>-1.1170492172045652</v>
       </c>
-      <c r="X42">
+      <c r="X50">
         <f t="shared" si="32"/>
         <v>-1.1420588785093395</v>
       </c>
-      <c r="Y42">
+      <c r="Y50">
         <f t="shared" si="32"/>
         <v>-1.4404655722191455</v>
       </c>
-      <c r="Z42">
+      <c r="Z50">
         <f t="shared" si="32"/>
         <v>-1.1868810707078303</v>
       </c>
-      <c r="AA42">
+      <c r="AA50">
         <f t="shared" si="32"/>
         <v>-0.87450322891507393</v>
       </c>
-      <c r="AB42">
+      <c r="AB50">
         <f t="shared" si="32"/>
         <v>-0.96422300363172964</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C43" s="5">
-        <f>9/18</f>
-        <v>0.5</v>
-      </c>
-      <c r="D43" s="5">
-        <f>1/18</f>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="E43" s="5">
-        <f>8/18</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="F43" s="5">
-        <f>5/18</f>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="G43" s="5">
-        <f>3/18</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H43" s="5">
-        <f>4/18</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="I43" s="5">
-        <f>12/18</f>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C51" s="5">
+        <f>10/21</f>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="D51" s="5">
+        <f>3/21</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E51" s="5">
+        <f>13/21</f>
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="F51" s="5">
+        <f>5/21</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="G51" s="5">
+        <f>4/21</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="H51" s="5">
+        <f>10/21</f>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="I51" s="5">
+        <f>14/21</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J43" s="5">
-        <f>5/18</f>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="K43" s="5">
-        <f>4/18</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="L43" s="5">
-        <f>8/18</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="M43" s="5">
-        <f>8/18</f>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="N43" s="5">
-        <f>4/18</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="P43" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q43">
-        <f>STDEV(Q23:Q40)</f>
+      <c r="J51" s="5">
+        <f>6/21</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K51" s="5">
+        <f>5/21</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="L51" s="5">
+        <f>8/21</f>
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="M51" s="5">
+        <f>7/21</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N51" s="5">
+        <f>5/21</f>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="P51" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" ref="Q51:AB51" si="33">STDEV(Q28:Q45)</f>
         <v>0.80726007899240582</v>
       </c>
-      <c r="R43">
-        <f t="shared" ref="R43:AB43" si="33">STDEV(R23:R40)</f>
+      <c r="R51">
+        <f t="shared" si="33"/>
         <v>1.2517237890276267</v>
       </c>
-      <c r="S43">
+      <c r="S51">
         <f t="shared" si="33"/>
         <v>0.6958290195583996</v>
       </c>
-      <c r="T43">
+      <c r="T51">
         <f t="shared" si="33"/>
         <v>0.99070091896610302</v>
       </c>
-      <c r="U43">
+      <c r="U51">
         <f t="shared" si="33"/>
         <v>1.0610338705278484</v>
       </c>
-      <c r="V43">
+      <c r="V51">
         <f t="shared" si="33"/>
         <v>0.7800630582907162</v>
       </c>
-      <c r="W43">
+      <c r="W51">
         <f t="shared" si="33"/>
         <v>0.6789699375827728</v>
       </c>
-      <c r="X43">
+      <c r="X51">
         <f t="shared" si="33"/>
         <v>1.2891833146280969</v>
       </c>
-      <c r="Y43">
+      <c r="Y51">
         <f t="shared" si="33"/>
         <v>0.79758642504305477</v>
       </c>
-      <c r="Z43">
+      <c r="Z51">
         <f t="shared" si="33"/>
         <v>0.92297949968771098</v>
       </c>
-      <c r="AA43">
+      <c r="AA51">
         <f t="shared" si="33"/>
         <v>0.72483799129815674</v>
       </c>
-      <c r="AB43">
+      <c r="AB51">
         <f t="shared" si="33"/>
         <v>1.399841146846172</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="1" t="s">
+    <row r="52" spans="1:28" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="N52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="Q52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R44" s="1" t="s">
+      <c r="R52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S44" s="1" t="s">
+      <c r="S52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T44" s="1" t="s">
+      <c r="T52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U44" s="1" t="s">
+      <c r="U52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V44" s="1" t="s">
+      <c r="V52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W44" s="1" t="s">
+      <c r="W52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X44" s="1" t="s">
+      <c r="X52" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y44" s="1" t="s">
+      <c r="Y52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z44" s="1" t="s">
+      <c r="Z52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AA44" s="1" t="s">
+      <c r="AA52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AB44" s="1" t="s">
+      <c r="AB52" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>1</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B53" t="s">
         <v>19</v>
       </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45">
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
         <v>2</v>
       </c>
-      <c r="E45">
+      <c r="E53">
         <v>1</v>
       </c>
-      <c r="F45">
+      <c r="F53">
         <v>0</v>
       </c>
-      <c r="G45">
-        <v>3</v>
-      </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
-      <c r="I45">
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
         <v>2</v>
       </c>
-      <c r="J45">
+      <c r="J53">
         <v>2</v>
       </c>
-      <c r="K45">
+      <c r="K53">
         <v>25</v>
       </c>
-      <c r="L45">
+      <c r="L53">
         <v>18</v>
       </c>
-      <c r="M45">
+      <c r="M53">
         <v>-3</v>
       </c>
-      <c r="N45">
-        <v>3</v>
-      </c>
-      <c r="Q45">
-        <f>STANDARDIZE(C45,C18,C19)</f>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" ref="Q53:AB53" si="34">STANDARDIZE(C53,C23,C24)</f>
         <v>-1.4389242932172341</v>
       </c>
-      <c r="R45">
-        <f t="shared" ref="R45:AB45" si="34">STANDARDIZE(D45,D18,D19)</f>
+      <c r="R53">
+        <f t="shared" si="34"/>
         <v>-5.0078257848767684</v>
       </c>
-      <c r="S45">
+      <c r="S53">
         <f t="shared" si="34"/>
         <v>-1.8316801197513899</v>
       </c>
-      <c r="T45">
+      <c r="T53">
         <f t="shared" si="34"/>
         <v>-3.369693044330452</v>
       </c>
-      <c r="U45">
+      <c r="U53">
         <f t="shared" si="34"/>
         <v>-2.5809524151552683</v>
       </c>
-      <c r="V45">
+      <c r="V53">
         <f t="shared" si="34"/>
         <v>-1.6869783529496767</v>
       </c>
-      <c r="W45">
+      <c r="W53">
         <f t="shared" si="34"/>
         <v>-2.1819567518572018</v>
       </c>
-      <c r="X45">
+      <c r="X53">
         <f t="shared" si="34"/>
         <v>-3.1235875299247273</v>
       </c>
-      <c r="Y45">
+      <c r="Y53">
         <f t="shared" si="34"/>
         <v>-2.6159678377673488</v>
       </c>
-      <c r="Z45">
+      <c r="Z53">
         <f t="shared" si="34"/>
         <v>-1.6284796704459874</v>
       </c>
-      <c r="AA45">
+      <c r="AA53">
         <f t="shared" si="34"/>
         <v>-1.7658861432091828</v>
       </c>
-      <c r="AB45">
+      <c r="AB53">
         <f t="shared" si="34"/>
         <v>-3.0636244834753925</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54">
         <v>1</v>
       </c>
-      <c r="D46">
-        <v>4</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-      <c r="F46">
-        <v>5</v>
-      </c>
-      <c r="G46">
-        <v>4</v>
-      </c>
-      <c r="H46">
-        <v>6</v>
-      </c>
-      <c r="I46">
-        <v>4</v>
-      </c>
-      <c r="J46">
-        <v>4</v>
-      </c>
-      <c r="K46">
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+      <c r="K54">
         <v>64</v>
       </c>
-      <c r="L46">
-        <v>20</v>
-      </c>
-      <c r="M46">
+      <c r="L54">
+        <v>20</v>
+      </c>
+      <c r="M54">
         <v>15</v>
       </c>
-      <c r="N46">
-        <v>6</v>
-      </c>
-      <c r="Q46">
-        <f>STANDARDIZE(C46,$C$20,$C$21)</f>
+      <c r="N54">
+        <v>6</v>
+      </c>
+      <c r="Q54">
+        <f>STANDARDIZE(C54,$C$25,$C$26)</f>
         <v>-1.3771845690536091</v>
       </c>
-      <c r="R46">
-        <f>STANDARDIZE(D46,$D$20,$D$21)</f>
+      <c r="R54">
+        <f>STANDARDIZE(D54,$D$25,$D$26)</f>
         <v>-3.8135418928918474</v>
       </c>
-      <c r="S46">
-        <f>STANDARDIZE(E46,$E$20,$E$21)</f>
+      <c r="S54">
+        <f>STANDARDIZE(E54,$E$25,$E$26)</f>
         <v>-1.4893814096911249</v>
       </c>
-      <c r="T46">
-        <f>STANDARDIZE(F46,$F$20,$F$21)</f>
+      <c r="T54">
+        <f>STANDARDIZE(F54,$F$25,$F$26)</f>
         <v>-1.729772298222769</v>
       </c>
-      <c r="U46">
-        <f>STANDARDIZE(G46,$G$20,$G$21)</f>
+      <c r="U54">
+        <f>STANDARDIZE(G54,$G$25,$G$26)</f>
         <v>-1.6206470948321918</v>
       </c>
-      <c r="V46">
-        <f>STANDARDIZE(H46,$H$20,$H$21)</f>
+      <c r="V54">
+        <f>STANDARDIZE(H54,$H$25,$H$26)</f>
         <v>-0.17020236654120074</v>
       </c>
-      <c r="W46">
-        <f>STANDARDIZE(I46,$I$20,$I$21)</f>
+      <c r="W54">
+        <f>STANDARDIZE(I54,$I$25,$I$26)</f>
         <v>-0.32143953227849542</v>
       </c>
-      <c r="X46">
-        <f>STANDARDIZE(J46,$J$20,$J$21)</f>
+      <c r="X54">
+        <f>STANDARDIZE(J54,$J$25,$J$26)</f>
         <v>-0.95999747521563505</v>
       </c>
-      <c r="Y46">
-        <f>STANDARDIZE(K46,$K$20,$K$21)</f>
+      <c r="Y54">
+        <f>STANDARDIZE(K54,$K$25,$K$26)</f>
         <v>-1.4845857127199293</v>
       </c>
-      <c r="Z46">
-        <f>STANDARDIZE(L46,$L$20,$L$21)</f>
+      <c r="Z54">
+        <f>STANDARDIZE(L54,$L$25,$L$26)</f>
         <v>-1.4148065196202413</v>
       </c>
-      <c r="AA46">
-        <f>STANDARDIZE(M46,$M$20,$M$21)</f>
+      <c r="AA54">
+        <f>STANDARDIZE(M54,$M$25,$M$26)</f>
         <v>-0.93235156703834188</v>
       </c>
-      <c r="AB46">
-        <f>STANDARDIZE(N46,$N$20,$N$21)</f>
+      <c r="AB54">
+        <f>STANDARDIZE(N54,$N$25,$N$26)</f>
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>7</v>
       </c>
-      <c r="B47" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47">
-        <v>6</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-      <c r="E47">
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
         <v>9</v>
       </c>
-      <c r="F47">
+      <c r="F55">
         <v>1</v>
       </c>
-      <c r="G47">
-        <v>5</v>
-      </c>
-      <c r="H47">
-        <v>5</v>
-      </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
-      <c r="J47">
-        <v>4</v>
-      </c>
-      <c r="K47">
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55">
         <v>49</v>
       </c>
-      <c r="L47">
+      <c r="L55">
         <v>-2</v>
       </c>
-      <c r="M47">
-        <v>20</v>
-      </c>
-      <c r="N47">
+      <c r="M55">
+        <v>20</v>
+      </c>
+      <c r="N55">
         <v>2</v>
       </c>
-      <c r="Q47">
-        <f t="shared" ref="Q47:Q53" si="35">STANDARDIZE(C47,$C$20,$C$21)</f>
+      <c r="Q55">
+        <f t="shared" ref="Q55:Q61" si="35">STANDARDIZE(C55,$C$25,$C$26)</f>
         <v>-0.95696181566693228</v>
       </c>
-      <c r="R47">
-        <f t="shared" ref="R47:R53" si="36">STANDARDIZE(D47,$D$20,$D$21)</f>
+      <c r="R55">
+        <f t="shared" ref="R55:R61" si="36">STANDARDIZE(D55,$D$25,$D$26)</f>
         <v>-4.2078917008524614</v>
       </c>
-      <c r="S47">
-        <f t="shared" ref="S47:S53" si="37">STANDARDIZE(E47,$E$20,$E$21)</f>
+      <c r="S55">
+        <f t="shared" ref="S55:S61" si="37">STANDARDIZE(E55,$E$25,$E$26)</f>
         <v>-0.70845451364652323</v>
       </c>
-      <c r="T47">
-        <f t="shared" ref="T47:T53" si="38">STANDARDIZE(F47,$F$20,$F$21)</f>
+      <c r="T55">
+        <f t="shared" ref="T55:T61" si="38">STANDARDIZE(F55,$F$25,$F$26)</f>
         <v>-2.5103874892156086</v>
       </c>
-      <c r="U47">
-        <f t="shared" ref="U47:U53" si="39">STANDARDIZE(G47,$G$20,$G$21)</f>
+      <c r="U55">
+        <f t="shared" ref="U55:U61" si="39">STANDARDIZE(G55,$G$25,$G$26)</f>
         <v>-1.0313208785295767</v>
       </c>
-      <c r="V47">
-        <f t="shared" ref="V47:V53" si="40">STANDARDIZE(H47,$H$20,$H$21)</f>
+      <c r="V55">
+        <f t="shared" ref="V55:V61" si="40">STANDARDIZE(H55,$H$25,$H$26)</f>
         <v>-0.72493600563844784</v>
       </c>
-      <c r="W47">
-        <f t="shared" ref="W47:W53" si="41">STANDARDIZE(I47,$I$20,$I$21)</f>
+      <c r="W55">
+        <f t="shared" ref="W55:W61" si="41">STANDARDIZE(I55,$I$25,$I$26)</f>
         <v>-1.2968422509166897</v>
       </c>
-      <c r="X47">
-        <f t="shared" ref="X47:X53" si="42">STANDARDIZE(J47,$J$20,$J$21)</f>
+      <c r="X55">
+        <f t="shared" ref="X55:X61" si="42">STANDARDIZE(J55,$J$25,$J$26)</f>
         <v>-0.95999747521563505</v>
       </c>
-      <c r="Y47">
-        <f t="shared" ref="Y47:Y53" si="43">STANDARDIZE(K47,$K$20,$K$21)</f>
+      <c r="Y55">
+        <f t="shared" ref="Y55:Y61" si="43">STANDARDIZE(K55,$K$25,$K$26)</f>
         <v>-2.1128810448104414</v>
       </c>
-      <c r="Z47">
-        <f t="shared" ref="Z47:Z53" si="44">STANDARDIZE(L47,$L$20,$L$21)</f>
+      <c r="Z55">
+        <f t="shared" ref="Z55:Z61" si="44">STANDARDIZE(L55,$L$25,$L$26)</f>
         <v>-2.1679177162066554</v>
       </c>
-      <c r="AA47">
-        <f t="shared" ref="AA47:AA53" si="45">STANDARDIZE(M47,$M$20,$M$21)</f>
+      <c r="AA55">
+        <f t="shared" ref="AA55:AA61" si="45">STANDARDIZE(M55,$M$25,$M$26)</f>
         <v>-0.69075280997304722</v>
       </c>
-      <c r="AB47">
-        <f t="shared" ref="AB47:AB51" si="46">STANDARDIZE(N47,$N$20,$N$21)</f>
+      <c r="AB55">
+        <f t="shared" ref="AB55:AB59" si="46">STANDARDIZE(N55,$N$25,$N$26)</f>
         <v>-3.3964707532997527</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>12</v>
       </c>
-      <c r="B48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48">
-        <v>6</v>
-      </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-      <c r="E48">
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
         <v>14</v>
       </c>
-      <c r="F48">
+      <c r="F56">
         <v>14</v>
       </c>
-      <c r="G48">
-        <v>5</v>
-      </c>
-      <c r="H48">
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="H56">
         <v>7</v>
       </c>
-      <c r="I48">
-        <v>4</v>
-      </c>
-      <c r="J48">
-        <v>4</v>
-      </c>
-      <c r="K48">
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+      <c r="K56">
         <v>64</v>
       </c>
-      <c r="L48">
+      <c r="L56">
         <v>53</v>
       </c>
-      <c r="M48">
+      <c r="M56">
         <v>17</v>
       </c>
-      <c r="N48">
-        <v>6</v>
-      </c>
-      <c r="Q48">
+      <c r="N56">
+        <v>6</v>
+      </c>
+      <c r="Q56">
         <f t="shared" si="35"/>
         <v>-0.95696181566693228</v>
       </c>
-      <c r="R48">
+      <c r="R56">
         <f t="shared" si="36"/>
         <v>-4.2078917008524614</v>
       </c>
-      <c r="S48">
+      <c r="S56">
         <f t="shared" si="37"/>
         <v>-5.768210027602174E-2</v>
       </c>
-      <c r="T48">
+      <c r="T56">
         <f t="shared" si="38"/>
         <v>2.6611881511119588E-2</v>
       </c>
-      <c r="U48">
+      <c r="U56">
         <f t="shared" si="39"/>
         <v>-1.0313208785295767</v>
       </c>
-      <c r="V48">
+      <c r="V56">
         <f t="shared" si="40"/>
         <v>0.38453127255604641</v>
       </c>
-      <c r="W48">
+      <c r="W56">
         <f t="shared" si="41"/>
         <v>-0.32143953227849542</v>
       </c>
-      <c r="X48">
+      <c r="X56">
         <f t="shared" si="42"/>
         <v>-0.95999747521563505</v>
       </c>
-      <c r="Y48">
+      <c r="Y56">
         <f t="shared" si="43"/>
         <v>-1.4845857127199293</v>
       </c>
-      <c r="Z48">
+      <c r="Z56">
         <f t="shared" si="44"/>
         <v>-0.28513972474062049</v>
       </c>
-      <c r="AA48">
+      <c r="AA56">
         <f t="shared" si="45"/>
         <v>-0.83571206421222399</v>
       </c>
-      <c r="AB48">
+      <c r="AB56">
         <f t="shared" si="46"/>
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>15</v>
       </c>
-      <c r="B49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49">
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57">
         <v>11</v>
       </c>
-      <c r="D49">
+      <c r="D57">
         <v>8</v>
       </c>
-      <c r="E49">
-        <v>5</v>
-      </c>
-      <c r="F49">
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
         <v>-1</v>
       </c>
-      <c r="G49">
-        <v>4</v>
-      </c>
-      <c r="H49">
-        <v>4</v>
-      </c>
-      <c r="I49">
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57">
         <v>2</v>
       </c>
-      <c r="J49">
+      <c r="J57">
         <v>2</v>
       </c>
-      <c r="K49">
+      <c r="K57">
         <v>2</v>
       </c>
-      <c r="L49">
+      <c r="L57">
         <v>42</v>
       </c>
-      <c r="M49">
+      <c r="M57">
         <v>-3</v>
       </c>
-      <c r="N49">
+      <c r="N57">
         <v>2</v>
       </c>
-      <c r="Q49">
+      <c r="Q57">
         <f t="shared" si="35"/>
         <v>-0.53673906228025547</v>
       </c>
-      <c r="R49">
+      <c r="R57">
         <f t="shared" si="36"/>
         <v>-2.2361426610493909</v>
       </c>
-      <c r="S49">
+      <c r="S57">
         <f t="shared" si="37"/>
         <v>-1.2290724443429244</v>
       </c>
-      <c r="T49">
+      <c r="T57">
         <f t="shared" si="38"/>
         <v>-2.9006950847120283</v>
       </c>
-      <c r="U49">
+      <c r="U57">
         <f t="shared" si="39"/>
         <v>-1.6206470948321918</v>
       </c>
-      <c r="V49">
+      <c r="V57">
         <f t="shared" si="40"/>
         <v>-1.279669644735695</v>
       </c>
-      <c r="W49">
+      <c r="W57">
         <f t="shared" si="41"/>
         <v>-2.2722449695548841</v>
       </c>
-      <c r="X49">
+      <c r="X57">
         <f t="shared" si="42"/>
         <v>-3.0987260275947719</v>
       </c>
-      <c r="Y49">
+      <c r="Y57">
         <f t="shared" si="43"/>
         <v>-4.0815397520273793</v>
       </c>
-      <c r="Z49">
+      <c r="Z57">
         <f t="shared" si="44"/>
         <v>-0.6616953230338275</v>
       </c>
-      <c r="AA49">
+      <c r="AA57">
         <f t="shared" si="45"/>
         <v>-1.8021070924734028</v>
       </c>
-      <c r="AB49">
+      <c r="AB57">
         <f t="shared" si="46"/>
         <v>-3.3964707532997527</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>20</v>
-      </c>
-      <c r="B50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50">
-        <v>5</v>
-      </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-      <c r="F50">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="F58">
         <v>7</v>
       </c>
-      <c r="G50">
+      <c r="G58">
         <v>0</v>
       </c>
-      <c r="I50">
-        <v>3</v>
-      </c>
-      <c r="M50">
+      <c r="I58">
+        <v>3</v>
+      </c>
+      <c r="M58">
         <v>19</v>
       </c>
-      <c r="N50">
-        <v>4</v>
-      </c>
-      <c r="Q50">
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="Q58">
         <f t="shared" si="35"/>
         <v>-1.0410063663442677</v>
       </c>
-      <c r="R50">
+      <c r="R58">
         <f t="shared" si="36"/>
         <v>-3.4191920849312334</v>
       </c>
-      <c r="T50">
+      <c r="T58">
         <f t="shared" si="38"/>
         <v>-1.3394647027263493</v>
       </c>
-      <c r="U50">
+      <c r="U58">
         <f t="shared" si="39"/>
         <v>-3.9779519600426529</v>
       </c>
-      <c r="W50">
+      <c r="W58">
         <f t="shared" si="41"/>
         <v>-1.2968422509166897</v>
       </c>
-      <c r="AA50">
+      <c r="AA58">
         <f t="shared" si="45"/>
         <v>-0.73907256138610611</v>
       </c>
-      <c r="AB50">
+      <c r="AB58">
         <f t="shared" si="46"/>
         <v>-1.9020236218478617</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>23</v>
       </c>
-      <c r="B51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51">
-        <v>6</v>
-      </c>
-      <c r="E51">
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59">
         <v>13</v>
       </c>
-      <c r="F51">
+      <c r="F59">
         <v>14</v>
       </c>
-      <c r="G51">
-        <v>5</v>
-      </c>
-      <c r="H51">
-        <v>6</v>
-      </c>
-      <c r="I51">
-        <v>3</v>
-      </c>
-      <c r="J51">
-        <v>5</v>
-      </c>
-      <c r="K51">
+      <c r="G59">
+        <v>5</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59">
         <v>63</v>
       </c>
-      <c r="L51">
+      <c r="L59">
         <v>24</v>
       </c>
-      <c r="M51">
-        <v>5</v>
-      </c>
-      <c r="N51">
-        <v>6</v>
-      </c>
-      <c r="Q51">
+      <c r="M59">
+        <v>5</v>
+      </c>
+      <c r="N59">
+        <v>6</v>
+      </c>
+      <c r="Q59">
         <f t="shared" si="35"/>
         <v>-1.2090954676989385</v>
       </c>
-      <c r="R51">
+      <c r="R59">
         <f t="shared" si="36"/>
         <v>-3.0248422769706194</v>
       </c>
-      <c r="S51">
+      <c r="S59">
         <f t="shared" si="37"/>
         <v>-0.18783658295012204</v>
       </c>
-      <c r="T51">
+      <c r="T59">
         <f t="shared" si="38"/>
         <v>2.6611881511119588E-2</v>
       </c>
-      <c r="U51">
+      <c r="U59">
         <f t="shared" si="39"/>
         <v>-1.0313208785295767</v>
       </c>
-      <c r="V51">
+      <c r="V59">
         <f t="shared" si="40"/>
         <v>-0.17020236654120074</v>
       </c>
-      <c r="W51">
+      <c r="W59">
         <f t="shared" si="41"/>
         <v>-1.2968422509166897</v>
       </c>
-      <c r="X51">
+      <c r="X59">
         <f t="shared" si="42"/>
         <v>0.10936680097393339</v>
       </c>
-      <c r="Y51">
+      <c r="Y59">
         <f t="shared" si="43"/>
         <v>-1.5264720681926303</v>
       </c>
-      <c r="Z51">
+      <c r="Z59">
         <f t="shared" si="44"/>
         <v>-1.2778772111499843</v>
       </c>
-      <c r="AA51">
+      <c r="AA59">
         <f t="shared" si="45"/>
         <v>-1.4155490811689313</v>
       </c>
-      <c r="AB51">
+      <c r="AB59">
         <f t="shared" si="46"/>
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>28</v>
       </c>
-      <c r="B52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52">
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60">
         <v>-2</v>
       </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52">
-        <v>4</v>
-      </c>
-      <c r="F52">
-        <v>3</v>
-      </c>
-      <c r="G52">
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
         <v>0</v>
       </c>
-      <c r="H52">
+      <c r="H60">
         <v>0</v>
       </c>
-      <c r="I52">
+      <c r="I60">
         <v>2</v>
       </c>
-      <c r="J52">
-        <v>5</v>
-      </c>
-      <c r="K52">
+      <c r="J60">
+        <v>5</v>
+      </c>
+      <c r="K60">
         <v>22</v>
       </c>
-      <c r="L52">
+      <c r="L60">
         <v>-11</v>
       </c>
-      <c r="M52">
+      <c r="M60">
         <v>-4</v>
       </c>
-      <c r="N52">
-        <v>4</v>
-      </c>
-      <c r="Q52">
+      <c r="N60">
+        <v>4</v>
+      </c>
+      <c r="Q60">
         <f t="shared" si="35"/>
         <v>-1.6293182210856154</v>
       </c>
-      <c r="R52">
+      <c r="R60">
         <f t="shared" si="36"/>
         <v>-4.2078917008524614</v>
       </c>
-      <c r="S52">
+      <c r="S60">
         <f t="shared" si="37"/>
         <v>-1.3592269270170245</v>
       </c>
-      <c r="T52">
+      <c r="T60">
         <f t="shared" si="38"/>
         <v>-2.1200798937191889</v>
       </c>
-      <c r="U52">
+      <c r="U60">
         <f t="shared" si="39"/>
         <v>-3.9779519600426529</v>
       </c>
-      <c r="V52">
+      <c r="V60">
         <f t="shared" si="40"/>
         <v>-3.4986042011246838</v>
       </c>
-      <c r="W52">
+      <c r="W60">
         <f t="shared" si="41"/>
         <v>-2.2722449695548841</v>
       </c>
-      <c r="X52">
+      <c r="X60">
         <f t="shared" si="42"/>
         <v>0.10936680097393339</v>
       </c>
-      <c r="Y52">
+      <c r="Y60">
         <f t="shared" si="43"/>
         <v>-3.2438126425733631</v>
       </c>
-      <c r="Z52">
+      <c r="Z60">
         <f t="shared" si="44"/>
         <v>-2.4760086602647338</v>
       </c>
-      <c r="AA52">
+      <c r="AA60">
         <f t="shared" si="45"/>
         <v>-1.8504268438864617</v>
       </c>
-      <c r="AB52">
-        <f>STANDARDIZE(N52,$N$20,$N$21)</f>
+      <c r="AB60">
+        <f>STANDARDIZE(N60,$N$25,$N$26)</f>
         <v>-1.9020236218478617</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>37</v>
       </c>
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53">
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61">
         <v>1</v>
       </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53">
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
         <v>14</v>
       </c>
-      <c r="F53">
+      <c r="F61">
         <v>12</v>
       </c>
-      <c r="G53">
-        <v>5</v>
-      </c>
-      <c r="H53">
+      <c r="G61">
+        <v>5</v>
+      </c>
+      <c r="H61">
         <v>7</v>
       </c>
-      <c r="I53">
-        <v>4</v>
-      </c>
-      <c r="J53">
-        <v>3</v>
-      </c>
-      <c r="K53">
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61">
         <v>81</v>
       </c>
-      <c r="L53">
+      <c r="L61">
         <v>-8</v>
       </c>
-      <c r="M53">
+      <c r="M61">
         <v>44</v>
       </c>
-      <c r="N53">
+      <c r="N61">
         <v>7</v>
       </c>
-      <c r="Q53">
+      <c r="Q61">
         <f t="shared" si="35"/>
         <v>-1.3771845690536091</v>
       </c>
-      <c r="R53">
+      <c r="R61">
         <f t="shared" si="36"/>
         <v>-3.8135418928918474</v>
       </c>
-      <c r="S53">
+      <c r="S61">
         <f t="shared" si="37"/>
         <v>-5.768210027602174E-2</v>
       </c>
-      <c r="T53">
+      <c r="T61">
         <f t="shared" si="38"/>
         <v>-0.3636957139853001</v>
       </c>
-      <c r="U53">
+      <c r="U61">
         <f t="shared" si="39"/>
         <v>-1.0313208785295767</v>
       </c>
-      <c r="V53">
+      <c r="V61">
         <f t="shared" si="40"/>
         <v>0.38453127255604641</v>
       </c>
-      <c r="W53">
+      <c r="W61">
         <f t="shared" si="41"/>
         <v>-0.32143953227849542</v>
       </c>
-      <c r="X53">
+      <c r="X61">
         <f t="shared" si="42"/>
         <v>-2.0293617514052036</v>
       </c>
-      <c r="Y53">
+      <c r="Y61">
         <f t="shared" si="43"/>
         <v>-0.7725176696840157</v>
       </c>
-      <c r="Z53">
+      <c r="Z61">
         <f t="shared" si="44"/>
         <v>-2.373311678912041</v>
       </c>
-      <c r="AA53">
+      <c r="AA61">
         <f t="shared" si="45"/>
         <v>0.46892122394036739</v>
       </c>
-      <c r="AB53">
-        <f>STANDARDIZE(N53,$N$20,$N$21)</f>
+      <c r="AB61">
+        <f>STANDARDIZE(N61,$N$25,$N$26)</f>
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>46</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>4</v>
+      </c>
+      <c r="K62">
+        <v>56</v>
+      </c>
+      <c r="L62">
+        <v>8</v>
+      </c>
+      <c r="M62">
+        <v>9</v>
+      </c>
+      <c r="N62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>49</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>19</v>
+      </c>
+      <c r="F63">
+        <v>9</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+      <c r="J63">
+        <v>4</v>
+      </c>
+      <c r="K63">
+        <v>19</v>
+      </c>
+      <c r="L63">
+        <v>28</v>
+      </c>
+      <c r="M63">
+        <v>4</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>-7</v>
+      </c>
+      <c r="D64">
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>19</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>6</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <v>4</v>
+      </c>
+      <c r="K64">
+        <v>49</v>
+      </c>
+      <c r="L64">
+        <v>37</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="5">
-        <f>AVERAGE(C45:C53)</f>
-        <v>3.7777777777777777</v>
-      </c>
-      <c r="D54" s="5">
-        <f t="shared" ref="D54:N54" si="47">AVERAGE(D45:D53)</f>
-        <v>4.2222222222222223</v>
-      </c>
-      <c r="E54" s="5">
+      <c r="C65" s="5">
+        <f>AVERAGE(C53:C64)</f>
+        <v>3.25</v>
+      </c>
+      <c r="D65" s="5">
+        <f t="shared" ref="D65:N65" si="47">AVERAGE(D53:D64)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="E65" s="5">
         <f t="shared" si="47"/>
-        <v>7.875</v>
-      </c>
-      <c r="F54" s="5">
+        <v>10.090909090909092</v>
+      </c>
+      <c r="F65" s="5">
         <f t="shared" si="47"/>
-        <v>6.1111111111111107</v>
-      </c>
-      <c r="G54" s="5">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="G65" s="5">
         <f t="shared" si="47"/>
-        <v>3.4444444444444446</v>
-      </c>
-      <c r="H54" s="5">
+        <v>3.4166666666666665</v>
+      </c>
+      <c r="H65" s="5">
         <f t="shared" si="47"/>
-        <v>4.75</v>
-      </c>
-      <c r="I54" s="5">
+        <v>5</v>
+      </c>
+      <c r="I65" s="5">
         <f t="shared" si="47"/>
         <v>3</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J65" s="5">
         <f t="shared" si="47"/>
-        <v>3.625</v>
-      </c>
-      <c r="K54" s="5">
+        <v>3.7272727272727271</v>
+      </c>
+      <c r="K65" s="5">
         <f t="shared" si="47"/>
-        <v>46.25</v>
-      </c>
-      <c r="L54" s="5">
+        <v>44.909090909090907</v>
+      </c>
+      <c r="L65" s="5">
         <f t="shared" si="47"/>
-        <v>17</v>
-      </c>
-      <c r="M54" s="5">
+        <v>19</v>
+      </c>
+      <c r="M65" s="5">
         <f t="shared" si="47"/>
-        <v>12.222222222222221</v>
-      </c>
-      <c r="N54" s="5">
+        <v>10.416666666666666</v>
+      </c>
+      <c r="N65" s="5">
         <f t="shared" si="47"/>
-        <v>4.4444444444444446</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55">
-        <f>STDEV(C45:C53)</f>
-        <v>3.7675515184857717</v>
-      </c>
-      <c r="D55">
-        <f t="shared" ref="D55:N55" si="48">STDEV(D45:D53)</f>
-        <v>1.8559214542766735</v>
-      </c>
-      <c r="E55">
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66">
+        <f>STDEV(C53:C64)</f>
+        <v>4.8076643355829622</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:N66" si="48">STDEV(D53:D64)</f>
+        <v>3.6265017787828473</v>
+      </c>
+      <c r="E66">
         <f t="shared" si="48"/>
-        <v>5.3033008588991066</v>
-      </c>
-      <c r="F55">
+        <v>6.2841792694757759</v>
+      </c>
+      <c r="F66">
         <f t="shared" si="48"/>
-        <v>5.9675045966560525</v>
-      </c>
-      <c r="G55">
+        <v>5.3399580068715444</v>
+      </c>
+      <c r="G66">
         <f t="shared" si="48"/>
-        <v>2.0682789409984763</v>
-      </c>
-      <c r="H55">
+        <v>1.8809249819912508</v>
+      </c>
+      <c r="H66">
         <f t="shared" si="48"/>
-        <v>2.3754698783308417</v>
-      </c>
-      <c r="I55">
+        <v>2.0493901531919199</v>
+      </c>
+      <c r="I66">
         <f t="shared" si="48"/>
-        <v>0.8660254037844386</v>
-      </c>
-      <c r="J55">
+        <v>0.7385489458759964</v>
+      </c>
+      <c r="J66">
         <f t="shared" si="48"/>
-        <v>1.1877349391654208</v>
-      </c>
-      <c r="K55">
+        <v>1.0090499582190262</v>
+      </c>
+      <c r="K66">
         <f t="shared" si="48"/>
-        <v>27.054178446749617</v>
-      </c>
-      <c r="L55">
+        <v>24.390385587171622</v>
+      </c>
+      <c r="L66">
         <f t="shared" si="48"/>
-        <v>23.145502494313785</v>
-      </c>
-      <c r="M55">
+        <v>20.755722102591371</v>
+      </c>
+      <c r="M66">
         <f t="shared" si="48"/>
-        <v>15.51433029313365</v>
-      </c>
-      <c r="N55">
+        <v>13.714347718113807</v>
+      </c>
+      <c r="N66">
         <f t="shared" si="48"/>
-        <v>1.8782379449307745</v>
-      </c>
-      <c r="P55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q55">
-        <f t="shared" ref="Q55:AB55" si="49">AVERAGE(Q45:Q52)</f>
+        <v>1.6696942198734441</v>
+      </c>
+      <c r="P66" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" ref="Q66:AB66" si="49">AVERAGE(Q53:Q60)</f>
         <v>-1.1432739513767232</v>
       </c>
-      <c r="R55">
+      <c r="R66">
         <f t="shared" si="49"/>
         <v>-3.7656524754096554</v>
       </c>
-      <c r="S55">
+      <c r="S66">
         <f t="shared" si="49"/>
         <v>-0.98047629966787586</v>
       </c>
-      <c r="T55">
+      <c r="T66">
         <f t="shared" si="49"/>
         <v>-1.7396085937380197</v>
       </c>
-      <c r="U55">
+      <c r="U66">
         <f t="shared" si="49"/>
         <v>-2.1090141450617113</v>
       </c>
-      <c r="V55">
+      <c r="V66">
         <f t="shared" si="49"/>
         <v>-1.0208659521392656</v>
       </c>
-      <c r="W55">
+      <c r="W66">
         <f t="shared" si="49"/>
         <v>-1.4074815635342537</v>
       </c>
-      <c r="X55">
+      <c r="X66">
         <f t="shared" si="49"/>
         <v>-1.2690817687455052</v>
       </c>
-      <c r="Y55">
+      <c r="Y66">
         <f t="shared" si="49"/>
         <v>-2.3642635386872888</v>
       </c>
-      <c r="Z55">
+      <c r="Z66">
         <f t="shared" si="49"/>
         <v>-1.4159892607802929</v>
       </c>
-      <c r="AA55">
+      <c r="AA66">
         <f t="shared" si="49"/>
         <v>-1.2539822704184622</v>
       </c>
-      <c r="AB55">
+      <c r="AB66">
         <f t="shared" si="49"/>
         <v>-1.8604178381198166</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="P56" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q56">
-        <f t="shared" ref="Q56:AB56" si="50">STDEV(Q45:Q52)</f>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P67" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:AB67" si="50">STDEV(Q53:Q60)</f>
         <v>0.34443793973149106</v>
       </c>
-      <c r="R56">
+      <c r="R67">
         <f t="shared" si="50"/>
         <v>0.85692551344294221</v>
       </c>
-      <c r="S56">
+      <c r="S67">
         <f t="shared" si="50"/>
         <v>0.6760925900862389</v>
       </c>
-      <c r="T56">
+      <c r="T67">
         <f t="shared" si="50"/>
         <v>1.2617129564892886</v>
       </c>
-      <c r="U56">
+      <c r="U67">
         <f t="shared" si="50"/>
         <v>1.2632077040498488</v>
       </c>
-      <c r="V56">
+      <c r="V67">
         <f t="shared" si="50"/>
         <v>1.3012714856658889</v>
       </c>
-      <c r="W56">
+      <c r="W67">
         <f t="shared" si="50"/>
         <v>0.80099412106906243</v>
       </c>
-      <c r="X56">
+      <c r="X67">
         <f t="shared" si="50"/>
         <v>1.3462063952969667</v>
       </c>
-      <c r="Y56">
+      <c r="Y67">
         <f t="shared" si="50"/>
         <v>1.0081958419609858</v>
       </c>
-      <c r="Z56">
+      <c r="Z67">
         <f t="shared" si="50"/>
         <v>0.77470919903052182</v>
       </c>
-      <c r="AA56">
+      <c r="AA67">
         <f t="shared" si="50"/>
         <v>0.50780931002161755</v>
       </c>
-      <c r="AB56">
+      <c r="AB67">
         <f t="shared" si="50"/>
         <v>1.3364307141113256</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="P59" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>23</v>
-      </c>
-      <c r="P60" s="10" t="s">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P70" t="s">
         <v>45</v>
       </c>
-      <c r="Q60" s="8">
-        <f t="shared" ref="Q60:AB60" si="51">_xlfn.T.TEST(Q2:Q10,Q45:Q52,2,2)</f>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>107</v>
+      </c>
+      <c r="P71" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q71" s="7">
+        <f t="shared" ref="Q71:AB71" si="51">_xlfn.T.TEST(Q2:Q10,Q53:Q60,2,2)</f>
         <v>5.5145072726480428E-2</v>
       </c>
-      <c r="R60" s="9">
+      <c r="R71" s="8">
         <f t="shared" si="51"/>
         <v>4.3977405081288177E-5</v>
       </c>
-      <c r="S60" s="9">
+      <c r="S71" s="8">
         <f t="shared" si="51"/>
         <v>1.0032649567104937E-2</v>
       </c>
-      <c r="T60" s="9">
+      <c r="T71" s="8">
         <f t="shared" si="51"/>
         <v>1.5350225918183138E-3</v>
       </c>
-      <c r="U60" s="9">
+      <c r="U71" s="8">
         <f t="shared" si="51"/>
         <v>1.7497906717238471E-3</v>
       </c>
-      <c r="V60" s="9">
+      <c r="V71" s="8">
         <f t="shared" si="51"/>
         <v>2.1449973453462935E-2</v>
       </c>
-      <c r="W60" s="9">
+      <c r="W71" s="8">
         <f t="shared" si="51"/>
         <v>4.0830972718957742E-4</v>
       </c>
-      <c r="X60" s="8">
+      <c r="X71" s="7">
         <f t="shared" si="51"/>
         <v>9.3997692194821306E-2</v>
       </c>
-      <c r="Y60" s="9">
+      <c r="Y71" s="8">
         <f t="shared" si="51"/>
         <v>3.9803481252540597E-4</v>
       </c>
-      <c r="Z60" s="8">
+      <c r="Z71" s="7">
         <f t="shared" si="51"/>
         <v>0.11402352774093191</v>
       </c>
-      <c r="AA60" s="8">
+      <c r="AA71" s="7">
         <f t="shared" si="51"/>
         <v>1.1377127001027275E-2</v>
       </c>
-      <c r="AB60" s="9">
+      <c r="AB71" s="8">
         <f t="shared" si="51"/>
         <v>1.0717139617099488E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>35</v>
-      </c>
-      <c r="E61">
-        <v>0.22</v>
-      </c>
-      <c r="P61" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q61" s="6">
-        <f t="shared" ref="Q61:AB61" si="52">_xlfn.T.TEST(Q2:Q10,Q23:Q40,2,2)</f>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72">
+        <v>0.71</v>
+      </c>
+      <c r="P72" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q72" s="6">
+        <f t="shared" ref="Q72:AB72" si="52">_xlfn.T.TEST(Q2:Q10,Q28:Q45,2,2)</f>
         <v>6.2902019898798192E-2</v>
       </c>
-      <c r="R61" s="6">
+      <c r="R72" s="6">
         <f t="shared" si="52"/>
         <v>0.14604120267540949</v>
       </c>
-      <c r="S61" s="9">
+      <c r="S72" s="8">
         <f t="shared" si="52"/>
         <v>1.4263662210353365E-2</v>
       </c>
-      <c r="T61" s="9">
+      <c r="T72" s="8">
         <f t="shared" si="52"/>
         <v>4.8205086841899324E-3</v>
       </c>
-      <c r="U61" s="9">
+      <c r="U72" s="8">
         <f t="shared" si="52"/>
         <v>6.8055399288605174E-3</v>
       </c>
-      <c r="V61" s="9">
+      <c r="V72" s="8">
         <f t="shared" si="52"/>
         <v>1.1979987496421148E-2</v>
       </c>
-      <c r="W61" s="9">
+      <c r="W72" s="8">
         <f t="shared" si="52"/>
         <v>1.4696878782898272E-4</v>
       </c>
-      <c r="X61" s="6">
+      <c r="X72" s="6">
         <f t="shared" si="52"/>
         <v>7.6982026071654219E-2</v>
       </c>
-      <c r="Y61" s="9">
+      <c r="Y72" s="8">
         <f t="shared" si="52"/>
         <v>2.1104805307362732E-3</v>
       </c>
-      <c r="Z61" s="6">
+      <c r="Z72" s="6">
         <f t="shared" si="52"/>
         <v>0.21759952996350579</v>
       </c>
-      <c r="AA61" s="6">
+      <c r="AA72" s="6">
         <f t="shared" si="52"/>
         <v>0.5121993711914461</v>
       </c>
-      <c r="AB61" s="9">
+      <c r="AB72" s="8">
         <f t="shared" si="52"/>
         <v>2.2399260374249195E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62">
-        <v>0.33</v>
-      </c>
-      <c r="P62" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q62" s="6">
-        <f t="shared" ref="Q62:AB62" si="53">_xlfn.T.TEST(Q23:Q40,Q45:Q52,2,2)</f>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73">
+        <v>0.67</v>
+      </c>
+      <c r="P73" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q73" s="6">
+        <f t="shared" ref="Q73:AB73" si="53">_xlfn.T.TEST(Q28:Q45,Q53:Q60,2,2)</f>
         <v>0.59468248545622426</v>
       </c>
-      <c r="R62" s="9">
+      <c r="R73" s="8">
         <f t="shared" si="53"/>
         <v>4.142405635968328E-4</v>
       </c>
-      <c r="S62" s="6">
+      <c r="S73" s="6">
         <f t="shared" si="53"/>
         <v>0.21303646895789771</v>
       </c>
-      <c r="T62" s="6">
+      <c r="T73" s="6">
         <f t="shared" si="53"/>
         <v>8.8345888076191259E-2</v>
       </c>
-      <c r="U62" s="6">
+      <c r="U73" s="6">
         <f t="shared" si="53"/>
         <v>0.165283751545935</v>
       </c>
-      <c r="V62" s="6">
+      <c r="V73" s="6">
         <f t="shared" si="53"/>
         <v>0.26191880194094425</v>
       </c>
-      <c r="W62" s="6">
+      <c r="W73" s="6">
         <f t="shared" si="53"/>
         <v>0.34975994349410322</v>
       </c>
-      <c r="X62" s="6">
+      <c r="X73" s="6">
         <f t="shared" si="53"/>
         <v>0.82886266485204629</v>
       </c>
-      <c r="Y62" s="9">
+      <c r="Y73" s="8">
         <f t="shared" si="53"/>
         <v>2.390489976381335E-2</v>
       </c>
-      <c r="Z62" s="6">
+      <c r="Z73" s="6">
         <f t="shared" si="53"/>
         <v>0.56750566699418326</v>
       </c>
-      <c r="AA62" s="6">
+      <c r="AA73" s="6">
         <f t="shared" si="53"/>
         <v>0.19433235137362281</v>
       </c>
-      <c r="AB62" s="6">
+      <c r="AB73" s="6">
         <f t="shared" si="53"/>
         <v>0.13995484295418473</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
         <v>31</v>
       </c>
-      <c r="D63" t="s">
-        <v>32</v>
-      </c>
-      <c r="E63">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
+      <c r="F75">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>30</v>
       </c>
-      <c r="D64" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67">
-        <v>0.83</v>
-      </c>
-      <c r="G67" t="s">
-        <v>36</v>
+      <c r="F80">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C23:C40">
-    <cfRule type="cellIs" dxfId="29" priority="35" operator="lessThanOrEqual">
-      <formula>$C$54</formula>
+  <conditionalFormatting sqref="C28:C48">
+    <cfRule type="cellIs" dxfId="29" priority="37" operator="lessThanOrEqual">
+      <formula>$C$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="36" operator="greaterThanOrEqual">
-      <formula>$C$16</formula>
+    <cfRule type="cellIs" dxfId="28" priority="38" operator="greaterThanOrEqual">
+      <formula>$C$21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D40">
-    <cfRule type="cellIs" dxfId="27" priority="32" operator="lessThanOrEqual">
-      <formula>$D$54</formula>
+  <conditionalFormatting sqref="D28:D48">
+    <cfRule type="cellIs" dxfId="27" priority="41" operator="lessThanOrEqual">
+      <formula>$D$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="33" operator="greaterThanOrEqual">
-      <formula>$D$16</formula>
+    <cfRule type="cellIs" dxfId="26" priority="42" operator="greaterThanOrEqual">
+      <formula>$D$21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E40">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="lessThanOrEqual">
-      <formula>$E$54</formula>
+  <conditionalFormatting sqref="E28:E48">
+    <cfRule type="cellIs" dxfId="25" priority="45" operator="lessThanOrEqual">
+      <formula>$E$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="greaterThanOrEqual">
-      <formula>$E$16</formula>
+    <cfRule type="cellIs" dxfId="24" priority="46" operator="greaterThanOrEqual">
+      <formula>$E$21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F40">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="lessThanOrEqual">
-      <formula>$F$54</formula>
+  <conditionalFormatting sqref="F28:F48">
+    <cfRule type="cellIs" dxfId="23" priority="49" operator="lessThanOrEqual">
+      <formula>$F$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="greaterThanOrEqual">
-      <formula>$F$16</formula>
+    <cfRule type="cellIs" dxfId="22" priority="50" operator="greaterThanOrEqual">
+      <formula>$F$21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G40">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="lessThanOrEqual">
-      <formula>$G$54</formula>
+  <conditionalFormatting sqref="G28:G48">
+    <cfRule type="cellIs" dxfId="21" priority="53" operator="lessThanOrEqual">
+      <formula>$G$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="greaterThanOrEqual">
-      <formula>$G$16</formula>
+    <cfRule type="cellIs" dxfId="20" priority="54" operator="greaterThanOrEqual">
+      <formula>$G$21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H40">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="lessThanOrEqual">
-      <formula>$H$54</formula>
+  <conditionalFormatting sqref="H28:H48">
+    <cfRule type="cellIs" dxfId="19" priority="57" operator="lessThanOrEqual">
+      <formula>$H$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="greaterThanOrEqual">
-      <formula>$H$16</formula>
+    <cfRule type="cellIs" dxfId="18" priority="58" operator="greaterThanOrEqual">
+      <formula>$H$21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23:I40">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThanOrEqual">
-      <formula>$I$54</formula>
+  <conditionalFormatting sqref="I28:I48">
+    <cfRule type="cellIs" dxfId="17" priority="61" operator="lessThanOrEqual">
+      <formula>$I$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThanOrEqual">
-      <formula>$I$16</formula>
+    <cfRule type="cellIs" dxfId="16" priority="62" operator="greaterThanOrEqual">
+      <formula>$I$21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:J40">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="lessThanOrEqual">
-      <formula>$J$54</formula>
+  <conditionalFormatting sqref="J28:J48">
+    <cfRule type="cellIs" dxfId="15" priority="65" operator="lessThanOrEqual">
+      <formula>$J$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThanOrEqual">
-      <formula>$J$16</formula>
+    <cfRule type="cellIs" dxfId="14" priority="66" operator="greaterThanOrEqual">
+      <formula>$J$21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:K40">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="lessThanOrEqual">
-      <formula>$K$54</formula>
+  <conditionalFormatting sqref="K28:K48">
+    <cfRule type="cellIs" dxfId="13" priority="69" operator="lessThanOrEqual">
+      <formula>$K$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThanOrEqual">
-      <formula>$K$16</formula>
+    <cfRule type="cellIs" dxfId="12" priority="70" operator="greaterThanOrEqual">
+      <formula>$K$21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L23:L40">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="lessThanOrEqual">
-      <formula>$L$54</formula>
+  <conditionalFormatting sqref="L28:L48">
+    <cfRule type="cellIs" dxfId="11" priority="73" operator="lessThanOrEqual">
+      <formula>$L$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThanOrEqual">
-      <formula>$L$16</formula>
+    <cfRule type="cellIs" dxfId="10" priority="74" operator="greaterThanOrEqual">
+      <formula>$L$21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M23:M40">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThanOrEqual">
-      <formula>$M$54</formula>
+  <conditionalFormatting sqref="M28:M48">
+    <cfRule type="cellIs" dxfId="9" priority="77" operator="lessThanOrEqual">
+      <formula>$M$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThanOrEqual">
-      <formula>$M$16</formula>
+    <cfRule type="cellIs" dxfId="8" priority="78" operator="greaterThanOrEqual">
+      <formula>$M$21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23:N40">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThanOrEqual">
-      <formula>$N$54</formula>
+  <conditionalFormatting sqref="N28:N48">
+    <cfRule type="cellIs" dxfId="7" priority="81" operator="lessThanOrEqual">
+      <formula>$N$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThanOrEqual">
-      <formula>$N$16</formula>
+    <cfRule type="cellIs" dxfId="6" priority="82" operator="greaterThanOrEqual">
+      <formula>$N$21</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8885,100 +9908,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="S1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="X1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="Y1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="AA1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="Y1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>58</v>
+      <c r="A2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C2">
         <v>88</v>
@@ -9057,11 +10080,11 @@
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>58</v>
+      <c r="A3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C3">
         <v>254</v>
@@ -9143,240 +10166,240 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F4">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J4">
         <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L4">
         <v>7</v>
       </c>
       <c r="M4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N4">
         <v>16</v>
       </c>
       <c r="O4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P4">
         <v>64</v>
       </c>
       <c r="Q4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T4">
         <v>19</v>
       </c>
       <c r="U4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="V4">
         <v>4</v>
       </c>
       <c r="W4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="X4">
         <v>16</v>
       </c>
       <c r="Y4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Z4">
         <v>6</v>
       </c>
       <c r="AA4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>26</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>89</v>
+      <c r="E5" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H5">
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J5">
         <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L5">
         <v>6</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N5">
         <v>-6</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P5">
         <v>32</v>
       </c>
       <c r="Q5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R5">
         <v>3</v>
       </c>
       <c r="S5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T5">
         <v>7</v>
       </c>
       <c r="U5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V5">
         <v>3</v>
       </c>
       <c r="W5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="X5">
         <v>-5</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Z5">
         <v>5</v>
       </c>
       <c r="AA5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>29</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J6">
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L6">
         <v>6</v>
       </c>
       <c r="M6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N6">
         <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P6">
         <v>88</v>
       </c>
       <c r="Q6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T6">
         <v>7</v>
       </c>
       <c r="U6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="V6">
         <v>3</v>
       </c>
       <c r="W6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="X6">
         <v>58</v>
       </c>
       <c r="Y6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Z6">
         <v>6</v>
       </c>
       <c r="AA6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -10276,7 +11299,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="90" x14ac:dyDescent="0.25">
@@ -10317,10 +11340,10 @@
         <v>15</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>13</v>
@@ -10331,14 +11354,14 @@
       <c r="Q24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R24" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="S24" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="T24" s="12" t="s">
-        <v>104</v>
+      <c r="R24" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="S24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -10502,7 +11525,7 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F28">
         <v>4.9050000000000002</v>
@@ -10543,7 +11566,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F29">
         <v>0.93400000000000005</v>
@@ -10774,23 +11797,23 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="E35" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="F35" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="R35">
         <v>-1.1691169500364103</v>
@@ -10822,7 +11845,7 @@
         <v>1.060654084223299</v>
       </c>
       <c r="G36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -10845,7 +11868,7 @@
         <v>0.88647871361902775</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -10882,15 +11905,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -12945,7 +13968,7 @@
     </row>
     <row r="41" spans="1:19" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>7</v>
@@ -13145,7 +14168,7 @@
     </row>
     <row r="47" spans="1:19" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -13252,7 +14275,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A22"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CBS/Analysis/Data.xlsx
+++ b/CBS/Analysis/Data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\CBS\Analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" activeTab="3"/>
+    <workbookView xWindow="1760" yWindow="540" windowWidth="26740" windowHeight="18420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -21,20 +16,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Raw Data'!$E$1:$E$57</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="108">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -364,7 +359,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +381,28 @@
       <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -433,16 +450,26 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -469,8 +496,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
@@ -976,7 +1017,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -984,34 +1025,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="3" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" customWidth="1"/>
+    <col min="2" max="3" width="6.1640625" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="6.5" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="6.5" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" customWidth="1"/>
+    <col min="14" max="14" width="6.5" customWidth="1"/>
     <col min="15" max="15" width="6" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" customWidth="1"/>
+    <col min="17" max="17" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="72.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1161,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1176,7 +1217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1232,7 +1273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1288,7 +1329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1344,7 +1385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1400,7 +1441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1456,7 +1497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1512,7 +1553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1568,7 +1609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1624,7 +1665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1680,7 +1721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1736,7 +1777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1792,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1848,7 +1889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1904,7 +1945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1960,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2016,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2072,7 +2113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2128,7 +2169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2184,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2225,7 +2266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2281,7 +2322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2337,7 +2378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2393,7 +2434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2449,7 +2490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2505,7 +2546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2561,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2617,7 +2658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2673,7 +2714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2729,7 +2770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2785,7 +2826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2841,7 +2882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2897,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2953,7 +2994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3009,7 +3050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3065,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3121,7 +3162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3177,7 +3218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3233,7 +3274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3289,7 +3330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3345,7 +3386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3401,7 +3442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3457,7 +3498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3513,7 +3554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3569,7 +3610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3625,7 +3666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3681,12 +3722,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19">
       <c r="A49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3742,7 +3786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3798,7 +3842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3854,7 +3898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3910,7 +3954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3966,7 +4010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -4035,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -4104,7 +4148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -4173,7 +4217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19">
       <c r="C59">
         <f>STDEV(C3:C54)</f>
         <v>8.7746068567313245</v>
@@ -4235,9 +4279,197 @@
         <v>1.8274593957561014</v>
       </c>
     </row>
+    <row r="62" spans="1:19">
+      <c r="C62">
+        <v>62</v>
+      </c>
+      <c r="D62">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>16</v>
+      </c>
+      <c r="F62">
+        <v>-7</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>-1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62">
+        <v>-11</v>
+      </c>
+      <c r="P62">
+        <v>-5</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="C63">
+        <v>97</v>
+      </c>
+      <c r="D63">
+        <v>30</v>
+      </c>
+      <c r="E63">
+        <v>30</v>
+      </c>
+      <c r="F63">
+        <v>39</v>
+      </c>
+      <c r="G63">
+        <v>19</v>
+      </c>
+      <c r="H63">
+        <v>30</v>
+      </c>
+      <c r="I63">
+        <v>22</v>
+      </c>
+      <c r="J63">
+        <v>7</v>
+      </c>
+      <c r="K63">
+        <v>10</v>
+      </c>
+      <c r="L63">
+        <v>6</v>
+      </c>
+      <c r="M63">
+        <v>7</v>
+      </c>
+      <c r="N63">
+        <v>110</v>
+      </c>
+      <c r="O63">
+        <v>98</v>
+      </c>
+      <c r="P63">
+        <v>66</v>
+      </c>
+      <c r="Q63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="C64">
+        <v>80.745098039215691</v>
+      </c>
+      <c r="D64">
+        <v>24.627450980392158</v>
+      </c>
+      <c r="E64">
+        <v>27.725490196078432</v>
+      </c>
+      <c r="F64">
+        <v>9.4313725490196081</v>
+      </c>
+      <c r="G64">
+        <v>11.411764705882353</v>
+      </c>
+      <c r="H64">
+        <v>12.44</v>
+      </c>
+      <c r="I64">
+        <v>10.352941176470589</v>
+      </c>
+      <c r="J64">
+        <v>4.8039215686274508</v>
+      </c>
+      <c r="K64">
+        <v>5.78</v>
+      </c>
+      <c r="L64">
+        <v>3.5490196078431371</v>
+      </c>
+      <c r="M64">
+        <v>4.26</v>
+      </c>
+      <c r="N64">
+        <v>68.319999999999993</v>
+      </c>
+      <c r="O64">
+        <v>32.42</v>
+      </c>
+      <c r="P64">
+        <v>17.725490196078432</v>
+      </c>
+      <c r="Q64">
+        <v>5.6862745098039218</v>
+      </c>
+    </row>
+    <row r="65" spans="3:17">
+      <c r="C65">
+        <v>8.7746068567313245</v>
+      </c>
+      <c r="D65">
+        <v>3.9897908933362687</v>
+      </c>
+      <c r="E65">
+        <v>2.7646224434634754</v>
+      </c>
+      <c r="F65">
+        <v>11.905049184208833</v>
+      </c>
+      <c r="G65">
+        <v>3.4535574156989783</v>
+      </c>
+      <c r="H65">
+        <v>7.0974557096906494</v>
+      </c>
+      <c r="I65">
+        <v>5.8849758858019623</v>
+      </c>
+      <c r="J65">
+        <v>1.7552163153655704</v>
+      </c>
+      <c r="K65">
+        <v>1.6449055552566791</v>
+      </c>
+      <c r="L65">
+        <v>0.92333581085531558</v>
+      </c>
+      <c r="M65">
+        <v>1.225744255377865</v>
+      </c>
+      <c r="N65">
+        <v>25.672537538651483</v>
+      </c>
+      <c r="O65">
+        <v>26.117544341859162</v>
+      </c>
+      <c r="P65">
+        <v>16.761955054673724</v>
+      </c>
+      <c r="Q65">
+        <v>1.8274593957561014</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4250,16 +4482,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC80"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="90">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -4337,7 +4569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>6</v>
       </c>
@@ -4429,7 +4661,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>11</v>
       </c>
@@ -4521,7 +4753,7 @@
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>16</v>
       </c>
@@ -4613,7 +4845,7 @@
         <v>1.0868706410559206</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>18</v>
       </c>
@@ -4705,7 +4937,7 @@
         <v>-1.1548000561219161</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>19</v>
       </c>
@@ -4797,7 +5029,7 @@
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>21</v>
       </c>
@@ -4889,7 +5121,7 @@
         <v>1.1932716806534354</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>32</v>
       </c>
@@ -4981,7 +5213,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>34</v>
       </c>
@@ -5073,7 +5305,7 @@
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>35</v>
       </c>
@@ -5165,7 +5397,7 @@
         <v>1.0868706410559206</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>36</v>
       </c>
@@ -5257,7 +5489,7 @@
         <v>1.0868706410559206</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>38</v>
       </c>
@@ -5349,7 +5581,7 @@
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>39</v>
       </c>
@@ -5441,7 +5673,7 @@
         <v>1.0868706410559206</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>40</v>
       </c>
@@ -5533,7 +5765,7 @@
         <v>-1.1548000561219161</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>41</v>
       </c>
@@ -5625,7 +5857,7 @@
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>42</v>
       </c>
@@ -5669,7 +5901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29">
       <c r="A17">
         <v>43</v>
       </c>
@@ -5713,7 +5945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29">
       <c r="A18">
         <v>44</v>
       </c>
@@ -5757,7 +5989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29">
       <c r="A19">
         <v>45</v>
       </c>
@@ -5801,7 +6033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -5867,7 +6099,7 @@
       <c r="AB21" s="7"/>
       <c r="AC21" s="3"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -5921,7 +6153,7 @@
       </c>
       <c r="AC22" s="3"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -6014,7 +6246,7 @@
       </c>
       <c r="AC23" s="3"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -6107,7 +6339,7 @@
       </c>
       <c r="AC24" s="3"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -6161,7 +6393,7 @@
       <c r="AB25" s="7"/>
       <c r="AC25" s="3"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -6215,7 +6447,7 @@
       <c r="AB26" s="7"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:29" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" s="1" customFormat="1" ht="72.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -6234,7 +6466,7 @@
       <c r="G27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="19" t="s">
         <v>12</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -6292,7 +6524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29">
       <c r="A28">
         <v>2</v>
       </c>
@@ -6384,7 +6616,7 @@
         <v>-1.1548000561219161</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29">
       <c r="A29">
         <v>3</v>
       </c>
@@ -6476,7 +6708,7 @@
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29">
       <c r="A30">
         <v>5</v>
       </c>
@@ -6568,11 +6800,11 @@
         <v>0.34189244782766975</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29">
       <c r="A31">
         <v>8</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C31">
@@ -6660,7 +6892,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29">
       <c r="A32">
         <v>9</v>
       </c>
@@ -6752,11 +6984,11 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>10</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C33">
@@ -6844,7 +7076,7 @@
         <v>-4.8909178847516435</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>13</v>
       </c>
@@ -6936,7 +7168,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>14</v>
       </c>
@@ -7028,11 +7260,11 @@
         <v>-1.1548000561219161</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>17</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C36">
@@ -7120,7 +7352,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>22</v>
       </c>
@@ -7212,7 +7444,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>24</v>
       </c>
@@ -7304,7 +7536,7 @@
         <v>-3.3964707532997527</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>25</v>
       </c>
@@ -7396,11 +7628,11 @@
         <v>1.0868706410559206</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>26</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C40">
@@ -7488,11 +7720,11 @@
         <v>-0.50948678499809574</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>27</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C41">
@@ -7580,11 +7812,11 @@
         <v>-1.9020236218478617</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>29</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C42">
@@ -7672,7 +7904,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>30</v>
       </c>
@@ -7764,7 +7996,7 @@
         <v>-1.3608660178238612</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>31</v>
       </c>
@@ -7856,7 +8088,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>33</v>
       </c>
@@ -7948,7 +8180,7 @@
         <v>-1.9020236218478617</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>48</v>
       </c>
@@ -7992,11 +8224,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>50</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C47">
@@ -8036,11 +8268,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>51</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C48">
@@ -8080,7 +8312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28">
       <c r="C49" s="17">
         <f>8/21</f>
         <v>0.38095238095238093</v>
@@ -8130,7 +8362,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28">
       <c r="C50" s="4">
         <f>3/21</f>
         <v>0.14285714285714285</v>
@@ -8230,7 +8462,7 @@
         <v>-0.96422300363172964</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28">
       <c r="C51" s="5">
         <f>10/21</f>
         <v>0.47619047619047616</v>
@@ -8331,7 +8563,7 @@
         <v>1.399841146846172</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" s="1" customFormat="1" ht="72.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
@@ -8408,7 +8640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>1</v>
       </c>
@@ -8500,7 +8732,7 @@
         <v>-3.0636244834753925</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>4</v>
       </c>
@@ -8592,7 +8824,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>7</v>
       </c>
@@ -8684,7 +8916,7 @@
         <v>-3.3964707532997527</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>12</v>
       </c>
@@ -8776,7 +9008,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>15</v>
       </c>
@@ -8868,7 +9100,7 @@
         <v>-3.3964707532997527</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>20</v>
       </c>
@@ -8925,7 +9157,7 @@
         <v>-1.9020236218478617</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>23</v>
       </c>
@@ -9017,7 +9249,7 @@
         <v>-0.4075764903959706</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>28</v>
       </c>
@@ -9109,7 +9341,7 @@
         <v>-1.9020236218478617</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28">
       <c r="A61">
         <v>37</v>
       </c>
@@ -9201,7 +9433,7 @@
         <v>0.33964707532997496</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>46</v>
       </c>
@@ -9245,7 +9477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28">
       <c r="A63">
         <v>49</v>
       </c>
@@ -9289,7 +9521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28">
       <c r="A64">
         <v>52</v>
       </c>
@@ -9333,7 +9565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -9386,7 +9618,7 @@
         <v>4.666666666666667</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -9490,7 +9722,7 @@
         <v>-1.8604178381198166</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28">
       <c r="P67" t="s">
         <v>35</v>
       </c>
@@ -9543,12 +9775,12 @@
         <v>1.3364307141113256</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28">
       <c r="P70" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28">
       <c r="C71" t="s">
         <v>107</v>
       </c>
@@ -9604,7 +9836,7 @@
         <v>1.0717139617099488E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28">
       <c r="C72" t="s">
         <v>28</v>
       </c>
@@ -9669,7 +9901,7 @@
         <v>2.2399260374249195E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28">
       <c r="C73" t="s">
         <v>22</v>
       </c>
@@ -9731,7 +9963,7 @@
         <v>0.13995484295418473</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28">
       <c r="C74" t="s">
         <v>27</v>
       </c>
@@ -9739,7 +9971,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28">
       <c r="C75" t="s">
         <v>31</v>
       </c>
@@ -9747,7 +9979,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28">
       <c r="C76" t="s">
         <v>29</v>
       </c>
@@ -9755,7 +9987,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28">
       <c r="C77" t="s">
         <v>24</v>
       </c>
@@ -9763,7 +9995,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28">
       <c r="C78" t="s">
         <v>33</v>
       </c>
@@ -9771,7 +10003,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28">
       <c r="C79" t="s">
         <v>25</v>
       </c>
@@ -9779,7 +10011,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28">
       <c r="C80" t="s">
         <v>30</v>
       </c>
@@ -9885,7 +10117,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9902,12 +10134,12 @@
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="18" max="18" width="14.5703125" customWidth="1"/>
+    <col min="18" max="18" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33">
       <c r="A1" s="11" t="s">
         <v>56</v>
       </c>
@@ -9996,7 +10228,7 @@
       <c r="AF1" s="11"/>
       <c r="AG1" s="11"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33">
       <c r="A2" s="11" t="s">
         <v>54</v>
       </c>
@@ -10079,7 +10311,7 @@
         <v>1.8026669549504204</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33">
       <c r="A3" s="11" t="s">
         <v>83</v>
       </c>
@@ -10162,7 +10394,7 @@
         <v>1.9766973674918358</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10242,7 +10474,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33">
       <c r="A5">
         <v>26</v>
       </c>
@@ -10322,7 +10554,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33">
       <c r="A6">
         <v>29</v>
       </c>
@@ -10402,7 +10634,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33">
       <c r="D9" t="s">
         <v>20</v>
       </c>
@@ -10476,7 +10708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33">
       <c r="A10">
         <v>50</v>
       </c>
@@ -10577,7 +10809,7 @@
         <v>6.3346456692913389</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33">
       <c r="A11">
         <v>75</v>
       </c>
@@ -10678,7 +10910,7 @@
         <v>7.6689163923483283</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33">
       <c r="A12">
         <v>90</v>
       </c>
@@ -10779,7 +11011,7 @@
         <v>8.868771694415873</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33">
       <c r="A13">
         <v>95</v>
       </c>
@@ -10880,7 +11112,7 @@
         <v>9.5863128388154095</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33">
       <c r="A14">
         <v>25</v>
       </c>
@@ -10981,7 +11213,7 @@
         <v>5.0003749462343494</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33">
       <c r="A15">
         <v>10</v>
       </c>
@@ -11082,7 +11314,7 @@
         <v>3.8005196441668052</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="90">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -11138,7 +11370,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>3</v>
       </c>
@@ -11191,7 +11423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>26</v>
       </c>
@@ -11244,7 +11476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>29</v>
       </c>
@@ -11297,12 +11529,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="90">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -11364,7 +11596,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>3</v>
       </c>
@@ -11417,7 +11649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>26</v>
       </c>
@@ -11470,7 +11702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>29</v>
       </c>
@@ -11523,7 +11755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -11564,7 +11796,7 @@
         <v>6.3209999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -11605,12 +11837,12 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>3</v>
       </c>
@@ -11672,7 +11904,7 @@
         <v>-1.9128377881418299</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>26</v>
       </c>
@@ -11734,7 +11966,7 @@
         <v>-2.5805773021867999</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="A33">
         <v>29</v>
       </c>
@@ -11796,7 +12028,7 @@
         <v>-1.3775991957895499</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="A35" s="11" t="s">
         <v>97</v>
       </c>
@@ -11825,7 +12057,7 @@
         <v>-0.31275686915146178</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>-1.1779660921244217</v>
       </c>
@@ -11848,7 +12080,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="A37">
         <v>-1.1602678079483986</v>
       </c>
@@ -11897,7 +12129,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11905,13 +12142,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="72.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -11952,7 +12189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>2</v>
       </c>
@@ -12005,7 +12242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>3</v>
       </c>
@@ -12058,7 +12295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>4</v>
       </c>
@@ -12111,7 +12348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>5</v>
       </c>
@@ -12164,7 +12401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>6</v>
       </c>
@@ -12217,7 +12454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>8</v>
       </c>
@@ -12270,7 +12507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>9</v>
       </c>
@@ -12323,7 +12560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>10</v>
       </c>
@@ -12376,7 +12613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>11</v>
       </c>
@@ -12429,7 +12666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>12</v>
       </c>
@@ -12482,7 +12719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>13</v>
       </c>
@@ -12535,7 +12772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>14</v>
       </c>
@@ -12588,7 +12825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>15</v>
       </c>
@@ -12641,7 +12878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>16</v>
       </c>
@@ -12694,7 +12931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>17</v>
       </c>
@@ -12747,7 +12984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>18</v>
       </c>
@@ -12800,7 +13037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>19</v>
       </c>
@@ -12853,7 +13090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>20</v>
       </c>
@@ -12891,7 +13128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>21</v>
       </c>
@@ -12944,7 +13181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>22</v>
       </c>
@@ -12997,7 +13234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>24</v>
       </c>
@@ -13050,7 +13287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>25</v>
       </c>
@@ -13103,7 +13340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>26</v>
       </c>
@@ -13156,7 +13393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>27</v>
       </c>
@@ -13209,7 +13446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>28</v>
       </c>
@@ -13262,7 +13499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>29</v>
       </c>
@@ -13315,7 +13552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>30</v>
       </c>
@@ -13368,7 +13605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>31</v>
       </c>
@@ -13421,7 +13658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>32</v>
       </c>
@@ -13474,7 +13711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>33</v>
       </c>
@@ -13527,7 +13764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>34</v>
       </c>
@@ -13580,7 +13817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>35</v>
       </c>
@@ -13633,7 +13870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>37</v>
       </c>
@@ -13689,7 +13926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>38</v>
       </c>
@@ -13745,7 +13982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>39</v>
       </c>
@@ -13801,7 +14038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>40</v>
       </c>
@@ -13857,7 +14094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38">
         <v>41</v>
       </c>
@@ -13913,7 +14150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -13966,7 +14203,7 @@
         <v>5.59375</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="1" customFormat="1" ht="72.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -14007,7 +14244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42">
         <v>7</v>
       </c>
@@ -14060,7 +14297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43">
         <v>23</v>
       </c>
@@ -14113,7 +14350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -14166,7 +14403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="1" customFormat="1" ht="72.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -14207,7 +14444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48">
         <v>1</v>
       </c>
@@ -14275,11 +14512,16 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/CBS/Analysis/Data.xlsx
+++ b/CBS/Analysis/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="540" windowWidth="26740" windowHeight="18420" activeTab="1"/>
+    <workbookView xWindow="880" yWindow="300" windowWidth="32060" windowHeight="14920" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="110">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -354,6 +354,12 @@
   <si>
     <t>amount left in middle</t>
   </si>
+  <si>
+    <t>Borderline 23-25</t>
+  </si>
+  <si>
+    <t>Unimpaired 26-30</t>
+  </si>
 </sst>
 </file>
 
@@ -456,8 +462,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -501,20 +521,202 @@
       <alignment textRotation="45"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="104">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -572,6 +774,362 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1017,7 +1575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1030,9 +1588,9 @@
   </sheetPr>
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M62" sqref="M62"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4468,6 +5026,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D3:D54">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
+      <formula>26</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
@@ -4482,8 +5045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection sqref="A1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10021,98 +10584,98 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C28:C48">
-    <cfRule type="cellIs" dxfId="29" priority="37" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="53" priority="37" operator="lessThanOrEqual">
       <formula>$C$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="38" operator="greaterThanOrEqual">
       <formula>$C$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D48">
-    <cfRule type="cellIs" dxfId="27" priority="41" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="51" priority="41" operator="lessThanOrEqual">
       <formula>$D$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="50" priority="42" operator="greaterThanOrEqual">
       <formula>$D$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E48">
-    <cfRule type="cellIs" dxfId="25" priority="45" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="49" priority="45" operator="lessThanOrEqual">
       <formula>$E$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="46" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="48" priority="46" operator="greaterThanOrEqual">
       <formula>$E$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F48">
-    <cfRule type="cellIs" dxfId="23" priority="49" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="lessThanOrEqual">
       <formula>$F$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="50" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="greaterThanOrEqual">
       <formula>$F$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G48">
-    <cfRule type="cellIs" dxfId="21" priority="53" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="45" priority="53" operator="lessThanOrEqual">
       <formula>$G$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="54" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="54" operator="greaterThanOrEqual">
       <formula>$G$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H48">
-    <cfRule type="cellIs" dxfId="19" priority="57" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="43" priority="57" operator="lessThanOrEqual">
       <formula>$H$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="58" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="58" operator="greaterThanOrEqual">
       <formula>$H$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I48">
-    <cfRule type="cellIs" dxfId="17" priority="61" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="41" priority="61" operator="lessThanOrEqual">
       <formula>$I$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="62" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="62" operator="greaterThanOrEqual">
       <formula>$I$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J48">
-    <cfRule type="cellIs" dxfId="15" priority="65" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="39" priority="65" operator="lessThanOrEqual">
       <formula>$J$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="66" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="66" operator="greaterThanOrEqual">
       <formula>$J$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K48">
-    <cfRule type="cellIs" dxfId="13" priority="69" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="37" priority="69" operator="lessThanOrEqual">
       <formula>$K$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="70" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="70" operator="greaterThanOrEqual">
       <formula>$K$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28:L48">
-    <cfRule type="cellIs" dxfId="11" priority="73" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="35" priority="73" operator="lessThanOrEqual">
       <formula>$L$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="74" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="74" operator="greaterThanOrEqual">
       <formula>$L$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:M48">
-    <cfRule type="cellIs" dxfId="9" priority="77" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="33" priority="77" operator="lessThanOrEqual">
       <formula>$M$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="78" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="78" operator="greaterThanOrEqual">
       <formula>$M$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:N48">
-    <cfRule type="cellIs" dxfId="7" priority="81" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="31" priority="81" operator="lessThanOrEqual">
       <formula>$N$65</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="82" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="82" operator="greaterThanOrEqual">
       <formula>$N$21</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12105,26 +12668,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R31:R33">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="lessThan">
       <formula>$R$35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="greaterThan">
       <formula>$R$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31:S33">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="lessThan">
       <formula>-1.075180973</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="greaterThan">
       <formula>$S$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:T33">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="lessThan">
       <formula>$T$35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThan">
       <formula>$T$35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14509,15 +15072,3085 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="90">
+      <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>80</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>19</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>69</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>110</v>
+      </c>
+      <c r="L4">
+        <v>37</v>
+      </c>
+      <c r="M4">
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>-6</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>101</v>
+      </c>
+      <c r="L5">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>90</v>
+      </c>
+      <c r="L6">
+        <v>44</v>
+      </c>
+      <c r="M6">
+        <v>13</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>110</v>
+      </c>
+      <c r="L7">
+        <v>23</v>
+      </c>
+      <c r="M7">
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>90</v>
+      </c>
+      <c r="L8">
+        <v>45</v>
+      </c>
+      <c r="M8">
+        <v>12</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>88</v>
+      </c>
+      <c r="M9">
+        <v>24</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>64</v>
+      </c>
+      <c r="L10">
+        <v>69</v>
+      </c>
+      <c r="M10">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>110</v>
+      </c>
+      <c r="L11">
+        <v>88</v>
+      </c>
+      <c r="M11">
+        <v>66</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>81</v>
+      </c>
+      <c r="L12">
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <v>-1</v>
+      </c>
+      <c r="N12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>81</v>
+      </c>
+      <c r="L13">
+        <v>52</v>
+      </c>
+      <c r="M13">
+        <v>30</v>
+      </c>
+      <c r="N13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>110</v>
+      </c>
+      <c r="L14">
+        <v>45</v>
+      </c>
+      <c r="M14">
+        <v>23</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>72</v>
+      </c>
+      <c r="L15">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>92</v>
+      </c>
+      <c r="L16">
+        <v>44</v>
+      </c>
+      <c r="M16">
+        <v>29</v>
+      </c>
+      <c r="N16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>29</v>
+      </c>
+      <c r="F17">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>90</v>
+      </c>
+      <c r="L17">
+        <v>79</v>
+      </c>
+      <c r="M17">
+        <v>55</v>
+      </c>
+      <c r="N17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>23</v>
+      </c>
+      <c r="F18">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>77</v>
+      </c>
+      <c r="L18">
+        <v>60</v>
+      </c>
+      <c r="M18">
+        <v>66</v>
+      </c>
+      <c r="N18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <v>90</v>
+      </c>
+      <c r="L19">
+        <v>74</v>
+      </c>
+      <c r="M19">
+        <v>11</v>
+      </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>14</v>
+      </c>
+      <c r="G20" s="3">
+        <v>7</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
+        <v>64</v>
+      </c>
+      <c r="L20" s="3">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3">
+        <v>17</v>
+      </c>
+      <c r="N20" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3">
+        <v>15</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6</v>
+      </c>
+      <c r="I21" s="3">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>64</v>
+      </c>
+      <c r="L21" s="3">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3">
+        <v>14</v>
+      </c>
+      <c r="F22" s="3">
+        <v>14</v>
+      </c>
+      <c r="G22" s="3">
+        <v>7</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
+        <v>72</v>
+      </c>
+      <c r="L22" s="3">
+        <v>24</v>
+      </c>
+      <c r="M22" s="3">
+        <v>12</v>
+      </c>
+      <c r="N22" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3">
+        <v>13</v>
+      </c>
+      <c r="G23" s="3">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3">
+        <v>6</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3">
+        <v>4</v>
+      </c>
+      <c r="K23" s="3">
+        <v>64</v>
+      </c>
+      <c r="L23" s="3">
+        <v>78</v>
+      </c>
+      <c r="M23" s="3">
+        <v>31</v>
+      </c>
+      <c r="N23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24">
+        <v>29</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3">
+        <v>10</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>6</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
+        <v>88</v>
+      </c>
+      <c r="L24" s="3">
+        <v>36</v>
+      </c>
+      <c r="M24" s="3">
+        <v>58</v>
+      </c>
+      <c r="N24" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3">
+        <v>16</v>
+      </c>
+      <c r="D25" s="3">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3">
+        <v>12</v>
+      </c>
+      <c r="F25" s="3">
+        <v>13</v>
+      </c>
+      <c r="G25" s="3">
+        <v>6</v>
+      </c>
+      <c r="H25" s="3">
+        <v>8</v>
+      </c>
+      <c r="I25" s="3">
+        <v>4</v>
+      </c>
+      <c r="J25" s="3">
+        <v>5</v>
+      </c>
+      <c r="K25" s="3">
+        <v>72</v>
+      </c>
+      <c r="L25" s="3">
+        <v>15</v>
+      </c>
+      <c r="M25" s="3">
+        <v>23</v>
+      </c>
+      <c r="N25" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26">
+        <v>51</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6</v>
+      </c>
+      <c r="F26" s="3">
+        <v>10</v>
+      </c>
+      <c r="G26" s="3">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3">
+        <v>72</v>
+      </c>
+      <c r="L26" s="3">
+        <v>37</v>
+      </c>
+      <c r="M26" s="3">
+        <v>19</v>
+      </c>
+      <c r="N26" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="4">
+        <f>AVERAGE(C2:C27)</f>
+        <v>14.68</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" ref="D28:N28" si="0">AVERAGE(D2:D27)</f>
+        <v>11.68</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>15.16</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="0"/>
+        <v>14.04</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="0"/>
+        <v>5.88</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="0"/>
+        <v>4.04</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="0"/>
+        <v>4.84</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="0"/>
+        <v>84.52</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="0"/>
+        <v>25.32</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="7">
+        <f>STDEV(C2:C27)</f>
+        <v>13.322036881298095</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" ref="D29:N29" si="1">STDEV(D2:D27)</f>
+        <v>2.8682166352398606</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="1"/>
+        <v>7.5204166551240128</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="1"/>
+        <v>4.2669270753865325</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0923979738782623</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792515</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="1"/>
+        <v>0.88881944173155836</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" si="1"/>
+        <v>0.94339811320566069</v>
+      </c>
+      <c r="K29" s="7">
+        <f t="shared" si="1"/>
+        <v>15.745687240214899</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="1"/>
+        <v>25.414890648331866</v>
+      </c>
+      <c r="M29" s="7">
+        <f t="shared" si="1"/>
+        <v>17.768699070744226</v>
+      </c>
+      <c r="N29" s="7">
+        <f t="shared" si="1"/>
+        <v>1.3844373104863459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>18.228346456692915</v>
+      </c>
+      <c r="D30">
+        <v>13.153543307086615</v>
+      </c>
+      <c r="E30">
+        <v>14.464566929133857</v>
+      </c>
+      <c r="F30">
+        <v>13.799212598425196</v>
+      </c>
+      <c r="G30">
+        <v>6.7913385826771657</v>
+      </c>
+      <c r="H30">
+        <v>6.3346456692913389</v>
+      </c>
+      <c r="I30">
+        <v>4.1929133858267713</v>
+      </c>
+      <c r="J30">
+        <v>4.9133858267716537</v>
+      </c>
+      <c r="K30">
+        <v>92.086614173228341</v>
+      </c>
+      <c r="L30">
+        <v>63.562992125984252</v>
+      </c>
+      <c r="M30">
+        <v>30.5748031496063</v>
+      </c>
+      <c r="N30">
+        <v>6.5984251968503935</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31">
+        <v>10.583146402125475</v>
+      </c>
+      <c r="D31">
+        <v>2.2272227082598239</v>
+      </c>
+      <c r="E31">
+        <v>7.3509379634263734</v>
+      </c>
+      <c r="F31">
+        <v>4.0950948400604421</v>
+      </c>
+      <c r="G31">
+        <v>1.4689688040796682</v>
+      </c>
+      <c r="H31">
+        <v>1.9766973674918358</v>
+      </c>
+      <c r="I31">
+        <v>1.0050214716493548</v>
+      </c>
+      <c r="J31">
+        <v>0.93270503831274443</v>
+      </c>
+      <c r="K31">
+        <v>25.645045479796412</v>
+      </c>
+      <c r="L31">
+        <v>27.978852271153031</v>
+      </c>
+      <c r="M31">
+        <v>19.013005611216862</v>
+      </c>
+      <c r="N31">
+        <v>1.1745647079985209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>17.386363636363637</v>
+      </c>
+      <c r="D32">
+        <v>13.670454545454545</v>
+      </c>
+      <c r="E32">
+        <v>14.443181818181818</v>
+      </c>
+      <c r="F32">
+        <v>13.863636363636363</v>
+      </c>
+      <c r="G32">
+        <v>6.75</v>
+      </c>
+      <c r="H32">
+        <v>6.3068181818181817</v>
+      </c>
+      <c r="I32">
+        <v>4.3295454545454541</v>
+      </c>
+      <c r="J32">
+        <v>4.8977272727272725</v>
+      </c>
+      <c r="K32">
+        <v>99.443181818181813</v>
+      </c>
+      <c r="L32">
+        <v>61.329545454545453</v>
+      </c>
+      <c r="M32">
+        <v>34.295454545454547</v>
+      </c>
+      <c r="N32">
+        <v>6.5454545454545459</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>11.898451380140152</v>
+      </c>
+      <c r="D33">
+        <v>2.5358196702859193</v>
+      </c>
+      <c r="E33">
+        <v>7.6831775552744146</v>
+      </c>
+      <c r="F33">
+        <v>5.124163667520393</v>
+      </c>
+      <c r="G33">
+        <v>1.6968530710782199</v>
+      </c>
+      <c r="H33">
+        <v>1.8026669549504204</v>
+      </c>
+      <c r="I33">
+        <v>1.0252175649009336</v>
+      </c>
+      <c r="J33">
+        <v>0.93513503514748786</v>
+      </c>
+      <c r="K33">
+        <v>23.874122938476813</v>
+      </c>
+      <c r="L33">
+        <v>29.212153662989213</v>
+      </c>
+      <c r="M33">
+        <v>20.69547070827312</v>
+      </c>
+      <c r="N33">
+        <v>1.3382875565875336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="90">
+      <c r="A34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>81</v>
+      </c>
+      <c r="L35">
+        <v>52</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>-1</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>72</v>
+      </c>
+      <c r="L36">
+        <v>26</v>
+      </c>
+      <c r="M36">
+        <v>9</v>
+      </c>
+      <c r="N36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>19</v>
+      </c>
+      <c r="F37">
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>90</v>
+      </c>
+      <c r="L37">
+        <v>36</v>
+      </c>
+      <c r="M37">
+        <v>16</v>
+      </c>
+      <c r="N37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>-6</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>33</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>-2</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>-2</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>19</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>72</v>
+      </c>
+      <c r="L39">
+        <v>37</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40">
+        <v>17</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>42</v>
+      </c>
+      <c r="L40">
+        <v>8</v>
+      </c>
+      <c r="M40">
+        <v>11</v>
+      </c>
+      <c r="N40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>25</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>90</v>
+      </c>
+      <c r="L41">
+        <v>16</v>
+      </c>
+      <c r="M41">
+        <v>19</v>
+      </c>
+      <c r="N41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>25</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>17</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>72</v>
+      </c>
+      <c r="L42">
+        <v>98</v>
+      </c>
+      <c r="M42">
+        <v>25</v>
+      </c>
+      <c r="N42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43">
+        <v>26</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <v>32</v>
+      </c>
+      <c r="L43">
+        <v>-6</v>
+      </c>
+      <c r="M43">
+        <v>-5</v>
+      </c>
+      <c r="N43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44">
+        <v>27</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>-3</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>27</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45">
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>49</v>
+      </c>
+      <c r="L45">
+        <v>21</v>
+      </c>
+      <c r="M45">
+        <v>22</v>
+      </c>
+      <c r="N45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="16">
+        <v>5</v>
+      </c>
+      <c r="D46" s="16">
+        <v>7</v>
+      </c>
+      <c r="E46" s="16">
+        <v>14</v>
+      </c>
+      <c r="F46" s="16">
+        <v>9</v>
+      </c>
+      <c r="G46" s="16">
+        <v>4</v>
+      </c>
+      <c r="H46" s="16">
+        <v>6</v>
+      </c>
+      <c r="I46" s="16">
+        <v>2</v>
+      </c>
+      <c r="J46" s="16">
+        <v>3</v>
+      </c>
+      <c r="K46" s="16">
+        <v>57</v>
+      </c>
+      <c r="L46" s="16">
+        <v>23</v>
+      </c>
+      <c r="M46" s="16">
+        <v>30</v>
+      </c>
+      <c r="N46" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>13</v>
+      </c>
+      <c r="E47">
+        <v>11</v>
+      </c>
+      <c r="F47">
+        <v>14</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>56</v>
+      </c>
+      <c r="L47">
+        <v>24</v>
+      </c>
+      <c r="M47">
+        <v>15</v>
+      </c>
+      <c r="N47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48">
+        <v>50</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>36</v>
+      </c>
+      <c r="L48">
+        <v>23</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="C49" s="17">
+        <f>5/14</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="D49" s="17">
+        <f>9/14</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="E49" s="17">
+        <f>3/14</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="F49" s="17">
+        <f>8/14</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G49" s="17">
+        <f>10/14</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H49" s="17">
+        <f>5/14</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I49" s="17">
+        <f>4/14</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J49" s="17">
+        <f>5/14</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="K49" s="17">
+        <f>7/14</f>
+        <v>0.5</v>
+      </c>
+      <c r="L49" s="17">
+        <f>7/14</f>
+        <v>0.5</v>
+      </c>
+      <c r="M49" s="17">
+        <f>6/14</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="N49" s="17">
+        <f>7/14</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="C50" s="4">
+        <f>2/14</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D50" s="4">
+        <f>2/14</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E50" s="4">
+        <f>2/14</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F50" s="4">
+        <f>1/14</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="G50" s="4">
+        <f>1/14</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="H50" s="4">
+        <f>1/14</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="I50" s="4">
+        <f>0/14</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
+        <f>4/14</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K50" s="4">
+        <f>2/14</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="L50" s="4">
+        <f>2/14</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="M50" s="4">
+        <f>1/14</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="N50" s="4">
+        <f>3/14</f>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="C51" s="5">
+        <f>7/14</f>
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="5">
+        <f>3/14</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="E51" s="5">
+        <f>9/14</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="F51" s="5">
+        <f>5/14</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="G51" s="5">
+        <f>3/14</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="H51" s="5">
+        <f>8/14</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="I51" s="5">
+        <f>10/14</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J51" s="5">
+        <f>5/14</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="K51" s="5">
+        <f>5/14</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="L51" s="5">
+        <f>5/14</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="M51" s="5">
+        <f>7/14</f>
+        <v>0.5</v>
+      </c>
+      <c r="N51" s="5">
+        <f>4/14</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="90">
+      <c r="A52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>25</v>
+      </c>
+      <c r="L53">
+        <v>18</v>
+      </c>
+      <c r="M53">
+        <v>-3</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+      <c r="K54">
+        <v>64</v>
+      </c>
+      <c r="L54">
+        <v>20</v>
+      </c>
+      <c r="M54">
+        <v>15</v>
+      </c>
+      <c r="N54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>9</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>49</v>
+      </c>
+      <c r="L55">
+        <v>-2</v>
+      </c>
+      <c r="M55">
+        <v>20</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>14</v>
+      </c>
+      <c r="F56">
+        <v>14</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>7</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+      <c r="K56">
+        <v>64</v>
+      </c>
+      <c r="L56">
+        <v>53</v>
+      </c>
+      <c r="M56">
+        <v>17</v>
+      </c>
+      <c r="N56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>-1</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>42</v>
+      </c>
+      <c r="M57">
+        <v>-3</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>19</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <v>13</v>
+      </c>
+      <c r="F59">
+        <v>14</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59">
+        <v>63</v>
+      </c>
+      <c r="L59">
+        <v>24</v>
+      </c>
+      <c r="M59">
+        <v>5</v>
+      </c>
+      <c r="N59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60">
+        <v>28</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>-2</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>5</v>
+      </c>
+      <c r="K60">
+        <v>22</v>
+      </c>
+      <c r="L60">
+        <v>-11</v>
+      </c>
+      <c r="M60">
+        <v>-4</v>
+      </c>
+      <c r="N60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61">
+        <v>37</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>14</v>
+      </c>
+      <c r="F61">
+        <v>12</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+      <c r="H61">
+        <v>7</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <v>81</v>
+      </c>
+      <c r="L61">
+        <v>-8</v>
+      </c>
+      <c r="M61">
+        <v>44</v>
+      </c>
+      <c r="N61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62">
+        <v>46</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>4</v>
+      </c>
+      <c r="K62">
+        <v>56</v>
+      </c>
+      <c r="L62">
+        <v>8</v>
+      </c>
+      <c r="M62">
+        <v>9</v>
+      </c>
+      <c r="N62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63">
+        <v>49</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>19</v>
+      </c>
+      <c r="F63">
+        <v>9</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+      <c r="J63">
+        <v>4</v>
+      </c>
+      <c r="K63">
+        <v>19</v>
+      </c>
+      <c r="L63">
+        <v>28</v>
+      </c>
+      <c r="M63">
+        <v>4</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>-7</v>
+      </c>
+      <c r="D64">
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>19</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>6</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <v>4</v>
+      </c>
+      <c r="K64">
+        <v>49</v>
+      </c>
+      <c r="L64">
+        <v>37</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="5">
+        <f>AVERAGE(C53:C64)</f>
+        <v>3.25</v>
+      </c>
+      <c r="D65" s="5">
+        <f t="shared" ref="D65:N65" si="2">AVERAGE(D53:D64)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="E65" s="5">
+        <f t="shared" si="2"/>
+        <v>10.090909090909092</v>
+      </c>
+      <c r="F65" s="5">
+        <f t="shared" si="2"/>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="G65" s="5">
+        <f t="shared" si="2"/>
+        <v>3.4166666666666665</v>
+      </c>
+      <c r="H65" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I65" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J65" s="5">
+        <f t="shared" si="2"/>
+        <v>3.7272727272727271</v>
+      </c>
+      <c r="K65" s="5">
+        <f t="shared" si="2"/>
+        <v>44.909090909090907</v>
+      </c>
+      <c r="L65" s="5">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="M65" s="5">
+        <f t="shared" si="2"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="N65" s="5">
+        <f t="shared" si="2"/>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66">
+        <f>STDEV(C53:C64)</f>
+        <v>4.8076643355829622</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:N66" si="3">STDEV(D53:D64)</f>
+        <v>3.6265017787828473</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="3"/>
+        <v>6.2841792694757759</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="3"/>
+        <v>5.3399580068715444</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="3"/>
+        <v>1.8809249819912508</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="3"/>
+        <v>2.0493901531919199</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="3"/>
+        <v>0.7385489458759964</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="3"/>
+        <v>1.0090499582190262</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="3"/>
+        <v>24.390385587171622</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="3"/>
+        <v>20.755722102591371</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="3"/>
+        <v>13.714347718113807</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="3"/>
+        <v>1.6696942198734441</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="C71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="C72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="C74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="C77" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="C78" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="C80" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80">
+        <v>0.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C35:C48">
+    <cfRule type="cellIs" dxfId="23" priority="83" operator="lessThanOrEqual">
+      <formula>$C$65</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="84" operator="greaterThanOrEqual">
+      <formula>$C$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:D48">
+    <cfRule type="cellIs" dxfId="21" priority="93" operator="lessThanOrEqual">
+      <formula>$D$65</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="94" operator="greaterThanOrEqual">
+      <formula>$D$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:E48">
+    <cfRule type="cellIs" dxfId="19" priority="103" operator="lessThanOrEqual">
+      <formula>$E$65</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="104" operator="greaterThanOrEqual">
+      <formula>$E$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:F48">
+    <cfRule type="cellIs" dxfId="17" priority="113" operator="lessThanOrEqual">
+      <formula>$F$65</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="114" operator="greaterThanOrEqual">
+      <formula>$F$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:G48">
+    <cfRule type="cellIs" dxfId="15" priority="123" operator="lessThanOrEqual">
+      <formula>$G$65</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="124" operator="greaterThanOrEqual">
+      <formula>$G$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:H48">
+    <cfRule type="cellIs" dxfId="13" priority="133" operator="lessThanOrEqual">
+      <formula>$H$65</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="134" operator="greaterThanOrEqual">
+      <formula>$H$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I48">
+    <cfRule type="cellIs" dxfId="11" priority="143" operator="lessThanOrEqual">
+      <formula>$I$65</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="144" operator="greaterThanOrEqual">
+      <formula>$I$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:J48">
+    <cfRule type="cellIs" dxfId="9" priority="153" operator="lessThanOrEqual">
+      <formula>$J$65</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="154" operator="greaterThanOrEqual">
+      <formula>$J$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:K48">
+    <cfRule type="cellIs" dxfId="7" priority="163" operator="lessThanOrEqual">
+      <formula>$K$65</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="164" operator="greaterThanOrEqual">
+      <formula>$K$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:L48">
+    <cfRule type="cellIs" dxfId="5" priority="173" operator="lessThanOrEqual">
+      <formula>$L$65</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="174" operator="greaterThanOrEqual">
+      <formula>$L$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35:M48">
+    <cfRule type="cellIs" dxfId="3" priority="183" operator="lessThanOrEqual">
+      <formula>$M$65</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="184" operator="greaterThanOrEqual">
+      <formula>$M$28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35:N48">
+    <cfRule type="cellIs" dxfId="1" priority="193" operator="lessThanOrEqual">
+      <formula>$N$65</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="194" operator="greaterThanOrEqual">
+      <formula>$N$28</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
